--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2.1-500-4 (Ведьма)/Ведьма 0.5 л. от 03.10.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2.1-500-4 (Ведьма)/Ведьма 0.5 л. от 03.10.2019.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="163">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -551,6 +551,9 @@
       <t>)</t>
     </r>
   </si>
+  <si>
+    <t>Вес, гр. (ном. 380 гр.)</t>
+  </si>
 </sst>
 </file>
 
@@ -559,9 +562,9 @@
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="59" x14ac:knownFonts="1">
     <font>
@@ -851,6 +854,8 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -2223,7 +2228,7 @@
     <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="646">
+  <cellXfs count="653">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -3400,430 +3405,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="93" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="93" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="77" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4034,24 +3615,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="56" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="12" borderId="89" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="45" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4062,24 +3631,475 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="45" fillId="12" borderId="89" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="77" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="93" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="93" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6340,8 +6360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D10" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6361,554 +6381,568 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="537" t="s">
+      <c r="A1" s="498" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="537"/>
-      <c r="C1" s="537"/>
-      <c r="D1" s="537"/>
-      <c r="E1" s="537"/>
-      <c r="F1" s="537"/>
-      <c r="G1" s="537"/>
-      <c r="H1" s="537"/>
-      <c r="I1" s="537"/>
-      <c r="J1" s="537"/>
-      <c r="K1" s="537"/>
-      <c r="L1" s="537"/>
+      <c r="B1" s="498"/>
+      <c r="C1" s="498"/>
+      <c r="D1" s="498"/>
+      <c r="E1" s="498"/>
+      <c r="F1" s="498"/>
+      <c r="G1" s="498"/>
+      <c r="H1" s="498"/>
+      <c r="I1" s="498"/>
+      <c r="J1" s="498"/>
+      <c r="K1" s="498"/>
+      <c r="L1" s="498"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="538" t="s">
+      <c r="A2" s="499" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="538"/>
-      <c r="C2" s="538"/>
-      <c r="D2" s="538"/>
-      <c r="E2" s="538"/>
-      <c r="F2" s="539"/>
-      <c r="G2" s="540"/>
-      <c r="H2" s="541"/>
-      <c r="K2" s="542"/>
-      <c r="L2" s="542"/>
-      <c r="M2" s="543"/>
+      <c r="B2" s="499"/>
+      <c r="C2" s="499"/>
+      <c r="D2" s="499"/>
+      <c r="E2" s="499"/>
+      <c r="F2" s="395"/>
+      <c r="G2" s="396"/>
+      <c r="H2" s="397"/>
+      <c r="K2" s="398"/>
+      <c r="L2" s="398"/>
+      <c r="M2" s="399"/>
     </row>
     <row r="3" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="543"/>
-      <c r="B3" s="544"/>
-      <c r="C3" s="544"/>
-      <c r="F3" s="545"/>
-      <c r="G3" s="546"/>
-      <c r="H3" s="545"/>
-      <c r="I3" s="545"/>
-      <c r="J3" s="542"/>
-      <c r="K3" s="542"/>
+      <c r="A3" s="399"/>
+      <c r="B3" s="400"/>
+      <c r="C3" s="400"/>
+      <c r="F3" s="401"/>
+      <c r="G3" s="402"/>
+      <c r="H3" s="401"/>
+      <c r="I3" s="401"/>
+      <c r="J3" s="398"/>
+      <c r="K3" s="398"/>
       <c r="M3" s="375"/>
     </row>
     <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="547" t="s">
+      <c r="A4" s="403" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="548" t="s">
+      <c r="B4" s="404" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="548" t="s">
+      <c r="C4" s="404" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="548" t="s">
+      <c r="D4" s="404" t="s">
         <v>132</v>
       </c>
-      <c r="E4" s="548" t="s">
+      <c r="E4" s="404" t="s">
         <v>133</v>
       </c>
-      <c r="F4" s="548" t="s">
+      <c r="F4" s="404" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="548" t="s">
+      <c r="G4" s="404" t="s">
         <v>135</v>
       </c>
-      <c r="H4" s="549" t="s">
+      <c r="H4" s="405" t="s">
         <v>136</v>
       </c>
-      <c r="I4" s="550" t="s">
+      <c r="I4" s="406" t="s">
         <v>137</v>
       </c>
-      <c r="J4" s="548" t="s">
+      <c r="J4" s="404" t="s">
         <v>138</v>
       </c>
-      <c r="K4" s="548" t="s">
+      <c r="K4" s="404" t="s">
         <v>139</v>
       </c>
-      <c r="L4" s="549" t="s">
+      <c r="L4" s="405" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="551">
+      <c r="A5" s="407">
         <v>1</v>
       </c>
-      <c r="B5" s="552" t="s">
+      <c r="B5" s="408" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="553" t="s">
+      <c r="C5" s="409" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="554">
+      <c r="D5" s="410">
         <v>22</v>
       </c>
-      <c r="E5" s="554">
+      <c r="E5" s="410">
         <v>22</v>
       </c>
-      <c r="F5" s="555"/>
-      <c r="G5" s="554">
+      <c r="F5" s="411"/>
+      <c r="G5" s="410">
         <f>E5-F5</f>
         <v>22</v>
       </c>
-      <c r="H5" s="556"/>
-      <c r="I5" s="557"/>
-      <c r="J5" s="558"/>
-      <c r="K5" s="558"/>
-      <c r="L5" s="559"/>
+      <c r="H5" s="412"/>
+      <c r="I5" s="413"/>
+      <c r="J5" s="414"/>
+      <c r="K5" s="414"/>
+      <c r="L5" s="415"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="560">
+      <c r="A6" s="416">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="561" t="s">
+      <c r="B6" s="417" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="553" t="s">
+      <c r="C6" s="409" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="553">
+      <c r="D6" s="409">
         <v>22</v>
       </c>
-      <c r="E6" s="553">
+      <c r="E6" s="409">
         <v>22</v>
       </c>
       <c r="F6" s="394"/>
-      <c r="G6" s="553">
+      <c r="G6" s="409">
         <f t="shared" ref="G6:G16" si="0">E6-F6</f>
         <v>22</v>
       </c>
-      <c r="H6" s="562"/>
-      <c r="I6" s="563"/>
+      <c r="H6" s="418"/>
+      <c r="I6" s="419"/>
       <c r="J6" s="390"/>
       <c r="K6" s="390"/>
-      <c r="L6" s="564"/>
+      <c r="L6" s="420"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="560">
+      <c r="A7" s="416">
         <f t="shared" ref="A7:A16" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="561" t="s">
+      <c r="B7" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="553" t="s">
+      <c r="C7" s="409" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="553">
+      <c r="D7" s="409">
         <v>26</v>
       </c>
-      <c r="E7" s="553">
+      <c r="E7" s="409">
         <v>26</v>
       </c>
       <c r="F7" s="394"/>
-      <c r="G7" s="553">
+      <c r="G7" s="409">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="H7" s="565"/>
-      <c r="I7" s="563"/>
+      <c r="H7" s="421"/>
+      <c r="I7" s="419"/>
       <c r="J7" s="390"/>
       <c r="K7" s="390"/>
-      <c r="L7" s="564"/>
+      <c r="L7" s="420"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="560">
+      <c r="A8" s="416">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="561" t="s">
+      <c r="B8" s="417" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="553" t="s">
+      <c r="C8" s="409" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="553">
+      <c r="D8" s="409">
         <v>26</v>
       </c>
-      <c r="E8" s="553">
+      <c r="E8" s="409">
         <v>26</v>
       </c>
       <c r="F8" s="394"/>
-      <c r="G8" s="553">
+      <c r="G8" s="409">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="H8" s="565"/>
-      <c r="I8" s="563"/>
-      <c r="J8" s="553"/>
+      <c r="H8" s="421"/>
+      <c r="I8" s="419"/>
+      <c r="J8" s="409"/>
       <c r="K8" s="390"/>
-      <c r="L8" s="564"/>
+      <c r="L8" s="420"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="560">
+      <c r="A9" s="416">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="566" t="s">
+      <c r="B9" s="422" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="553" t="s">
+      <c r="C9" s="409" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="553">
+      <c r="D9" s="409">
         <v>18</v>
       </c>
-      <c r="E9" s="553">
+      <c r="E9" s="409">
         <v>18</v>
       </c>
       <c r="F9" s="394"/>
-      <c r="G9" s="553">
+      <c r="G9" s="409">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H9" s="565"/>
-      <c r="I9" s="567"/>
-      <c r="J9" s="553"/>
-      <c r="K9" s="553"/>
-      <c r="L9" s="564"/>
+      <c r="H9" s="421"/>
+      <c r="I9" s="423"/>
+      <c r="J9" s="409"/>
+      <c r="K9" s="409"/>
+      <c r="L9" s="420"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="560">
+      <c r="A10" s="416">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="561" t="s">
+      <c r="B10" s="417" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="553" t="s">
+      <c r="C10" s="409" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="553">
+      <c r="D10" s="409">
         <v>20</v>
       </c>
-      <c r="E10" s="553">
+      <c r="E10" s="409">
         <v>20</v>
       </c>
       <c r="F10" s="394"/>
-      <c r="G10" s="553">
+      <c r="G10" s="409">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H10" s="565"/>
-      <c r="I10" s="563"/>
-      <c r="J10" s="553"/>
+      <c r="H10" s="421"/>
+      <c r="I10" s="419"/>
+      <c r="J10" s="409"/>
       <c r="K10" s="390"/>
-      <c r="L10" s="564"/>
+      <c r="L10" s="420"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="560">
+      <c r="A11" s="416">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="561" t="s">
+      <c r="B11" s="417" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="553" t="s">
+      <c r="C11" s="409" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="553">
+      <c r="D11" s="409">
         <v>50</v>
       </c>
-      <c r="E11" s="553">
+      <c r="E11" s="409">
         <v>50</v>
       </c>
-      <c r="F11" s="568"/>
-      <c r="G11" s="553">
+      <c r="F11" s="424"/>
+      <c r="G11" s="409">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H11" s="565"/>
-      <c r="I11" s="567"/>
-      <c r="J11" s="553"/>
-      <c r="K11" s="553"/>
-      <c r="L11" s="564"/>
-      <c r="M11" s="569"/>
+      <c r="H11" s="421"/>
+      <c r="I11" s="423"/>
+      <c r="J11" s="409"/>
+      <c r="K11" s="409"/>
+      <c r="L11" s="420"/>
+      <c r="M11" s="425"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="560">
+      <c r="A12" s="416">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="566" t="s">
+      <c r="B12" s="422" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="553" t="s">
+      <c r="C12" s="409" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="553">
+      <c r="D12" s="409">
         <v>18</v>
       </c>
-      <c r="E12" s="553">
+      <c r="E12" s="409">
         <v>18</v>
       </c>
-      <c r="F12" s="570"/>
-      <c r="G12" s="553">
+      <c r="F12" s="426"/>
+      <c r="G12" s="409">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H12" s="565"/>
-      <c r="I12" s="567"/>
-      <c r="J12" s="553"/>
-      <c r="K12" s="553"/>
-      <c r="L12" s="564"/>
-      <c r="M12" s="569"/>
+      <c r="H12" s="421"/>
+      <c r="I12" s="423"/>
+      <c r="J12" s="409"/>
+      <c r="K12" s="409"/>
+      <c r="L12" s="420"/>
+      <c r="M12" s="425"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="560">
+      <c r="A13" s="416">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="566" t="s">
+      <c r="B13" s="422" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="553" t="s">
+      <c r="C13" s="409" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="553">
+      <c r="D13" s="409">
         <v>8</v>
       </c>
-      <c r="E13" s="553">
+      <c r="E13" s="409">
         <v>8</v>
       </c>
       <c r="F13" s="394"/>
-      <c r="G13" s="553">
+      <c r="G13" s="409">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H13" s="565" t="s">
+      <c r="H13" s="421" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="567"/>
-      <c r="J13" s="553"/>
-      <c r="K13" s="553"/>
-      <c r="L13" s="564"/>
+      <c r="I13" s="423"/>
+      <c r="J13" s="409"/>
+      <c r="K13" s="409"/>
+      <c r="L13" s="420"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="560">
+      <c r="A14" s="416">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="561" t="s">
+      <c r="B14" s="417" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="553" t="s">
+      <c r="C14" s="409" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="553">
+      <c r="D14" s="409">
         <v>40</v>
       </c>
-      <c r="E14" s="553">
+      <c r="E14" s="409">
         <v>40</v>
       </c>
-      <c r="F14" s="568"/>
-      <c r="G14" s="553">
+      <c r="F14" s="424"/>
+      <c r="G14" s="409">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H14" s="565"/>
-      <c r="I14" s="567"/>
-      <c r="J14" s="553"/>
-      <c r="K14" s="553"/>
-      <c r="L14" s="564"/>
+      <c r="H14" s="421"/>
+      <c r="I14" s="423"/>
+      <c r="J14" s="409"/>
+      <c r="K14" s="409"/>
+      <c r="L14" s="420"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="560">
+      <c r="A15" s="416">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="561" t="s">
+      <c r="B15" s="417" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="553" t="s">
+      <c r="C15" s="409" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="553">
+      <c r="D15" s="409">
         <v>50</v>
       </c>
-      <c r="E15" s="553">
+      <c r="E15" s="409">
         <v>50</v>
       </c>
       <c r="F15" s="394"/>
-      <c r="G15" s="553">
+      <c r="G15" s="409">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H15" s="565"/>
-      <c r="I15" s="567"/>
-      <c r="J15" s="553"/>
-      <c r="K15" s="553"/>
-      <c r="L15" s="564"/>
+      <c r="H15" s="421"/>
+      <c r="I15" s="423"/>
+      <c r="J15" s="409"/>
+      <c r="K15" s="409"/>
+      <c r="L15" s="420"/>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="571">
+      <c r="A16" s="427">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="572" t="s">
+      <c r="B16" s="428" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="573"/>
-      <c r="D16" s="573"/>
-      <c r="E16" s="573"/>
-      <c r="F16" s="574"/>
-      <c r="G16" s="573">
+      <c r="C16" s="429"/>
+      <c r="D16" s="429"/>
+      <c r="E16" s="429"/>
+      <c r="F16" s="430"/>
+      <c r="G16" s="429">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="575"/>
-      <c r="I16" s="576"/>
-      <c r="J16" s="577"/>
-      <c r="K16" s="573"/>
-      <c r="L16" s="564"/>
+      <c r="H16" s="431"/>
+      <c r="I16" s="432"/>
+      <c r="J16" s="433"/>
+      <c r="K16" s="429"/>
+      <c r="L16" s="420"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="578"/>
-      <c r="B17" s="579"/>
-      <c r="C17" s="543"/>
-      <c r="D17" s="543"/>
-      <c r="E17" s="543"/>
-      <c r="F17" s="543"/>
-      <c r="G17" s="543"/>
-      <c r="H17" s="543"/>
-      <c r="I17" s="543"/>
-      <c r="J17" s="543"/>
+      <c r="A17" s="434"/>
+      <c r="B17" s="435"/>
+      <c r="C17" s="399"/>
+      <c r="D17" s="399"/>
+      <c r="E17" s="399"/>
+      <c r="F17" s="399"/>
+      <c r="G17" s="399"/>
+      <c r="H17" s="399"/>
+      <c r="I17" s="399"/>
+      <c r="J17" s="399"/>
     </row>
     <row r="18" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="543"/>
-      <c r="B18" s="580" t="s">
+      <c r="A18" s="399"/>
+      <c r="B18" s="436" t="s">
         <v>145</v>
       </c>
       <c r="C18" s="375"/>
       <c r="D18" s="375"/>
       <c r="E18" s="375"/>
       <c r="F18" s="375"/>
-      <c r="G18" s="543"/>
-      <c r="H18" s="543"/>
-      <c r="I18" s="543"/>
-      <c r="J18" s="581"/>
-      <c r="K18" s="581"/>
-      <c r="L18" s="581"/>
+      <c r="G18" s="399"/>
+      <c r="H18" s="399"/>
+      <c r="I18" s="399"/>
+      <c r="J18" s="437"/>
+      <c r="K18" s="437"/>
+      <c r="L18" s="437"/>
     </row>
     <row r="19" spans="1:12" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="547" t="s">
+      <c r="A19" s="403" t="s">
         <v>146</v>
       </c>
-      <c r="B19" s="548" t="s">
+      <c r="B19" s="404" t="s">
         <v>147</v>
       </c>
-      <c r="C19" s="548" t="s">
+      <c r="C19" s="404" t="s">
         <v>148</v>
       </c>
-      <c r="D19" s="548" t="s">
+      <c r="D19" s="404" t="s">
         <v>149</v>
       </c>
-      <c r="E19" s="548" t="s">
+      <c r="E19" s="404" t="s">
         <v>150</v>
       </c>
-      <c r="F19" s="548" t="s">
+      <c r="F19" s="404" t="s">
         <v>151</v>
       </c>
-      <c r="G19" s="582" t="s">
+      <c r="G19" s="438" t="s">
         <v>152</v>
       </c>
-      <c r="H19" s="583" t="s">
+      <c r="H19" s="439" t="s">
         <v>153</v>
       </c>
-      <c r="I19" s="584" t="s">
+      <c r="I19" s="440" t="s">
         <v>154</v>
       </c>
-      <c r="J19" s="585"/>
-      <c r="K19" s="585"/>
-      <c r="L19" s="585"/>
+      <c r="J19" s="440" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" s="441"/>
+      <c r="L19" s="441"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="586">
+      <c r="A20" s="442">
         <f>D5*700000</f>
         <v>15400000</v>
       </c>
-      <c r="B20" s="587">
+      <c r="B20" s="443">
         <v>43755</v>
       </c>
-      <c r="C20" s="588">
+      <c r="C20" s="444">
         <v>43758</v>
       </c>
-      <c r="D20" s="587">
+      <c r="D20" s="443">
         <v>43759</v>
       </c>
-      <c r="E20" s="589">
+      <c r="E20" s="445">
         <v>497004</v>
       </c>
-      <c r="F20" s="589">
+      <c r="F20" s="445">
         <v>650324</v>
       </c>
-      <c r="G20" s="590">
+      <c r="G20" s="446">
         <f>F20/A$20</f>
         <v>4.2228831168831166E-2</v>
       </c>
-      <c r="H20" s="591">
+      <c r="H20" s="447">
         <f>A20-F20</f>
         <v>14749676</v>
       </c>
-      <c r="I20" s="592">
+      <c r="I20" s="448">
         <f>1-G20</f>
         <v>0.95777116883116886</v>
       </c>
-      <c r="J20" s="593"/>
-      <c r="K20" s="594"/>
-      <c r="L20" s="594"/>
+      <c r="J20" s="646"/>
+      <c r="K20" s="450"/>
+      <c r="L20" s="450"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="595"/>
-      <c r="B21" s="596"/>
-      <c r="C21" s="596"/>
-      <c r="D21" s="596"/>
-      <c r="E21" s="597"/>
-      <c r="F21" s="597"/>
-      <c r="G21" s="590">
+      <c r="A21" s="451"/>
+      <c r="B21" s="452">
+        <v>43840</v>
+      </c>
+      <c r="C21" s="452">
+        <v>43843</v>
+      </c>
+      <c r="D21" s="452">
+        <v>43857</v>
+      </c>
+      <c r="E21" s="453">
+        <v>574080</v>
+      </c>
+      <c r="F21" s="453">
+        <v>651933</v>
+      </c>
+      <c r="G21" s="446">
         <f>F21/A$20</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="598">
+        <v>4.2333311688311691E-2</v>
+      </c>
+      <c r="H21" s="454">
         <f>H20-F21</f>
-        <v>14749676</v>
-      </c>
-      <c r="I21" s="599">
+        <v>14097743</v>
+      </c>
+      <c r="I21" s="455">
         <f>I20-G21</f>
-        <v>0.95777116883116886</v>
-      </c>
-      <c r="J21" s="543"/>
-      <c r="K21" s="543"/>
-      <c r="L21" s="543"/>
+        <v>0.91543785714285719</v>
+      </c>
+      <c r="J21" s="647">
+        <v>367</v>
+      </c>
+      <c r="K21" s="399"/>
+      <c r="L21" s="399"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="600"/>
-      <c r="B22" s="601"/>
-      <c r="C22" s="601"/>
-      <c r="D22" s="601"/>
-      <c r="E22" s="602"/>
-      <c r="F22" s="602"/>
-      <c r="G22" s="603"/>
-      <c r="H22" s="604"/>
-      <c r="I22" s="605"/>
-      <c r="J22" s="593"/>
-      <c r="K22" s="594"/>
-      <c r="L22" s="594"/>
+      <c r="A22" s="456"/>
+      <c r="B22" s="457"/>
+      <c r="C22" s="457"/>
+      <c r="D22" s="457"/>
+      <c r="E22" s="458"/>
+      <c r="F22" s="458"/>
+      <c r="G22" s="459"/>
+      <c r="H22" s="460"/>
+      <c r="I22" s="461"/>
+      <c r="J22" s="648"/>
+      <c r="K22" s="450"/>
+      <c r="L22" s="450"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="600"/>
+      <c r="A23" s="456"/>
       <c r="B23" s="390"/>
       <c r="C23" s="390"/>
       <c r="D23" s="390"/>
@@ -6916,417 +6950,412 @@
       <c r="F23" s="390"/>
       <c r="G23" s="390"/>
       <c r="H23" s="390"/>
-      <c r="I23" s="606"/>
-      <c r="J23" s="593"/>
-      <c r="K23" s="593"/>
-      <c r="L23" s="543"/>
+      <c r="I23" s="462"/>
+      <c r="J23" s="649"/>
+      <c r="K23" s="449"/>
+      <c r="L23" s="399"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="600"/>
-      <c r="B24" s="601"/>
-      <c r="C24" s="601"/>
-      <c r="D24" s="601"/>
-      <c r="E24" s="602"/>
-      <c r="F24" s="602"/>
-      <c r="G24" s="607"/>
-      <c r="H24" s="604"/>
-      <c r="I24" s="605"/>
-      <c r="J24" s="593"/>
-      <c r="K24" s="608"/>
-      <c r="L24" s="543"/>
+      <c r="A24" s="456"/>
+      <c r="B24" s="457"/>
+      <c r="C24" s="457"/>
+      <c r="D24" s="457"/>
+      <c r="E24" s="458"/>
+      <c r="F24" s="458"/>
+      <c r="G24" s="463"/>
+      <c r="H24" s="460"/>
+      <c r="I24" s="461"/>
+      <c r="J24" s="648"/>
+      <c r="K24" s="464"/>
+      <c r="L24" s="399"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="600"/>
-      <c r="B25" s="601"/>
-      <c r="C25" s="601"/>
-      <c r="D25" s="601"/>
-      <c r="E25" s="602"/>
-      <c r="F25" s="602"/>
-      <c r="G25" s="607"/>
-      <c r="H25" s="604"/>
-      <c r="I25" s="605"/>
-      <c r="J25" s="593"/>
-      <c r="K25" s="593"/>
-      <c r="L25" s="543"/>
+      <c r="A25" s="456"/>
+      <c r="B25" s="457"/>
+      <c r="C25" s="457"/>
+      <c r="D25" s="457"/>
+      <c r="E25" s="458"/>
+      <c r="F25" s="458"/>
+      <c r="G25" s="463"/>
+      <c r="H25" s="460"/>
+      <c r="I25" s="461"/>
+      <c r="J25" s="648"/>
+      <c r="K25" s="449"/>
+      <c r="L25" s="399"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="600"/>
-      <c r="B26" s="601"/>
-      <c r="C26" s="601"/>
-      <c r="D26" s="601"/>
-      <c r="E26" s="604"/>
-      <c r="F26" s="602"/>
-      <c r="G26" s="607"/>
-      <c r="H26" s="604"/>
-      <c r="I26" s="605"/>
-      <c r="J26" s="593"/>
-      <c r="K26" s="593"/>
-      <c r="L26" s="543"/>
+      <c r="A26" s="456"/>
+      <c r="B26" s="457"/>
+      <c r="C26" s="457"/>
+      <c r="D26" s="457"/>
+      <c r="E26" s="460"/>
+      <c r="F26" s="458"/>
+      <c r="G26" s="463"/>
+      <c r="H26" s="460"/>
+      <c r="I26" s="461"/>
+      <c r="J26" s="648"/>
+      <c r="K26" s="449"/>
+      <c r="L26" s="399"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="600"/>
-      <c r="B27" s="601"/>
-      <c r="C27" s="601"/>
-      <c r="D27" s="601"/>
-      <c r="E27" s="604"/>
-      <c r="F27" s="602"/>
-      <c r="G27" s="607"/>
-      <c r="H27" s="604"/>
-      <c r="I27" s="605"/>
-      <c r="J27" s="593"/>
-      <c r="K27" s="593"/>
-      <c r="L27" s="543"/>
+      <c r="A27" s="456"/>
+      <c r="B27" s="457"/>
+      <c r="C27" s="457"/>
+      <c r="D27" s="457"/>
+      <c r="E27" s="460"/>
+      <c r="F27" s="458"/>
+      <c r="G27" s="463"/>
+      <c r="H27" s="460"/>
+      <c r="I27" s="461"/>
+      <c r="J27" s="648"/>
+      <c r="K27" s="449"/>
+      <c r="L27" s="399"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="600"/>
-      <c r="B28" s="601"/>
-      <c r="C28" s="601"/>
+      <c r="A28" s="456"/>
+      <c r="B28" s="457"/>
+      <c r="C28" s="457"/>
       <c r="D28" s="390"/>
       <c r="E28" s="390"/>
-      <c r="F28" s="602"/>
-      <c r="G28" s="609"/>
-      <c r="H28" s="604"/>
-      <c r="I28" s="610"/>
-      <c r="J28" s="593"/>
-      <c r="K28" s="593"/>
-      <c r="L28" s="543"/>
+      <c r="F28" s="458"/>
+      <c r="G28" s="465"/>
+      <c r="H28" s="460"/>
+      <c r="I28" s="466"/>
+      <c r="J28" s="650"/>
+      <c r="K28" s="449"/>
+      <c r="L28" s="399"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="600"/>
-      <c r="B29" s="601"/>
-      <c r="C29" s="601"/>
+      <c r="A29" s="456"/>
+      <c r="B29" s="457"/>
+      <c r="C29" s="457"/>
       <c r="D29" s="390"/>
       <c r="E29" s="390"/>
-      <c r="F29" s="602"/>
-      <c r="G29" s="607"/>
-      <c r="H29" s="604"/>
-      <c r="I29" s="610"/>
-      <c r="J29" s="593"/>
-      <c r="K29" s="593"/>
-      <c r="L29" s="543"/>
+      <c r="F29" s="458"/>
+      <c r="G29" s="463"/>
+      <c r="H29" s="460"/>
+      <c r="I29" s="466"/>
+      <c r="J29" s="650"/>
+      <c r="K29" s="449"/>
+      <c r="L29" s="399"/>
     </row>
     <row r="30" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="611"/>
-      <c r="B30" s="612"/>
-      <c r="C30" s="612"/>
-      <c r="D30" s="613"/>
-      <c r="E30" s="613"/>
-      <c r="F30" s="614"/>
-      <c r="G30" s="615"/>
-      <c r="H30" s="616"/>
-      <c r="I30" s="617"/>
-      <c r="J30" s="543"/>
-      <c r="K30" s="543"/>
-      <c r="L30" s="543"/>
+      <c r="A30" s="467"/>
+      <c r="B30" s="468"/>
+      <c r="C30" s="468"/>
+      <c r="D30" s="469"/>
+      <c r="E30" s="469"/>
+      <c r="F30" s="470"/>
+      <c r="G30" s="471"/>
+      <c r="H30" s="472"/>
+      <c r="I30" s="473"/>
+      <c r="J30" s="651"/>
+      <c r="K30" s="399"/>
+      <c r="L30" s="399"/>
     </row>
     <row r="31" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="618" t="s">
+      <c r="A31" s="474" t="s">
         <v>155</v>
       </c>
-      <c r="B31" s="619"/>
-      <c r="C31" s="619"/>
-      <c r="D31" s="620"/>
-      <c r="E31" s="621">
+      <c r="B31" s="475"/>
+      <c r="C31" s="475"/>
+      <c r="D31" s="476"/>
+      <c r="E31" s="477">
         <f>SUM(E20:E30)</f>
-        <v>497004</v>
-      </c>
-      <c r="F31" s="622">
+        <v>1071084</v>
+      </c>
+      <c r="F31" s="478">
         <f>SUM(F20:F30)</f>
-        <v>650324</v>
-      </c>
-      <c r="G31" s="623">
+        <v>1302257</v>
+      </c>
+      <c r="G31" s="479">
         <f>SUM(G20:G30)</f>
-        <v>4.2228831168831166E-2</v>
-      </c>
-      <c r="H31" s="624">
+        <v>8.4562142857142863E-2</v>
+      </c>
+      <c r="H31" s="480">
         <f>A20-F31</f>
-        <v>14749676</v>
-      </c>
-      <c r="I31" s="625">
+        <v>14097743</v>
+      </c>
+      <c r="I31" s="481">
         <f>1-G31</f>
-        <v>0.95777116883116886</v>
-      </c>
-      <c r="J31" s="626"/>
-      <c r="K31" s="626"/>
-      <c r="L31" s="626"/>
+        <v>0.91543785714285719</v>
+      </c>
+      <c r="J31" s="652"/>
+      <c r="K31" s="482"/>
+      <c r="L31" s="482"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="543"/>
-      <c r="B34" s="543"/>
-      <c r="C34" s="543"/>
-      <c r="D34" s="543"/>
-      <c r="E34" s="543"/>
-      <c r="F34" s="543"/>
-      <c r="G34" s="543"/>
-      <c r="H34" s="543"/>
-      <c r="I34" s="543"/>
-      <c r="J34" s="543"/>
+      <c r="A34" s="399"/>
+      <c r="B34" s="399"/>
+      <c r="C34" s="399"/>
+      <c r="D34" s="399"/>
+      <c r="E34" s="399"/>
+      <c r="F34" s="399"/>
+      <c r="G34" s="399"/>
+      <c r="H34" s="399"/>
+      <c r="I34" s="399"/>
+      <c r="J34" s="399"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="627" t="s">
+      <c r="A35" s="500" t="s">
         <v>156</v>
       </c>
-      <c r="B35" s="627"/>
-      <c r="C35" s="627"/>
-      <c r="D35" s="627"/>
-      <c r="E35" s="543"/>
-      <c r="F35" s="543"/>
-      <c r="G35" s="543"/>
-      <c r="H35" s="543"/>
-      <c r="I35" s="543"/>
-      <c r="J35" s="543"/>
+      <c r="B35" s="500"/>
+      <c r="C35" s="500"/>
+      <c r="D35" s="500"/>
+      <c r="E35" s="399"/>
+      <c r="F35" s="399"/>
+      <c r="G35" s="399"/>
+      <c r="H35" s="399"/>
+      <c r="I35" s="399"/>
+      <c r="J35" s="399"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="628" t="s">
+      <c r="A36" s="501" t="s">
         <v>157</v>
       </c>
-      <c r="B36" s="628"/>
-      <c r="C36" s="629" t="s">
+      <c r="B36" s="501"/>
+      <c r="C36" s="483" t="s">
         <v>158</v>
       </c>
-      <c r="D36" s="629" t="s">
+      <c r="D36" s="483" t="s">
         <v>159</v>
       </c>
-      <c r="E36" s="543"/>
-      <c r="F36" s="543"/>
-      <c r="G36" s="543"/>
-      <c r="H36" s="543"/>
-      <c r="I36" s="543"/>
-      <c r="J36" s="543"/>
+      <c r="E36" s="399"/>
+      <c r="F36" s="399"/>
+      <c r="G36" s="399"/>
+      <c r="H36" s="399"/>
+      <c r="I36" s="399"/>
+      <c r="J36" s="399"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="630">
+      <c r="A37" s="502">
         <f>A20-F31</f>
-        <v>14749676</v>
-      </c>
-      <c r="B37" s="631"/>
-      <c r="C37" s="632">
+        <v>14097743</v>
+      </c>
+      <c r="B37" s="503"/>
+      <c r="C37" s="484">
         <f>1-G31</f>
-        <v>0.95777116883116886</v>
-      </c>
-      <c r="D37" s="633">
+        <v>0.91543785714285719</v>
+      </c>
+      <c r="D37" s="485">
         <f>(C37/0.8)*100</f>
-        <v>119.7213961038961</v>
-      </c>
-      <c r="E37" s="634" t="s">
+        <v>114.42973214285715</v>
+      </c>
+      <c r="E37" s="486" t="s">
         <v>160</v>
       </c>
-      <c r="F37" s="634"/>
-      <c r="G37" s="634"/>
-      <c r="H37" s="634"/>
-      <c r="I37" s="634"/>
-      <c r="J37" s="634"/>
+      <c r="F37" s="486"/>
+      <c r="G37" s="486"/>
+      <c r="H37" s="486"/>
+      <c r="I37" s="486"/>
+      <c r="J37" s="486"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="543"/>
-      <c r="B38" s="543"/>
-      <c r="C38" s="543"/>
-      <c r="D38" s="543"/>
-      <c r="E38" s="543"/>
-      <c r="F38" s="543"/>
+      <c r="A38" s="399"/>
+      <c r="B38" s="399"/>
+      <c r="C38" s="399"/>
+      <c r="D38" s="399"/>
+      <c r="E38" s="399"/>
+      <c r="F38" s="399"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="543"/>
-      <c r="B39" s="543"/>
-      <c r="C39" s="543"/>
-      <c r="D39" s="543"/>
-      <c r="E39" s="543"/>
-      <c r="F39" s="543"/>
-      <c r="G39" s="543"/>
-      <c r="H39" s="543"/>
-      <c r="I39" s="543"/>
-      <c r="J39" s="543"/>
+      <c r="A39" s="399"/>
+      <c r="B39" s="399"/>
+      <c r="C39" s="399"/>
+      <c r="D39" s="399"/>
+      <c r="E39" s="399"/>
+      <c r="F39" s="399"/>
+      <c r="G39" s="399"/>
+      <c r="H39" s="399"/>
+      <c r="I39" s="399"/>
+      <c r="J39" s="399"/>
       <c r="K39" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="543"/>
-      <c r="B40" s="635"/>
-      <c r="C40" s="635"/>
-      <c r="D40" s="543"/>
-      <c r="E40" s="543"/>
-      <c r="F40" s="543"/>
-      <c r="G40" s="543"/>
-      <c r="H40" s="543"/>
-      <c r="I40" s="543"/>
-      <c r="J40" s="543"/>
+      <c r="A40" s="399"/>
+      <c r="B40" s="487"/>
+      <c r="C40" s="487"/>
+      <c r="D40" s="399"/>
+      <c r="E40" s="399"/>
+      <c r="F40" s="399"/>
+      <c r="G40" s="399"/>
+      <c r="H40" s="399"/>
+      <c r="I40" s="399"/>
+      <c r="J40" s="399"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="636"/>
-      <c r="B41" s="636"/>
-      <c r="C41" s="636"/>
-      <c r="D41" s="636"/>
-      <c r="E41" s="636"/>
-      <c r="F41" s="636"/>
-      <c r="G41" s="636"/>
-      <c r="H41" s="636"/>
-      <c r="I41" s="637"/>
-      <c r="J41" s="638"/>
+      <c r="A41" s="488"/>
+      <c r="B41" s="488"/>
+      <c r="C41" s="488"/>
+      <c r="D41" s="488"/>
+      <c r="E41" s="488"/>
+      <c r="F41" s="488"/>
+      <c r="G41" s="488"/>
+      <c r="H41" s="488"/>
+      <c r="I41" s="495"/>
+      <c r="J41" s="496"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="639"/>
-      <c r="B42" s="640"/>
-      <c r="C42" s="640"/>
-      <c r="D42" s="543"/>
-      <c r="E42" s="543"/>
-      <c r="F42" s="640"/>
-      <c r="G42" s="641"/>
-      <c r="H42" s="640"/>
+      <c r="A42" s="489"/>
+      <c r="B42" s="490"/>
+      <c r="C42" s="490"/>
+      <c r="D42" s="399"/>
+      <c r="E42" s="399"/>
+      <c r="F42" s="490"/>
+      <c r="G42" s="491"/>
+      <c r="H42" s="490"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="639"/>
-      <c r="B43" s="640"/>
-      <c r="C43" s="640"/>
-      <c r="D43" s="640"/>
-      <c r="E43" s="640"/>
-      <c r="F43" s="640"/>
-      <c r="G43" s="641"/>
-      <c r="H43" s="640"/>
+      <c r="A43" s="489"/>
+      <c r="B43" s="490"/>
+      <c r="C43" s="490"/>
+      <c r="D43" s="490"/>
+      <c r="E43" s="490"/>
+      <c r="F43" s="490"/>
+      <c r="G43" s="491"/>
+      <c r="H43" s="490"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="639"/>
-      <c r="B44" s="640"/>
-      <c r="C44" s="640"/>
-      <c r="D44" s="543"/>
-      <c r="E44" s="543"/>
-      <c r="F44" s="640"/>
-      <c r="G44" s="641"/>
-      <c r="H44" s="640"/>
+      <c r="A44" s="489"/>
+      <c r="B44" s="490"/>
+      <c r="C44" s="490"/>
+      <c r="D44" s="399"/>
+      <c r="E44" s="399"/>
+      <c r="F44" s="490"/>
+      <c r="G44" s="491"/>
+      <c r="H44" s="490"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="639"/>
-      <c r="B45" s="640"/>
-      <c r="C45" s="640"/>
-      <c r="D45" s="640"/>
-      <c r="E45" s="640"/>
-      <c r="F45" s="640"/>
-      <c r="G45" s="641"/>
-      <c r="H45" s="640"/>
+      <c r="A45" s="489"/>
+      <c r="B45" s="490"/>
+      <c r="C45" s="490"/>
+      <c r="D45" s="490"/>
+      <c r="E45" s="490"/>
+      <c r="F45" s="490"/>
+      <c r="G45" s="491"/>
+      <c r="H45" s="490"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="639"/>
-      <c r="B46" s="640"/>
-      <c r="C46" s="640"/>
-      <c r="D46" s="543"/>
-      <c r="E46" s="543"/>
-      <c r="F46" s="640"/>
-      <c r="G46" s="641"/>
-      <c r="H46" s="640"/>
+      <c r="A46" s="489"/>
+      <c r="B46" s="490"/>
+      <c r="C46" s="490"/>
+      <c r="D46" s="399"/>
+      <c r="E46" s="399"/>
+      <c r="F46" s="490"/>
+      <c r="G46" s="491"/>
+      <c r="H46" s="490"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="639"/>
-      <c r="B47" s="640"/>
-      <c r="C47" s="594"/>
-      <c r="D47" s="642"/>
-      <c r="E47" s="642"/>
-      <c r="F47" s="594"/>
-      <c r="G47" s="594"/>
-      <c r="H47" s="594"/>
+      <c r="A47" s="489"/>
+      <c r="B47" s="490"/>
+      <c r="C47" s="450"/>
+      <c r="D47" s="492"/>
+      <c r="E47" s="492"/>
+      <c r="F47" s="450"/>
+      <c r="G47" s="450"/>
+      <c r="H47" s="450"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="639"/>
-      <c r="B48" s="640"/>
-      <c r="C48" s="640"/>
-      <c r="D48" s="640"/>
-      <c r="E48" s="640"/>
-      <c r="F48" s="640"/>
-      <c r="G48" s="641"/>
-      <c r="H48" s="640"/>
+      <c r="A48" s="489"/>
+      <c r="B48" s="490"/>
+      <c r="C48" s="490"/>
+      <c r="D48" s="490"/>
+      <c r="E48" s="490"/>
+      <c r="F48" s="490"/>
+      <c r="G48" s="491"/>
+      <c r="H48" s="490"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="639"/>
-      <c r="B49" s="640"/>
-      <c r="C49" s="640"/>
-      <c r="D49" s="640"/>
-      <c r="E49" s="640"/>
-      <c r="F49" s="640"/>
-      <c r="G49" s="641"/>
-      <c r="H49" s="640"/>
+      <c r="A49" s="489"/>
+      <c r="B49" s="490"/>
+      <c r="C49" s="490"/>
+      <c r="D49" s="490"/>
+      <c r="E49" s="490"/>
+      <c r="F49" s="490"/>
+      <c r="G49" s="491"/>
+      <c r="H49" s="490"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="639"/>
-      <c r="B50" s="640"/>
-      <c r="C50" s="640"/>
-      <c r="D50" s="543"/>
-      <c r="E50" s="543"/>
-      <c r="F50" s="640"/>
-      <c r="G50" s="641"/>
-      <c r="H50" s="640"/>
+      <c r="A50" s="489"/>
+      <c r="B50" s="490"/>
+      <c r="C50" s="490"/>
+      <c r="D50" s="399"/>
+      <c r="E50" s="399"/>
+      <c r="F50" s="490"/>
+      <c r="G50" s="491"/>
+      <c r="H50" s="490"/>
     </row>
     <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="543"/>
-      <c r="B51" s="643"/>
-      <c r="C51" s="643"/>
-      <c r="D51" s="644"/>
-      <c r="E51" s="634"/>
-      <c r="F51" s="543"/>
-      <c r="G51" s="543"/>
-      <c r="H51" s="543"/>
-      <c r="I51" s="543"/>
-      <c r="J51" s="543"/>
+      <c r="A51" s="399"/>
+      <c r="B51" s="493"/>
+      <c r="C51" s="493"/>
+      <c r="D51" s="494"/>
+      <c r="E51" s="486"/>
+      <c r="F51" s="399"/>
+      <c r="G51" s="399"/>
+      <c r="H51" s="399"/>
+      <c r="I51" s="399"/>
+      <c r="J51" s="399"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="636"/>
-      <c r="B52" s="636"/>
-      <c r="C52" s="636"/>
-      <c r="D52" s="636"/>
-      <c r="E52" s="636"/>
-      <c r="F52" s="636"/>
-      <c r="G52" s="636"/>
-      <c r="H52" s="636"/>
-      <c r="I52" s="637"/>
-      <c r="J52" s="638"/>
+      <c r="A52" s="488"/>
+      <c r="B52" s="488"/>
+      <c r="C52" s="488"/>
+      <c r="D52" s="488"/>
+      <c r="E52" s="488"/>
+      <c r="F52" s="488"/>
+      <c r="G52" s="488"/>
+      <c r="H52" s="488"/>
+      <c r="I52" s="495"/>
+      <c r="J52" s="496"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="639"/>
-      <c r="B53" s="543"/>
-      <c r="C53" s="543"/>
-      <c r="D53" s="543"/>
-      <c r="E53" s="543"/>
-      <c r="F53" s="641"/>
-      <c r="G53" s="641"/>
-      <c r="H53" s="640"/>
-      <c r="I53" s="645"/>
-      <c r="J53" s="645"/>
+      <c r="A53" s="489"/>
+      <c r="B53" s="399"/>
+      <c r="C53" s="399"/>
+      <c r="D53" s="399"/>
+      <c r="E53" s="399"/>
+      <c r="F53" s="491"/>
+      <c r="G53" s="491"/>
+      <c r="H53" s="490"/>
+      <c r="I53" s="497"/>
+      <c r="J53" s="497"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="639"/>
-      <c r="B54" s="543"/>
-      <c r="C54" s="543"/>
-      <c r="D54" s="594"/>
-      <c r="E54" s="594"/>
-      <c r="F54" s="594"/>
-      <c r="G54" s="594"/>
-      <c r="H54" s="594"/>
-      <c r="I54" s="645"/>
-      <c r="J54" s="645"/>
+      <c r="A54" s="489"/>
+      <c r="B54" s="399"/>
+      <c r="C54" s="399"/>
+      <c r="D54" s="450"/>
+      <c r="E54" s="450"/>
+      <c r="F54" s="450"/>
+      <c r="G54" s="450"/>
+      <c r="H54" s="450"/>
+      <c r="I54" s="497"/>
+      <c r="J54" s="497"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="543"/>
-      <c r="B55" s="543"/>
-      <c r="C55" s="543"/>
-      <c r="D55" s="543"/>
-      <c r="E55" s="543"/>
-      <c r="F55" s="543"/>
-      <c r="G55" s="543"/>
-      <c r="H55" s="543"/>
+      <c r="A55" s="399"/>
+      <c r="B55" s="399"/>
+      <c r="C55" s="399"/>
+      <c r="D55" s="399"/>
+      <c r="E55" s="399"/>
+      <c r="F55" s="399"/>
+      <c r="G55" s="399"/>
+      <c r="H55" s="399"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="637"/>
-      <c r="C60" s="638"/>
+      <c r="B60" s="495"/>
+      <c r="C60" s="496"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="637"/>
-      <c r="C67" s="638"/>
+      <c r="B67" s="495"/>
+      <c r="C67" s="496"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B60:C60"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:E2"/>
@@ -7334,6 +7363,11 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="I41:J41"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B60:C60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="landscape" r:id="rId1"/>
@@ -7390,47 +7424,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="172"/>
-      <c r="B2" s="488"/>
-      <c r="C2" s="489"/>
-      <c r="D2" s="490"/>
-      <c r="E2" s="497" t="s">
+      <c r="B2" s="604"/>
+      <c r="C2" s="605"/>
+      <c r="D2" s="606"/>
+      <c r="E2" s="613" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="498"/>
-      <c r="G2" s="498"/>
-      <c r="H2" s="499"/>
-      <c r="I2" s="503" t="s">
+      <c r="F2" s="614"/>
+      <c r="G2" s="614"/>
+      <c r="H2" s="615"/>
+      <c r="I2" s="619" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="504"/>
-      <c r="K2" s="507">
+      <c r="J2" s="620"/>
+      <c r="K2" s="623">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="L2" s="508"/>
+      <c r="L2" s="624"/>
       <c r="M2" s="173"/>
       <c r="N2" s="174"/>
       <c r="O2" s="175"/>
-      <c r="P2" s="526"/>
-      <c r="Q2" s="526"/>
+      <c r="P2" s="635"/>
+      <c r="Q2" s="635"/>
       <c r="R2" s="176"/>
       <c r="S2" s="177"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="172"/>
-      <c r="B3" s="491"/>
-      <c r="C3" s="492"/>
-      <c r="D3" s="493"/>
-      <c r="E3" s="500" t="s">
+      <c r="B3" s="607"/>
+      <c r="C3" s="608"/>
+      <c r="D3" s="609"/>
+      <c r="E3" s="616" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="501"/>
-      <c r="G3" s="501"/>
-      <c r="H3" s="502"/>
-      <c r="I3" s="505"/>
-      <c r="J3" s="506"/>
-      <c r="K3" s="509"/>
-      <c r="L3" s="510"/>
+      <c r="F3" s="617"/>
+      <c r="G3" s="617"/>
+      <c r="H3" s="618"/>
+      <c r="I3" s="621"/>
+      <c r="J3" s="622"/>
+      <c r="K3" s="625"/>
+      <c r="L3" s="626"/>
       <c r="M3" s="178"/>
       <c r="N3" s="179"/>
       <c r="O3" s="179"/>
@@ -7441,9 +7475,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="172"/>
-      <c r="B4" s="494"/>
-      <c r="C4" s="495"/>
-      <c r="D4" s="496"/>
+      <c r="B4" s="610"/>
+      <c r="C4" s="611"/>
+      <c r="D4" s="612"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -7462,22 +7496,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="172"/>
-      <c r="B5" s="473" t="s">
+      <c r="B5" s="558" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="511"/>
-      <c r="D5" s="407" t="str">
+      <c r="C5" s="597"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="408"/>
-      <c r="F5" s="408"/>
-      <c r="G5" s="408"/>
-      <c r="H5" s="409"/>
-      <c r="I5" s="512"/>
-      <c r="J5" s="513"/>
-      <c r="K5" s="514"/>
-      <c r="L5" s="409"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="598"/>
+      <c r="J5" s="599"/>
+      <c r="K5" s="600"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="181"/>
       <c r="N5" s="179"/>
       <c r="O5" s="179"/>
@@ -7488,22 +7522,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="172"/>
-      <c r="B6" s="473" t="s">
+      <c r="B6" s="558" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="511"/>
-      <c r="D6" s="401" t="str">
+      <c r="C6" s="597"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="478"/>
-      <c r="F6" s="478"/>
-      <c r="G6" s="478"/>
-      <c r="H6" s="479"/>
-      <c r="I6" s="512"/>
-      <c r="J6" s="513"/>
-      <c r="K6" s="514"/>
-      <c r="L6" s="409"/>
+      <c r="E6" s="563"/>
+      <c r="F6" s="563"/>
+      <c r="G6" s="563"/>
+      <c r="H6" s="564"/>
+      <c r="I6" s="598"/>
+      <c r="J6" s="599"/>
+      <c r="K6" s="600"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="178"/>
       <c r="N6" s="179"/>
       <c r="O6" s="179"/>
@@ -7514,27 +7548,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="172"/>
-      <c r="B7" s="480" t="s">
+      <c r="B7" s="565" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="515"/>
-      <c r="D7" s="410">
+      <c r="C7" s="601"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="482"/>
-      <c r="F7" s="482"/>
-      <c r="G7" s="482"/>
-      <c r="H7" s="483"/>
-      <c r="I7" s="516" t="s">
+      <c r="E7" s="567"/>
+      <c r="F7" s="567"/>
+      <c r="G7" s="567"/>
+      <c r="H7" s="568"/>
+      <c r="I7" s="602" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="515"/>
-      <c r="K7" s="398">
+      <c r="J7" s="601"/>
+      <c r="K7" s="520">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="399"/>
+      <c r="L7" s="521"/>
       <c r="M7" s="181"/>
       <c r="N7" s="179"/>
       <c r="O7" s="179"/>
@@ -7920,17 +7954,6 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -7938,6 +7961,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
@@ -8003,47 +8037,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="211"/>
-      <c r="B2" s="488"/>
-      <c r="C2" s="489"/>
-      <c r="D2" s="490"/>
-      <c r="E2" s="497" t="s">
+      <c r="B2" s="604"/>
+      <c r="C2" s="605"/>
+      <c r="D2" s="606"/>
+      <c r="E2" s="613" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="498"/>
-      <c r="G2" s="498"/>
-      <c r="H2" s="499"/>
-      <c r="I2" s="503" t="s">
+      <c r="F2" s="614"/>
+      <c r="G2" s="614"/>
+      <c r="H2" s="615"/>
+      <c r="I2" s="619" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="504"/>
-      <c r="K2" s="507">
+      <c r="J2" s="620"/>
+      <c r="K2" s="623">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="508"/>
+      <c r="L2" s="624"/>
       <c r="M2" s="212"/>
       <c r="N2" s="213"/>
       <c r="O2" s="214"/>
-      <c r="P2" s="527"/>
-      <c r="Q2" s="527"/>
+      <c r="P2" s="639"/>
+      <c r="Q2" s="639"/>
       <c r="R2" s="215"/>
       <c r="S2" s="216"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="211"/>
-      <c r="B3" s="491"/>
-      <c r="C3" s="492"/>
-      <c r="D3" s="493"/>
-      <c r="E3" s="500" t="s">
+      <c r="B3" s="607"/>
+      <c r="C3" s="608"/>
+      <c r="D3" s="609"/>
+      <c r="E3" s="616" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="501"/>
-      <c r="G3" s="501"/>
-      <c r="H3" s="502"/>
-      <c r="I3" s="505"/>
-      <c r="J3" s="506"/>
-      <c r="K3" s="509"/>
-      <c r="L3" s="510"/>
+      <c r="F3" s="617"/>
+      <c r="G3" s="617"/>
+      <c r="H3" s="618"/>
+      <c r="I3" s="621"/>
+      <c r="J3" s="622"/>
+      <c r="K3" s="625"/>
+      <c r="L3" s="626"/>
       <c r="M3" s="217"/>
       <c r="N3" s="218"/>
       <c r="O3" s="218"/>
@@ -8054,9 +8088,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="211"/>
-      <c r="B4" s="494"/>
-      <c r="C4" s="495"/>
-      <c r="D4" s="496"/>
+      <c r="B4" s="610"/>
+      <c r="C4" s="611"/>
+      <c r="D4" s="612"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -8075,22 +8109,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="211"/>
-      <c r="B5" s="473" t="s">
+      <c r="B5" s="558" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="511"/>
-      <c r="D5" s="407" t="str">
+      <c r="C5" s="597"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="408"/>
-      <c r="F5" s="408"/>
-      <c r="G5" s="408"/>
-      <c r="H5" s="409"/>
-      <c r="I5" s="512"/>
-      <c r="J5" s="513"/>
-      <c r="K5" s="514"/>
-      <c r="L5" s="409"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="598"/>
+      <c r="J5" s="599"/>
+      <c r="K5" s="600"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="220"/>
       <c r="N5" s="218"/>
       <c r="O5" s="218"/>
@@ -8101,22 +8135,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="211"/>
-      <c r="B6" s="473" t="s">
+      <c r="B6" s="558" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="511"/>
-      <c r="D6" s="401" t="str">
+      <c r="C6" s="597"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="478"/>
-      <c r="F6" s="478"/>
-      <c r="G6" s="478"/>
-      <c r="H6" s="479"/>
-      <c r="I6" s="512"/>
-      <c r="J6" s="513"/>
-      <c r="K6" s="514"/>
-      <c r="L6" s="409"/>
+      <c r="E6" s="563"/>
+      <c r="F6" s="563"/>
+      <c r="G6" s="563"/>
+      <c r="H6" s="564"/>
+      <c r="I6" s="598"/>
+      <c r="J6" s="599"/>
+      <c r="K6" s="600"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="217"/>
       <c r="N6" s="218"/>
       <c r="O6" s="218"/>
@@ -8127,27 +8161,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="211"/>
-      <c r="B7" s="480" t="s">
+      <c r="B7" s="565" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="515"/>
-      <c r="D7" s="410">
+      <c r="C7" s="601"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="482"/>
-      <c r="F7" s="482"/>
-      <c r="G7" s="482"/>
-      <c r="H7" s="483"/>
-      <c r="I7" s="516" t="s">
+      <c r="E7" s="567"/>
+      <c r="F7" s="567"/>
+      <c r="G7" s="567"/>
+      <c r="H7" s="568"/>
+      <c r="I7" s="602" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="515"/>
-      <c r="K7" s="398">
+      <c r="J7" s="601"/>
+      <c r="K7" s="520">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="399"/>
+      <c r="L7" s="521"/>
       <c r="M7" s="220"/>
       <c r="N7" s="218"/>
       <c r="O7" s="218"/>
@@ -8476,12 +8510,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="221"/>
-      <c r="B18" s="528" t="s">
+      <c r="B18" s="636" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="529"/>
-      <c r="D18" s="529"/>
-      <c r="E18" s="530"/>
+      <c r="C18" s="637"/>
+      <c r="D18" s="637"/>
+      <c r="E18" s="638"/>
       <c r="F18" s="118" t="s">
         <v>16</v>
       </c>
@@ -8525,6 +8559,14 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
@@ -8536,14 +8578,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8629,47 +8663,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="135"/>
-      <c r="B2" s="488"/>
-      <c r="C2" s="489"/>
-      <c r="D2" s="490"/>
-      <c r="E2" s="497" t="s">
+      <c r="B2" s="604"/>
+      <c r="C2" s="605"/>
+      <c r="D2" s="606"/>
+      <c r="E2" s="613" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="498"/>
-      <c r="G2" s="498"/>
-      <c r="H2" s="499"/>
-      <c r="I2" s="503" t="s">
+      <c r="F2" s="614"/>
+      <c r="G2" s="614"/>
+      <c r="H2" s="615"/>
+      <c r="I2" s="619" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="504"/>
-      <c r="K2" s="507">
+      <c r="J2" s="620"/>
+      <c r="K2" s="623">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="L2" s="508"/>
+      <c r="L2" s="624"/>
       <c r="M2" s="136"/>
       <c r="N2" s="137"/>
       <c r="O2" s="138"/>
-      <c r="P2" s="531"/>
-      <c r="Q2" s="531"/>
+      <c r="P2" s="640"/>
+      <c r="Q2" s="640"/>
       <c r="R2" s="139"/>
       <c r="S2" s="140"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="135"/>
-      <c r="B3" s="491"/>
-      <c r="C3" s="492"/>
-      <c r="D3" s="493"/>
-      <c r="E3" s="500" t="s">
+      <c r="B3" s="607"/>
+      <c r="C3" s="608"/>
+      <c r="D3" s="609"/>
+      <c r="E3" s="616" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="501"/>
-      <c r="G3" s="501"/>
-      <c r="H3" s="502"/>
-      <c r="I3" s="505"/>
-      <c r="J3" s="506"/>
-      <c r="K3" s="509"/>
-      <c r="L3" s="510"/>
+      <c r="F3" s="617"/>
+      <c r="G3" s="617"/>
+      <c r="H3" s="618"/>
+      <c r="I3" s="621"/>
+      <c r="J3" s="622"/>
+      <c r="K3" s="625"/>
+      <c r="L3" s="626"/>
       <c r="M3" s="141"/>
       <c r="N3" s="142"/>
       <c r="O3" s="142"/>
@@ -8680,9 +8714,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="135"/>
-      <c r="B4" s="494"/>
-      <c r="C4" s="495"/>
-      <c r="D4" s="496"/>
+      <c r="B4" s="610"/>
+      <c r="C4" s="611"/>
+      <c r="D4" s="612"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -8701,22 +8735,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="135"/>
-      <c r="B5" s="473" t="s">
+      <c r="B5" s="558" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="511"/>
-      <c r="D5" s="407" t="str">
+      <c r="C5" s="597"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="408"/>
-      <c r="F5" s="408"/>
-      <c r="G5" s="408"/>
-      <c r="H5" s="409"/>
-      <c r="I5" s="512"/>
-      <c r="J5" s="513"/>
-      <c r="K5" s="514"/>
-      <c r="L5" s="409"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="598"/>
+      <c r="J5" s="599"/>
+      <c r="K5" s="600"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="144"/>
       <c r="N5" s="142"/>
       <c r="O5" s="142"/>
@@ -8727,22 +8761,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="135"/>
-      <c r="B6" s="473" t="s">
+      <c r="B6" s="558" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="511"/>
-      <c r="D6" s="401" t="str">
+      <c r="C6" s="597"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="478"/>
-      <c r="F6" s="478"/>
-      <c r="G6" s="478"/>
-      <c r="H6" s="479"/>
-      <c r="I6" s="512"/>
-      <c r="J6" s="513"/>
-      <c r="K6" s="514"/>
-      <c r="L6" s="409"/>
+      <c r="E6" s="563"/>
+      <c r="F6" s="563"/>
+      <c r="G6" s="563"/>
+      <c r="H6" s="564"/>
+      <c r="I6" s="598"/>
+      <c r="J6" s="599"/>
+      <c r="K6" s="600"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="141"/>
       <c r="N6" s="142"/>
       <c r="O6" s="142"/>
@@ -8753,27 +8787,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="135"/>
-      <c r="B7" s="480" t="s">
+      <c r="B7" s="565" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="515"/>
-      <c r="D7" s="410">
+      <c r="C7" s="601"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="482"/>
-      <c r="F7" s="482"/>
-      <c r="G7" s="482"/>
-      <c r="H7" s="483"/>
-      <c r="I7" s="516" t="s">
+      <c r="E7" s="567"/>
+      <c r="F7" s="567"/>
+      <c r="G7" s="567"/>
+      <c r="H7" s="568"/>
+      <c r="I7" s="602" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="515"/>
-      <c r="K7" s="398">
+      <c r="J7" s="601"/>
+      <c r="K7" s="520">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="399"/>
+      <c r="L7" s="521"/>
       <c r="M7" s="144"/>
       <c r="N7" s="142"/>
       <c r="O7" s="142"/>
@@ -9154,17 +9188,6 @@
     <row r="21" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -9172,6 +9195,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -9237,47 +9271,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="268"/>
-      <c r="B2" s="488"/>
-      <c r="C2" s="489"/>
-      <c r="D2" s="490"/>
-      <c r="E2" s="497" t="s">
+      <c r="B2" s="604"/>
+      <c r="C2" s="605"/>
+      <c r="D2" s="606"/>
+      <c r="E2" s="613" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="498"/>
-      <c r="G2" s="498"/>
-      <c r="H2" s="499"/>
-      <c r="I2" s="503" t="s">
+      <c r="F2" s="614"/>
+      <c r="G2" s="614"/>
+      <c r="H2" s="615"/>
+      <c r="I2" s="619" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="504"/>
-      <c r="K2" s="532">
+      <c r="J2" s="620"/>
+      <c r="K2" s="642">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="L2" s="533"/>
+      <c r="L2" s="643"/>
       <c r="M2" s="269"/>
       <c r="N2" s="270"/>
       <c r="O2" s="271"/>
-      <c r="P2" s="536"/>
-      <c r="Q2" s="536"/>
+      <c r="P2" s="641"/>
+      <c r="Q2" s="641"/>
       <c r="R2" s="272"/>
       <c r="S2" s="273"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="268"/>
-      <c r="B3" s="491"/>
-      <c r="C3" s="492"/>
-      <c r="D3" s="493"/>
-      <c r="E3" s="500" t="s">
+      <c r="B3" s="607"/>
+      <c r="C3" s="608"/>
+      <c r="D3" s="609"/>
+      <c r="E3" s="616" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="501"/>
-      <c r="G3" s="501"/>
-      <c r="H3" s="502"/>
-      <c r="I3" s="505"/>
-      <c r="J3" s="506"/>
-      <c r="K3" s="534"/>
-      <c r="L3" s="535"/>
+      <c r="F3" s="617"/>
+      <c r="G3" s="617"/>
+      <c r="H3" s="618"/>
+      <c r="I3" s="621"/>
+      <c r="J3" s="622"/>
+      <c r="K3" s="644"/>
+      <c r="L3" s="645"/>
       <c r="M3" s="274"/>
       <c r="N3" s="275"/>
       <c r="O3" s="275"/>
@@ -9288,9 +9322,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="268"/>
-      <c r="B4" s="494"/>
-      <c r="C4" s="495"/>
-      <c r="D4" s="496"/>
+      <c r="B4" s="610"/>
+      <c r="C4" s="611"/>
+      <c r="D4" s="612"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -9309,22 +9343,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="268"/>
-      <c r="B5" s="473" t="s">
+      <c r="B5" s="558" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="511"/>
-      <c r="D5" s="407" t="str">
+      <c r="C5" s="597"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="408"/>
-      <c r="F5" s="408"/>
-      <c r="G5" s="408"/>
-      <c r="H5" s="409"/>
-      <c r="I5" s="512"/>
-      <c r="J5" s="513"/>
-      <c r="K5" s="514"/>
-      <c r="L5" s="409"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="598"/>
+      <c r="J5" s="599"/>
+      <c r="K5" s="600"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="277"/>
       <c r="N5" s="275"/>
       <c r="O5" s="275"/>
@@ -9335,22 +9369,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="268"/>
-      <c r="B6" s="473" t="s">
+      <c r="B6" s="558" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="511"/>
-      <c r="D6" s="401" t="str">
+      <c r="C6" s="597"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="478"/>
-      <c r="F6" s="478"/>
-      <c r="G6" s="478"/>
-      <c r="H6" s="479"/>
-      <c r="I6" s="512"/>
-      <c r="J6" s="513"/>
-      <c r="K6" s="514"/>
-      <c r="L6" s="409"/>
+      <c r="E6" s="563"/>
+      <c r="F6" s="563"/>
+      <c r="G6" s="563"/>
+      <c r="H6" s="564"/>
+      <c r="I6" s="598"/>
+      <c r="J6" s="599"/>
+      <c r="K6" s="600"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="274"/>
       <c r="N6" s="275"/>
       <c r="O6" s="275"/>
@@ -9361,27 +9395,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="268"/>
-      <c r="B7" s="480" t="s">
+      <c r="B7" s="565" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="515"/>
-      <c r="D7" s="410">
+      <c r="C7" s="601"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="482"/>
-      <c r="F7" s="482"/>
-      <c r="G7" s="482"/>
-      <c r="H7" s="483"/>
-      <c r="I7" s="516" t="s">
+      <c r="E7" s="567"/>
+      <c r="F7" s="567"/>
+      <c r="G7" s="567"/>
+      <c r="H7" s="568"/>
+      <c r="I7" s="602" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="515"/>
-      <c r="K7" s="398">
+      <c r="J7" s="601"/>
+      <c r="K7" s="520">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="399"/>
+      <c r="L7" s="521"/>
       <c r="M7" s="277"/>
       <c r="N7" s="275"/>
       <c r="O7" s="275"/>
@@ -9654,6 +9688,8 @@
     <row r="17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
@@ -9670,8 +9706,6 @@
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9713,25 +9747,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="400" t="s">
+      <c r="A1" s="504" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="404"/>
-      <c r="C1" s="404"/>
-      <c r="D1" s="404"/>
-      <c r="E1" s="404"/>
+      <c r="B1" s="508"/>
+      <c r="C1" s="508"/>
+      <c r="D1" s="508"/>
+      <c r="E1" s="508"/>
       <c r="G1" s="374" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="401" t="s">
+      <c r="A2" s="505" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="402"/>
-      <c r="C2" s="402"/>
-      <c r="D2" s="402"/>
-      <c r="E2" s="403"/>
+      <c r="B2" s="506"/>
+      <c r="C2" s="506"/>
+      <c r="D2" s="506"/>
+      <c r="E2" s="507"/>
       <c r="G2" s="373" t="s">
         <v>80</v>
       </c>
@@ -9742,45 +9776,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="405" t="s">
+      <c r="A4" s="509" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="406"/>
-      <c r="C4" s="406"/>
-      <c r="D4" s="406"/>
-      <c r="E4" s="406"/>
+      <c r="B4" s="510"/>
+      <c r="C4" s="510"/>
+      <c r="D4" s="510"/>
+      <c r="E4" s="510"/>
     </row>
     <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="407" t="s">
+      <c r="A5" s="511" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="408"/>
-      <c r="C5" s="408"/>
-      <c r="D5" s="408"/>
-      <c r="E5" s="409"/>
+      <c r="B5" s="512"/>
+      <c r="C5" s="512"/>
+      <c r="D5" s="512"/>
+      <c r="E5" s="513"/>
     </row>
     <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="400" t="s">
+      <c r="A7" s="504" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="404"/>
-      <c r="C7" s="404"/>
-      <c r="D7" s="404"/>
-      <c r="E7" s="404"/>
+      <c r="B7" s="508"/>
+      <c r="C7" s="508"/>
+      <c r="D7" s="508"/>
+      <c r="E7" s="508"/>
     </row>
     <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="410"/>
-      <c r="B8" s="411"/>
-      <c r="C8" s="411"/>
-      <c r="D8" s="411"/>
-      <c r="E8" s="412"/>
+      <c r="A8" s="514"/>
+      <c r="B8" s="515"/>
+      <c r="C8" s="515"/>
+      <c r="D8" s="515"/>
+      <c r="E8" s="516"/>
     </row>
     <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="400" t="s">
+      <c r="A10" s="504" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="400"/>
+      <c r="B10" s="504"/>
       <c r="C10" s="375"/>
       <c r="D10" s="383" t="s">
         <v>95</v>
@@ -9791,33 +9825,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="398"/>
-      <c r="B11" s="399"/>
+      <c r="A11" s="520"/>
+      <c r="B11" s="521"/>
       <c r="D11" s="382">
         <v>43741</v>
       </c>
-      <c r="F11" s="396" t="s">
+      <c r="F11" s="518" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="396"/>
-      <c r="H11" s="396"/>
-      <c r="I11" s="396"/>
-      <c r="J11" s="397" t="s">
+      <c r="G11" s="518"/>
+      <c r="H11" s="518"/>
+      <c r="I11" s="518"/>
+      <c r="J11" s="519" t="s">
         <v>100</v>
       </c>
-      <c r="K11" s="397"/>
+      <c r="K11" s="519"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="396" t="s">
+      <c r="F12" s="518" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="396"/>
-      <c r="H12" s="396"/>
-      <c r="I12" s="396"/>
-      <c r="J12" s="397" t="s">
+      <c r="G12" s="518"/>
+      <c r="H12" s="518"/>
+      <c r="I12" s="518"/>
+      <c r="J12" s="519" t="s">
         <v>101</v>
       </c>
-      <c r="K12" s="397"/>
+      <c r="K12" s="519"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="376" t="s">
@@ -9829,16 +9863,16 @@
       <c r="C13" s="389" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="396" t="s">
+      <c r="F13" s="518" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="396"/>
-      <c r="H13" s="396"/>
-      <c r="I13" s="396"/>
-      <c r="J13" s="397" t="s">
+      <c r="G13" s="518"/>
+      <c r="H13" s="518"/>
+      <c r="I13" s="518"/>
+      <c r="J13" s="519" t="s">
         <v>102</v>
       </c>
-      <c r="K13" s="397"/>
+      <c r="K13" s="519"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="378" t="s">
@@ -9992,11 +10026,11 @@
       <c r="A28" s="384"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="395" t="s">
+      <c r="A29" s="517" t="s">
         <v>122</v>
       </c>
-      <c r="B29" s="395"/>
-      <c r="C29" s="395"/>
+      <c r="B29" s="517"/>
+      <c r="C29" s="517"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -10005,13 +10039,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A7:E7"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="F12:I12"/>
@@ -10020,6 +10047,13 @@
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -10095,47 +10129,47 @@
       <c r="J8" s="320"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="444" t="s">
+      <c r="A11" s="528" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="444"/>
-      <c r="C11" s="444"/>
-      <c r="D11" s="444"/>
-      <c r="E11" s="444"/>
-      <c r="F11" s="444"/>
-      <c r="G11" s="444"/>
-      <c r="H11" s="444"/>
-      <c r="I11" s="444"/>
-      <c r="J11" s="444"/>
+      <c r="B11" s="528"/>
+      <c r="C11" s="528"/>
+      <c r="D11" s="528"/>
+      <c r="E11" s="528"/>
+      <c r="F11" s="528"/>
+      <c r="G11" s="528"/>
+      <c r="H11" s="528"/>
+      <c r="I11" s="528"/>
+      <c r="J11" s="528"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="443" t="s">
+      <c r="A12" s="527" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="443"/>
-      <c r="C12" s="443"/>
-      <c r="D12" s="443"/>
-      <c r="E12" s="443"/>
-      <c r="F12" s="443"/>
-      <c r="G12" s="443"/>
-      <c r="H12" s="443"/>
-      <c r="I12" s="443"/>
-      <c r="J12" s="443"/>
+      <c r="B12" s="527"/>
+      <c r="C12" s="527"/>
+      <c r="D12" s="527"/>
+      <c r="E12" s="527"/>
+      <c r="F12" s="527"/>
+      <c r="G12" s="527"/>
+      <c r="H12" s="527"/>
+      <c r="I12" s="527"/>
+      <c r="J12" s="527"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="445" t="str">
+      <c r="A13" s="529" t="str">
         <f>Данные!A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="B13" s="444"/>
-      <c r="C13" s="444"/>
-      <c r="D13" s="444"/>
-      <c r="E13" s="444"/>
-      <c r="F13" s="444"/>
-      <c r="G13" s="444"/>
-      <c r="H13" s="444"/>
-      <c r="I13" s="444"/>
-      <c r="J13" s="444"/>
+      <c r="B13" s="528"/>
+      <c r="C13" s="528"/>
+      <c r="D13" s="528"/>
+      <c r="E13" s="528"/>
+      <c r="F13" s="528"/>
+      <c r="G13" s="528"/>
+      <c r="H13" s="528"/>
+      <c r="I13" s="528"/>
+      <c r="J13" s="528"/>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="313" t="s">
@@ -10260,325 +10294,325 @@
       <c r="J21" s="314"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="433" t="s">
+      <c r="A22" s="533" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="433" t="s">
+      <c r="B22" s="533" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="433"/>
-      <c r="D22" s="433"/>
-      <c r="E22" s="433" t="s">
+      <c r="C22" s="533"/>
+      <c r="D22" s="533"/>
+      <c r="E22" s="533" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="433"/>
-      <c r="G22" s="434" t="s">
+      <c r="F22" s="533"/>
+      <c r="G22" s="534" t="s">
         <v>69</v>
       </c>
-      <c r="H22" s="433" t="s">
+      <c r="H22" s="533" t="s">
         <v>70</v>
       </c>
-      <c r="I22" s="433"/>
-      <c r="J22" s="433"/>
+      <c r="I22" s="533"/>
+      <c r="J22" s="533"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="433"/>
-      <c r="B23" s="433"/>
-      <c r="C23" s="433"/>
-      <c r="D23" s="433"/>
-      <c r="E23" s="433"/>
-      <c r="F23" s="433"/>
-      <c r="G23" s="434"/>
-      <c r="H23" s="433"/>
-      <c r="I23" s="433"/>
-      <c r="J23" s="433"/>
+      <c r="A23" s="533"/>
+      <c r="B23" s="533"/>
+      <c r="C23" s="533"/>
+      <c r="D23" s="533"/>
+      <c r="E23" s="533"/>
+      <c r="F23" s="533"/>
+      <c r="G23" s="534"/>
+      <c r="H23" s="533"/>
+      <c r="I23" s="533"/>
+      <c r="J23" s="533"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="428">
+      <c r="A24" s="550">
         <v>1</v>
       </c>
-      <c r="B24" s="430" t="s">
+      <c r="B24" s="552" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="431"/>
-      <c r="D24" s="432"/>
-      <c r="E24" s="416" t="str">
+      <c r="C24" s="553"/>
+      <c r="D24" s="554"/>
+      <c r="E24" s="538" t="str">
         <f>Данные!C14</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F24" s="417"/>
-      <c r="G24" s="420">
+      <c r="F24" s="539"/>
+      <c r="G24" s="542">
         <f>Данные!B14</f>
         <v>22</v>
       </c>
-      <c r="H24" s="422"/>
-      <c r="I24" s="423"/>
-      <c r="J24" s="424"/>
+      <c r="H24" s="544"/>
+      <c r="I24" s="545"/>
+      <c r="J24" s="546"/>
     </row>
     <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="429"/>
-      <c r="B25" s="413" t="str">
+      <c r="A25" s="551"/>
+      <c r="B25" s="535" t="str">
         <f>Данные!A30</f>
         <v>(к серийному формокомплекту ХХI-В-28-2.1-500-4 Ведьма)</v>
       </c>
-      <c r="C25" s="414"/>
-      <c r="D25" s="415"/>
-      <c r="E25" s="418"/>
-      <c r="F25" s="419"/>
-      <c r="G25" s="421"/>
-      <c r="H25" s="425"/>
-      <c r="I25" s="426"/>
-      <c r="J25" s="427"/>
+      <c r="C25" s="536"/>
+      <c r="D25" s="537"/>
+      <c r="E25" s="540"/>
+      <c r="F25" s="541"/>
+      <c r="G25" s="543"/>
+      <c r="H25" s="547"/>
+      <c r="I25" s="548"/>
+      <c r="J25" s="549"/>
     </row>
     <row r="26" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="386">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="435" t="s">
+      <c r="B26" s="530" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="436"/>
-      <c r="D26" s="437"/>
-      <c r="E26" s="438" t="str">
+      <c r="C26" s="531"/>
+      <c r="D26" s="532"/>
+      <c r="E26" s="525" t="str">
         <f>Данные!C15</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F26" s="438"/>
+      <c r="F26" s="525"/>
       <c r="G26" s="318">
         <f>Данные!B15</f>
         <v>22</v>
       </c>
-      <c r="H26" s="439"/>
-      <c r="I26" s="439"/>
-      <c r="J26" s="439"/>
+      <c r="H26" s="526"/>
+      <c r="I26" s="526"/>
+      <c r="J26" s="526"/>
     </row>
     <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="386">
         <f t="shared" ref="A27:A36" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B27" s="440" t="s">
+      <c r="B27" s="522" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="441"/>
-      <c r="D27" s="442"/>
-      <c r="E27" s="438" t="str">
+      <c r="C27" s="523"/>
+      <c r="D27" s="524"/>
+      <c r="E27" s="525" t="str">
         <f>Данные!C16</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F27" s="438"/>
+      <c r="F27" s="525"/>
       <c r="G27" s="318">
         <f>Данные!B16</f>
         <v>26</v>
       </c>
-      <c r="H27" s="439"/>
-      <c r="I27" s="439"/>
-      <c r="J27" s="439"/>
+      <c r="H27" s="526"/>
+      <c r="I27" s="526"/>
+      <c r="J27" s="526"/>
     </row>
     <row r="28" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="386">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B28" s="440" t="s">
+      <c r="B28" s="522" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="441"/>
-      <c r="D28" s="442"/>
-      <c r="E28" s="438" t="str">
+      <c r="C28" s="523"/>
+      <c r="D28" s="524"/>
+      <c r="E28" s="525" t="str">
         <f>Данные!C17</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F28" s="438"/>
+      <c r="F28" s="525"/>
       <c r="G28" s="318">
         <f>Данные!B17</f>
         <v>26</v>
       </c>
-      <c r="H28" s="439"/>
-      <c r="I28" s="439"/>
-      <c r="J28" s="439"/>
+      <c r="H28" s="526"/>
+      <c r="I28" s="526"/>
+      <c r="J28" s="526"/>
     </row>
     <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="386">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B29" s="440" t="s">
+      <c r="B29" s="522" t="s">
         <v>113</v>
       </c>
-      <c r="C29" s="441"/>
-      <c r="D29" s="442"/>
-      <c r="E29" s="438" t="str">
+      <c r="C29" s="523"/>
+      <c r="D29" s="524"/>
+      <c r="E29" s="525" t="str">
         <f>Данные!C18</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F29" s="438"/>
+      <c r="F29" s="525"/>
       <c r="G29" s="318">
         <f>Данные!B18</f>
         <v>50</v>
       </c>
-      <c r="H29" s="439"/>
-      <c r="I29" s="439"/>
-      <c r="J29" s="439"/>
+      <c r="H29" s="526"/>
+      <c r="I29" s="526"/>
+      <c r="J29" s="526"/>
     </row>
     <row r="30" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="386">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B30" s="440" t="s">
+      <c r="B30" s="522" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="441"/>
-      <c r="D30" s="442"/>
-      <c r="E30" s="438" t="str">
+      <c r="C30" s="523"/>
+      <c r="D30" s="524"/>
+      <c r="E30" s="525" t="str">
         <f>Данные!C19</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F30" s="438"/>
+      <c r="F30" s="525"/>
       <c r="G30" s="318">
         <f>Данные!B19</f>
         <v>50</v>
       </c>
-      <c r="H30" s="439"/>
-      <c r="I30" s="439"/>
-      <c r="J30" s="439"/>
+      <c r="H30" s="526"/>
+      <c r="I30" s="526"/>
+      <c r="J30" s="526"/>
     </row>
     <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="386">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B31" s="440" t="s">
+      <c r="B31" s="522" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="441"/>
-      <c r="D31" s="442"/>
-      <c r="E31" s="438" t="str">
+      <c r="C31" s="523"/>
+      <c r="D31" s="524"/>
+      <c r="E31" s="525" t="str">
         <f>Данные!C20</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F31" s="438"/>
+      <c r="F31" s="525"/>
       <c r="G31" s="318">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="H31" s="439"/>
-      <c r="I31" s="439"/>
-      <c r="J31" s="439"/>
+      <c r="H31" s="526"/>
+      <c r="I31" s="526"/>
+      <c r="J31" s="526"/>
     </row>
     <row r="32" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="386">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B32" s="440" t="s">
+      <c r="B32" s="522" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="441"/>
-      <c r="D32" s="442"/>
-      <c r="E32" s="438" t="str">
+      <c r="C32" s="523"/>
+      <c r="D32" s="524"/>
+      <c r="E32" s="525" t="str">
         <f>Данные!C21</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F32" s="438"/>
+      <c r="F32" s="525"/>
       <c r="G32" s="318">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="H32" s="439"/>
-      <c r="I32" s="439"/>
-      <c r="J32" s="439"/>
+      <c r="H32" s="526"/>
+      <c r="I32" s="526"/>
+      <c r="J32" s="526"/>
     </row>
     <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="386">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B33" s="440" t="s">
+      <c r="B33" s="522" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="441"/>
-      <c r="D33" s="442"/>
-      <c r="E33" s="438" t="str">
+      <c r="C33" s="523"/>
+      <c r="D33" s="524"/>
+      <c r="E33" s="525" t="str">
         <f>Данные!C23</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F33" s="438"/>
+      <c r="F33" s="525"/>
       <c r="G33" s="318">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="H33" s="439"/>
-      <c r="I33" s="439"/>
-      <c r="J33" s="439"/>
+      <c r="H33" s="526"/>
+      <c r="I33" s="526"/>
+      <c r="J33" s="526"/>
     </row>
     <row r="34" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="386">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B34" s="440" t="s">
+      <c r="B34" s="522" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="441"/>
-      <c r="D34" s="442"/>
-      <c r="E34" s="438" t="str">
+      <c r="C34" s="523"/>
+      <c r="D34" s="524"/>
+      <c r="E34" s="525" t="str">
         <f>Данные!C23</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F34" s="438"/>
+      <c r="F34" s="525"/>
       <c r="G34" s="318">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="H34" s="439"/>
-      <c r="I34" s="439"/>
-      <c r="J34" s="439"/>
+      <c r="H34" s="526"/>
+      <c r="I34" s="526"/>
+      <c r="J34" s="526"/>
     </row>
     <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="386">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B35" s="440" t="s">
+      <c r="B35" s="522" t="s">
         <v>118</v>
       </c>
-      <c r="C35" s="441"/>
-      <c r="D35" s="442"/>
-      <c r="E35" s="438"/>
-      <c r="F35" s="438"/>
+      <c r="C35" s="523"/>
+      <c r="D35" s="524"/>
+      <c r="E35" s="525"/>
+      <c r="F35" s="525"/>
       <c r="G35" s="388">
         <f>Данные!B27</f>
         <v>18</v>
       </c>
-      <c r="H35" s="439"/>
-      <c r="I35" s="439"/>
-      <c r="J35" s="439"/>
+      <c r="H35" s="526"/>
+      <c r="I35" s="526"/>
+      <c r="J35" s="526"/>
     </row>
     <row r="36" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="386">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B36" s="440" t="s">
+      <c r="B36" s="522" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="441"/>
-      <c r="D36" s="442"/>
-      <c r="E36" s="438" t="str">
+      <c r="C36" s="523"/>
+      <c r="D36" s="524"/>
+      <c r="E36" s="525" t="str">
         <f>Данные!C24</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F36" s="438"/>
+      <c r="F36" s="525"/>
       <c r="G36" s="318">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H36" s="439"/>
-      <c r="I36" s="439"/>
-      <c r="J36" s="439"/>
+      <c r="H36" s="526"/>
+      <c r="I36" s="526"/>
+      <c r="J36" s="526"/>
     </row>
     <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="313"/>
@@ -10707,12 +10741,31 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:J23"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="H29:J29"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -10729,31 +10782,12 @@
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="H30:J30"/>
     <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:J23"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:J25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="H36:J36"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10808,47 +10842,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="446"/>
-      <c r="C2" s="447"/>
-      <c r="D2" s="448"/>
-      <c r="E2" s="455" t="s">
+      <c r="B2" s="573"/>
+      <c r="C2" s="574"/>
+      <c r="D2" s="575"/>
+      <c r="E2" s="582" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="456"/>
-      <c r="G2" s="456"/>
-      <c r="H2" s="457"/>
-      <c r="I2" s="462" t="s">
+      <c r="F2" s="583"/>
+      <c r="G2" s="583"/>
+      <c r="H2" s="584"/>
+      <c r="I2" s="589" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="463"/>
-      <c r="K2" s="466">
+      <c r="J2" s="590"/>
+      <c r="K2" s="593">
         <f>Данные!B14</f>
         <v>22</v>
       </c>
-      <c r="L2" s="467"/>
+      <c r="L2" s="594"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="458"/>
-      <c r="Q2" s="458"/>
+      <c r="P2" s="585"/>
+      <c r="Q2" s="585"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="449"/>
-      <c r="C3" s="450"/>
-      <c r="D3" s="451"/>
-      <c r="E3" s="459" t="s">
+      <c r="B3" s="576"/>
+      <c r="C3" s="577"/>
+      <c r="D3" s="578"/>
+      <c r="E3" s="586" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="460"/>
-      <c r="G3" s="460"/>
-      <c r="H3" s="461"/>
-      <c r="I3" s="464"/>
-      <c r="J3" s="465"/>
-      <c r="K3" s="468"/>
-      <c r="L3" s="469"/>
+      <c r="F3" s="587"/>
+      <c r="G3" s="587"/>
+      <c r="H3" s="588"/>
+      <c r="I3" s="591"/>
+      <c r="J3" s="592"/>
+      <c r="K3" s="595"/>
+      <c r="L3" s="596"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -10859,9 +10893,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="452"/>
-      <c r="C4" s="453"/>
-      <c r="D4" s="454"/>
+      <c r="B4" s="579"/>
+      <c r="C4" s="580"/>
+      <c r="D4" s="581"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -10880,22 +10914,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="473" t="s">
+      <c r="B5" s="558" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="474"/>
-      <c r="D5" s="407" t="str">
+      <c r="C5" s="559"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="408"/>
-      <c r="F5" s="408"/>
-      <c r="G5" s="408"/>
-      <c r="H5" s="409"/>
-      <c r="I5" s="475"/>
-      <c r="J5" s="476"/>
-      <c r="K5" s="408"/>
-      <c r="L5" s="409"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="560"/>
+      <c r="J5" s="561"/>
+      <c r="K5" s="512"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -10906,22 +10940,22 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="473" t="s">
+      <c r="B6" s="558" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="477"/>
-      <c r="D6" s="401" t="str">
+      <c r="C6" s="562"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="478"/>
-      <c r="F6" s="478"/>
-      <c r="G6" s="478"/>
-      <c r="H6" s="479"/>
-      <c r="I6" s="475"/>
-      <c r="J6" s="476"/>
-      <c r="K6" s="408"/>
-      <c r="L6" s="409"/>
+      <c r="E6" s="563"/>
+      <c r="F6" s="563"/>
+      <c r="G6" s="563"/>
+      <c r="H6" s="564"/>
+      <c r="I6" s="560"/>
+      <c r="J6" s="561"/>
+      <c r="K6" s="512"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -10932,27 +10966,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="480" t="s">
+      <c r="B7" s="565" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="481"/>
-      <c r="D7" s="410">
+      <c r="C7" s="566"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="482"/>
-      <c r="F7" s="482"/>
-      <c r="G7" s="482"/>
-      <c r="H7" s="483"/>
-      <c r="I7" s="480" t="s">
+      <c r="E7" s="567"/>
+      <c r="F7" s="567"/>
+      <c r="G7" s="567"/>
+      <c r="H7" s="568"/>
+      <c r="I7" s="565" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="484"/>
-      <c r="K7" s="398">
+      <c r="J7" s="569"/>
+      <c r="K7" s="520">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="399"/>
+      <c r="L7" s="521"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11446,12 +11480,12 @@
     </row>
     <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
-      <c r="B23" s="485" t="s">
+      <c r="B23" s="570" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="486"/>
-      <c r="D23" s="486"/>
-      <c r="E23" s="487"/>
+      <c r="C23" s="571"/>
+      <c r="D23" s="571"/>
+      <c r="E23" s="572"/>
       <c r="F23" s="118" t="s">
         <v>16</v>
       </c>
@@ -11473,12 +11507,12 @@
     </row>
     <row r="24" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="485" t="s">
+      <c r="B24" s="570" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="486"/>
-      <c r="D24" s="486"/>
-      <c r="E24" s="487"/>
+      <c r="C24" s="571"/>
+      <c r="D24" s="571"/>
+      <c r="E24" s="572"/>
       <c r="F24" s="118" t="s">
         <v>16</v>
       </c>
@@ -11500,12 +11534,12 @@
     </row>
     <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="78"/>
-      <c r="B25" s="470" t="s">
+      <c r="B25" s="555" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="471"/>
-      <c r="D25" s="471"/>
-      <c r="E25" s="472"/>
+      <c r="C25" s="556"/>
+      <c r="D25" s="556"/>
+      <c r="E25" s="557"/>
       <c r="F25" s="118" t="s">
         <v>16</v>
       </c>
@@ -11549,6 +11583,12 @@
     <row r="27" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -11564,12 +11604,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R25">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -11635,50 +11669,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="488">
+      <c r="B2" s="604">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="489"/>
-      <c r="D2" s="490"/>
-      <c r="E2" s="497" t="s">
+      <c r="C2" s="605"/>
+      <c r="D2" s="606"/>
+      <c r="E2" s="613" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="498"/>
-      <c r="G2" s="498"/>
-      <c r="H2" s="499"/>
-      <c r="I2" s="503" t="s">
+      <c r="F2" s="614"/>
+      <c r="G2" s="614"/>
+      <c r="H2" s="615"/>
+      <c r="I2" s="619" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="504"/>
-      <c r="K2" s="507">
+      <c r="J2" s="620"/>
+      <c r="K2" s="623">
         <f>Данные!B15</f>
         <v>22</v>
       </c>
-      <c r="L2" s="508"/>
+      <c r="L2" s="624"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="458"/>
-      <c r="Q2" s="458"/>
+      <c r="P2" s="585"/>
+      <c r="Q2" s="585"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="491"/>
-      <c r="C3" s="492"/>
-      <c r="D3" s="493"/>
-      <c r="E3" s="500" t="s">
+      <c r="B3" s="607"/>
+      <c r="C3" s="608"/>
+      <c r="D3" s="609"/>
+      <c r="E3" s="616" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="501"/>
-      <c r="G3" s="501"/>
-      <c r="H3" s="502"/>
-      <c r="I3" s="505"/>
-      <c r="J3" s="506"/>
-      <c r="K3" s="509"/>
-      <c r="L3" s="510"/>
+      <c r="F3" s="617"/>
+      <c r="G3" s="617"/>
+      <c r="H3" s="618"/>
+      <c r="I3" s="621"/>
+      <c r="J3" s="622"/>
+      <c r="K3" s="625"/>
+      <c r="L3" s="626"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11689,9 +11723,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="494"/>
-      <c r="C4" s="495"/>
-      <c r="D4" s="496"/>
+      <c r="B4" s="610"/>
+      <c r="C4" s="611"/>
+      <c r="D4" s="612"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -11710,22 +11744,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="473" t="s">
+      <c r="B5" s="558" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="511"/>
-      <c r="D5" s="407" t="str">
+      <c r="C5" s="597"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="408"/>
-      <c r="F5" s="408"/>
-      <c r="G5" s="408"/>
-      <c r="H5" s="409"/>
-      <c r="I5" s="512"/>
-      <c r="J5" s="513"/>
-      <c r="K5" s="514"/>
-      <c r="L5" s="409"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="598"/>
+      <c r="J5" s="599"/>
+      <c r="K5" s="600"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11736,22 +11770,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="473" t="s">
+      <c r="B6" s="558" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="511"/>
-      <c r="D6" s="401" t="str">
+      <c r="C6" s="597"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="478"/>
-      <c r="F6" s="478"/>
-      <c r="G6" s="478"/>
-      <c r="H6" s="479"/>
-      <c r="I6" s="512"/>
-      <c r="J6" s="513"/>
-      <c r="K6" s="514"/>
-      <c r="L6" s="409"/>
+      <c r="E6" s="563"/>
+      <c r="F6" s="563"/>
+      <c r="G6" s="563"/>
+      <c r="H6" s="564"/>
+      <c r="I6" s="598"/>
+      <c r="J6" s="599"/>
+      <c r="K6" s="600"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11762,27 +11796,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="480" t="s">
+      <c r="B7" s="565" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="515"/>
-      <c r="D7" s="410">
+      <c r="C7" s="601"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="482"/>
-      <c r="F7" s="482"/>
-      <c r="G7" s="482"/>
-      <c r="H7" s="483"/>
-      <c r="I7" s="516" t="s">
+      <c r="E7" s="567"/>
+      <c r="F7" s="567"/>
+      <c r="G7" s="567"/>
+      <c r="H7" s="568"/>
+      <c r="I7" s="602" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="515"/>
-      <c r="K7" s="398">
+      <c r="J7" s="601"/>
+      <c r="K7" s="520">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="399"/>
+      <c r="L7" s="521"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -11979,13 +12013,13 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
-      <c r="B14" s="485" t="s">
+      <c r="B14" s="570" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="486"/>
-      <c r="D14" s="486"/>
-      <c r="E14" s="486"/>
-      <c r="F14" s="517"/>
+      <c r="C14" s="571"/>
+      <c r="D14" s="571"/>
+      <c r="E14" s="571"/>
+      <c r="F14" s="603"/>
       <c r="G14" s="56" t="s">
         <v>78</v>
       </c>
@@ -12004,12 +12038,12 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78"/>
-      <c r="B15" s="470" t="s">
+      <c r="B15" s="555" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="471"/>
-      <c r="D15" s="471"/>
-      <c r="E15" s="472"/>
+      <c r="C15" s="556"/>
+      <c r="D15" s="556"/>
+      <c r="E15" s="557"/>
       <c r="F15" s="118" t="s">
         <v>16</v>
       </c>
@@ -12060,6 +12094,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12074,12 +12114,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -12153,47 +12187,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="446"/>
-      <c r="C2" s="447"/>
-      <c r="D2" s="448"/>
-      <c r="E2" s="455" t="s">
+      <c r="B2" s="573"/>
+      <c r="C2" s="574"/>
+      <c r="D2" s="575"/>
+      <c r="E2" s="582" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="456"/>
-      <c r="G2" s="456"/>
-      <c r="H2" s="457"/>
-      <c r="I2" s="462" t="s">
+      <c r="F2" s="583"/>
+      <c r="G2" s="583"/>
+      <c r="H2" s="584"/>
+      <c r="I2" s="589" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="463"/>
-      <c r="K2" s="466">
+      <c r="J2" s="590"/>
+      <c r="K2" s="593">
         <f>Данные!B16</f>
         <v>26</v>
       </c>
-      <c r="L2" s="467"/>
+      <c r="L2" s="594"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="458"/>
-      <c r="Q2" s="458"/>
+      <c r="P2" s="585"/>
+      <c r="Q2" s="585"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="449"/>
-      <c r="C3" s="450"/>
-      <c r="D3" s="451"/>
-      <c r="E3" s="459" t="s">
+      <c r="B3" s="576"/>
+      <c r="C3" s="577"/>
+      <c r="D3" s="578"/>
+      <c r="E3" s="586" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="460"/>
-      <c r="G3" s="460"/>
-      <c r="H3" s="461"/>
-      <c r="I3" s="464"/>
-      <c r="J3" s="465"/>
-      <c r="K3" s="468"/>
-      <c r="L3" s="469"/>
+      <c r="F3" s="587"/>
+      <c r="G3" s="587"/>
+      <c r="H3" s="588"/>
+      <c r="I3" s="591"/>
+      <c r="J3" s="592"/>
+      <c r="K3" s="595"/>
+      <c r="L3" s="596"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12204,9 +12238,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="452"/>
-      <c r="C4" s="453"/>
-      <c r="D4" s="454"/>
+      <c r="B4" s="579"/>
+      <c r="C4" s="580"/>
+      <c r="D4" s="581"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12225,22 +12259,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="473" t="s">
+      <c r="B5" s="558" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="474"/>
-      <c r="D5" s="407" t="str">
+      <c r="C5" s="559"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="408"/>
-      <c r="F5" s="408"/>
-      <c r="G5" s="408"/>
-      <c r="H5" s="409"/>
-      <c r="I5" s="475"/>
-      <c r="J5" s="476"/>
-      <c r="K5" s="408"/>
-      <c r="L5" s="409"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="560"/>
+      <c r="J5" s="561"/>
+      <c r="K5" s="512"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12251,22 +12285,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="473" t="s">
+      <c r="B6" s="558" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="477"/>
-      <c r="D6" s="401" t="str">
+      <c r="C6" s="562"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="478"/>
-      <c r="F6" s="478"/>
-      <c r="G6" s="478"/>
-      <c r="H6" s="479"/>
-      <c r="I6" s="475"/>
-      <c r="J6" s="476"/>
-      <c r="K6" s="408"/>
-      <c r="L6" s="409"/>
+      <c r="E6" s="563"/>
+      <c r="F6" s="563"/>
+      <c r="G6" s="563"/>
+      <c r="H6" s="564"/>
+      <c r="I6" s="560"/>
+      <c r="J6" s="561"/>
+      <c r="K6" s="512"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12277,27 +12311,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="480" t="s">
+      <c r="B7" s="565" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="481"/>
-      <c r="D7" s="410">
+      <c r="C7" s="566"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="482"/>
-      <c r="F7" s="482"/>
-      <c r="G7" s="482"/>
-      <c r="H7" s="483"/>
-      <c r="I7" s="480" t="s">
+      <c r="E7" s="567"/>
+      <c r="F7" s="567"/>
+      <c r="G7" s="567"/>
+      <c r="H7" s="568"/>
+      <c r="I7" s="565" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="484"/>
-      <c r="K7" s="398">
+      <c r="J7" s="569"/>
+      <c r="K7" s="520">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="399"/>
+      <c r="L7" s="521"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12780,6 +12814,8 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
@@ -12796,8 +12832,6 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -12865,47 +12899,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="446"/>
-      <c r="C2" s="447"/>
-      <c r="D2" s="448"/>
-      <c r="E2" s="455" t="s">
+      <c r="B2" s="573"/>
+      <c r="C2" s="574"/>
+      <c r="D2" s="575"/>
+      <c r="E2" s="582" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="456"/>
-      <c r="G2" s="456"/>
-      <c r="H2" s="457"/>
-      <c r="I2" s="462" t="s">
+      <c r="F2" s="583"/>
+      <c r="G2" s="583"/>
+      <c r="H2" s="584"/>
+      <c r="I2" s="589" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="463"/>
-      <c r="K2" s="466">
+      <c r="J2" s="590"/>
+      <c r="K2" s="593">
         <f>Данные!B17</f>
         <v>26</v>
       </c>
-      <c r="L2" s="467"/>
+      <c r="L2" s="594"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="518"/>
-      <c r="Q2" s="518"/>
+      <c r="P2" s="627"/>
+      <c r="Q2" s="627"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="449"/>
-      <c r="C3" s="450"/>
-      <c r="D3" s="451"/>
-      <c r="E3" s="459" t="s">
+      <c r="B3" s="576"/>
+      <c r="C3" s="577"/>
+      <c r="D3" s="578"/>
+      <c r="E3" s="586" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="460"/>
-      <c r="G3" s="460"/>
-      <c r="H3" s="461"/>
-      <c r="I3" s="464"/>
-      <c r="J3" s="465"/>
-      <c r="K3" s="468"/>
-      <c r="L3" s="469"/>
+      <c r="F3" s="587"/>
+      <c r="G3" s="587"/>
+      <c r="H3" s="588"/>
+      <c r="I3" s="591"/>
+      <c r="J3" s="592"/>
+      <c r="K3" s="595"/>
+      <c r="L3" s="596"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -12916,9 +12950,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="452"/>
-      <c r="C4" s="453"/>
-      <c r="D4" s="454"/>
+      <c r="B4" s="579"/>
+      <c r="C4" s="580"/>
+      <c r="D4" s="581"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12937,22 +12971,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="473" t="s">
+      <c r="B5" s="558" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="474"/>
-      <c r="D5" s="407" t="str">
+      <c r="C5" s="559"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="408"/>
-      <c r="F5" s="408"/>
-      <c r="G5" s="408"/>
-      <c r="H5" s="409"/>
-      <c r="I5" s="475"/>
-      <c r="J5" s="476"/>
-      <c r="K5" s="408"/>
-      <c r="L5" s="409"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="560"/>
+      <c r="J5" s="561"/>
+      <c r="K5" s="512"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -12963,22 +12997,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="473" t="s">
+      <c r="B6" s="558" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="477"/>
-      <c r="D6" s="401" t="str">
+      <c r="C6" s="562"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="478"/>
-      <c r="F6" s="478"/>
-      <c r="G6" s="478"/>
-      <c r="H6" s="479"/>
-      <c r="I6" s="475"/>
-      <c r="J6" s="476"/>
-      <c r="K6" s="408"/>
-      <c r="L6" s="409"/>
+      <c r="E6" s="563"/>
+      <c r="F6" s="563"/>
+      <c r="G6" s="563"/>
+      <c r="H6" s="564"/>
+      <c r="I6" s="560"/>
+      <c r="J6" s="561"/>
+      <c r="K6" s="512"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -12989,27 +13023,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="480" t="s">
+      <c r="B7" s="565" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="481"/>
-      <c r="D7" s="410">
+      <c r="C7" s="566"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="482"/>
-      <c r="F7" s="482"/>
-      <c r="G7" s="482"/>
-      <c r="H7" s="483"/>
-      <c r="I7" s="480" t="s">
+      <c r="E7" s="567"/>
+      <c r="F7" s="567"/>
+      <c r="G7" s="567"/>
+      <c r="H7" s="568"/>
+      <c r="I7" s="565" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="484"/>
-      <c r="K7" s="398">
+      <c r="J7" s="569"/>
+      <c r="K7" s="520">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="399"/>
+      <c r="L7" s="521"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13294,6 +13328,17 @@
     <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -13301,17 +13346,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -13383,60 +13417,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="488"/>
-      <c r="C2" s="489"/>
-      <c r="D2" s="490"/>
-      <c r="E2" s="497" t="s">
+      <c r="B2" s="604"/>
+      <c r="C2" s="605"/>
+      <c r="D2" s="606"/>
+      <c r="E2" s="613" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="498"/>
-      <c r="G2" s="498"/>
-      <c r="H2" s="499"/>
-      <c r="I2" s="503" t="s">
+      <c r="F2" s="614"/>
+      <c r="G2" s="614"/>
+      <c r="H2" s="615"/>
+      <c r="I2" s="619" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="504"/>
-      <c r="K2" s="507">
+      <c r="J2" s="620"/>
+      <c r="K2" s="623">
         <f>Данные!B18</f>
         <v>50</v>
       </c>
-      <c r="L2" s="508"/>
-      <c r="M2" s="519"/>
-      <c r="N2" s="520"/>
-      <c r="O2" s="520"/>
-      <c r="P2" s="520"/>
-      <c r="Q2" s="520"/>
-      <c r="R2" s="521"/>
+      <c r="L2" s="624"/>
+      <c r="M2" s="628"/>
+      <c r="N2" s="629"/>
+      <c r="O2" s="629"/>
+      <c r="P2" s="629"/>
+      <c r="Q2" s="629"/>
+      <c r="R2" s="630"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="491"/>
-      <c r="C3" s="492"/>
-      <c r="D3" s="493"/>
-      <c r="E3" s="500" t="s">
+      <c r="B3" s="607"/>
+      <c r="C3" s="608"/>
+      <c r="D3" s="609"/>
+      <c r="E3" s="616" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="501"/>
-      <c r="G3" s="501"/>
-      <c r="H3" s="502"/>
-      <c r="I3" s="505"/>
-      <c r="J3" s="506"/>
-      <c r="K3" s="509"/>
-      <c r="L3" s="510"/>
-      <c r="M3" s="522"/>
-      <c r="N3" s="523"/>
-      <c r="O3" s="523"/>
-      <c r="P3" s="523"/>
-      <c r="Q3" s="523"/>
-      <c r="R3" s="524"/>
+      <c r="F3" s="617"/>
+      <c r="G3" s="617"/>
+      <c r="H3" s="618"/>
+      <c r="I3" s="621"/>
+      <c r="J3" s="622"/>
+      <c r="K3" s="625"/>
+      <c r="L3" s="626"/>
+      <c r="M3" s="631"/>
+      <c r="N3" s="632"/>
+      <c r="O3" s="632"/>
+      <c r="P3" s="632"/>
+      <c r="Q3" s="632"/>
+      <c r="R3" s="633"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="494"/>
-      <c r="C4" s="495"/>
-      <c r="D4" s="496"/>
+      <c r="B4" s="610"/>
+      <c r="C4" s="611"/>
+      <c r="D4" s="612"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -13445,95 +13479,95 @@
       <c r="J4" s="251"/>
       <c r="K4" s="254"/>
       <c r="L4" s="255"/>
-      <c r="M4" s="522"/>
-      <c r="N4" s="523"/>
-      <c r="O4" s="523"/>
-      <c r="P4" s="523"/>
-      <c r="Q4" s="523"/>
-      <c r="R4" s="524"/>
+      <c r="M4" s="631"/>
+      <c r="N4" s="632"/>
+      <c r="O4" s="632"/>
+      <c r="P4" s="632"/>
+      <c r="Q4" s="632"/>
+      <c r="R4" s="633"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="473" t="s">
+      <c r="B5" s="558" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="511"/>
-      <c r="D5" s="407" t="str">
+      <c r="C5" s="597"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="408"/>
-      <c r="F5" s="408"/>
-      <c r="G5" s="408"/>
-      <c r="H5" s="409"/>
-      <c r="I5" s="512"/>
-      <c r="J5" s="513"/>
-      <c r="K5" s="514"/>
-      <c r="L5" s="409"/>
-      <c r="M5" s="522"/>
-      <c r="N5" s="523"/>
-      <c r="O5" s="523"/>
-      <c r="P5" s="523"/>
-      <c r="Q5" s="523"/>
-      <c r="R5" s="524"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="598"/>
+      <c r="J5" s="599"/>
+      <c r="K5" s="600"/>
+      <c r="L5" s="513"/>
+      <c r="M5" s="631"/>
+      <c r="N5" s="632"/>
+      <c r="O5" s="632"/>
+      <c r="P5" s="632"/>
+      <c r="Q5" s="632"/>
+      <c r="R5" s="633"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="473" t="s">
+      <c r="B6" s="558" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="511"/>
-      <c r="D6" s="401" t="str">
+      <c r="C6" s="597"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="478"/>
-      <c r="F6" s="478"/>
-      <c r="G6" s="478"/>
-      <c r="H6" s="479"/>
-      <c r="I6" s="512"/>
-      <c r="J6" s="513"/>
-      <c r="K6" s="514"/>
-      <c r="L6" s="409"/>
-      <c r="M6" s="522"/>
-      <c r="N6" s="523"/>
-      <c r="O6" s="523"/>
-      <c r="P6" s="523"/>
-      <c r="Q6" s="523"/>
-      <c r="R6" s="524"/>
+      <c r="E6" s="563"/>
+      <c r="F6" s="563"/>
+      <c r="G6" s="563"/>
+      <c r="H6" s="564"/>
+      <c r="I6" s="598"/>
+      <c r="J6" s="599"/>
+      <c r="K6" s="600"/>
+      <c r="L6" s="513"/>
+      <c r="M6" s="631"/>
+      <c r="N6" s="632"/>
+      <c r="O6" s="632"/>
+      <c r="P6" s="632"/>
+      <c r="Q6" s="632"/>
+      <c r="R6" s="633"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="480" t="s">
+      <c r="B7" s="565" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="515"/>
-      <c r="D7" s="410">
+      <c r="C7" s="601"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="482"/>
-      <c r="F7" s="482"/>
-      <c r="G7" s="482"/>
-      <c r="H7" s="483"/>
-      <c r="I7" s="516" t="s">
+      <c r="E7" s="567"/>
+      <c r="F7" s="567"/>
+      <c r="G7" s="567"/>
+      <c r="H7" s="568"/>
+      <c r="I7" s="602" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="515"/>
-      <c r="K7" s="398">
+      <c r="J7" s="601"/>
+      <c r="K7" s="520">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="399"/>
-      <c r="M7" s="522"/>
-      <c r="N7" s="523"/>
-      <c r="O7" s="523"/>
-      <c r="P7" s="523"/>
-      <c r="Q7" s="523"/>
-      <c r="R7" s="524"/>
+      <c r="L7" s="521"/>
+      <c r="M7" s="631"/>
+      <c r="N7" s="632"/>
+      <c r="O7" s="632"/>
+      <c r="P7" s="632"/>
+      <c r="Q7" s="632"/>
+      <c r="R7" s="633"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13955,12 +13989,12 @@
     </row>
     <row r="21" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="78"/>
-      <c r="B21" s="470" t="s">
+      <c r="B21" s="555" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="471"/>
-      <c r="D21" s="471"/>
-      <c r="E21" s="472"/>
+      <c r="C21" s="556"/>
+      <c r="D21" s="556"/>
+      <c r="E21" s="557"/>
       <c r="F21" s="118" t="s">
         <v>16</v>
       </c>
@@ -14006,13 +14040,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -14025,6 +14052,13 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
@@ -14089,47 +14123,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="488"/>
-      <c r="C2" s="489"/>
-      <c r="D2" s="490"/>
-      <c r="E2" s="497" t="s">
+      <c r="B2" s="604"/>
+      <c r="C2" s="605"/>
+      <c r="D2" s="606"/>
+      <c r="E2" s="613" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="498"/>
-      <c r="G2" s="498"/>
-      <c r="H2" s="499"/>
-      <c r="I2" s="503" t="s">
+      <c r="F2" s="614"/>
+      <c r="G2" s="614"/>
+      <c r="H2" s="615"/>
+      <c r="I2" s="619" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="504"/>
-      <c r="K2" s="507">
+      <c r="J2" s="620"/>
+      <c r="K2" s="623">
         <f>Данные!B19</f>
         <v>50</v>
       </c>
-      <c r="L2" s="508"/>
+      <c r="L2" s="624"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="525"/>
-      <c r="Q2" s="525"/>
+      <c r="P2" s="634"/>
+      <c r="Q2" s="634"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="491"/>
-      <c r="C3" s="492"/>
-      <c r="D3" s="493"/>
-      <c r="E3" s="500" t="s">
+      <c r="B3" s="607"/>
+      <c r="C3" s="608"/>
+      <c r="D3" s="609"/>
+      <c r="E3" s="616" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="501"/>
-      <c r="G3" s="501"/>
-      <c r="H3" s="502"/>
-      <c r="I3" s="505"/>
-      <c r="J3" s="506"/>
-      <c r="K3" s="509"/>
-      <c r="L3" s="510"/>
+      <c r="F3" s="617"/>
+      <c r="G3" s="617"/>
+      <c r="H3" s="618"/>
+      <c r="I3" s="621"/>
+      <c r="J3" s="622"/>
+      <c r="K3" s="625"/>
+      <c r="L3" s="626"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14140,9 +14174,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="494"/>
-      <c r="C4" s="495"/>
-      <c r="D4" s="496"/>
+      <c r="B4" s="610"/>
+      <c r="C4" s="611"/>
+      <c r="D4" s="612"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -14161,22 +14195,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="473" t="s">
+      <c r="B5" s="558" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="511"/>
-      <c r="D5" s="407" t="str">
+      <c r="C5" s="597"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="408"/>
-      <c r="F5" s="408"/>
-      <c r="G5" s="408"/>
-      <c r="H5" s="409"/>
-      <c r="I5" s="512"/>
-      <c r="J5" s="513"/>
-      <c r="K5" s="514"/>
-      <c r="L5" s="409"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="598"/>
+      <c r="J5" s="599"/>
+      <c r="K5" s="600"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14187,22 +14221,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="473" t="s">
+      <c r="B6" s="558" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="511"/>
-      <c r="D6" s="401" t="str">
+      <c r="C6" s="597"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="478"/>
-      <c r="F6" s="478"/>
-      <c r="G6" s="478"/>
-      <c r="H6" s="479"/>
-      <c r="I6" s="512"/>
-      <c r="J6" s="513"/>
-      <c r="K6" s="514"/>
-      <c r="L6" s="409"/>
+      <c r="E6" s="563"/>
+      <c r="F6" s="563"/>
+      <c r="G6" s="563"/>
+      <c r="H6" s="564"/>
+      <c r="I6" s="598"/>
+      <c r="J6" s="599"/>
+      <c r="K6" s="600"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14213,27 +14247,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="480" t="s">
+      <c r="B7" s="565" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="515"/>
-      <c r="D7" s="410">
+      <c r="C7" s="601"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="482"/>
-      <c r="F7" s="482"/>
-      <c r="G7" s="482"/>
-      <c r="H7" s="483"/>
-      <c r="I7" s="516" t="s">
+      <c r="E7" s="567"/>
+      <c r="F7" s="567"/>
+      <c r="G7" s="567"/>
+      <c r="H7" s="568"/>
+      <c r="I7" s="602" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="515"/>
-      <c r="K7" s="398">
+      <c r="J7" s="601"/>
+      <c r="K7" s="520">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="399"/>
+      <c r="L7" s="521"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -14496,12 +14530,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
-      <c r="B16" s="470" t="s">
+      <c r="B16" s="555" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="471"/>
-      <c r="D16" s="471"/>
-      <c r="E16" s="472"/>
+      <c r="C16" s="556"/>
+      <c r="D16" s="556"/>
+      <c r="E16" s="557"/>
       <c r="F16" s="261" t="s">
         <v>16</v>
       </c>
@@ -14547,15 +14581,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
@@ -14566,6 +14591,15 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2.1-500-4 (Ведьма)/Ведьма 0.5 л. от 03.10.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2.1-500-4 (Ведьма)/Ведьма 0.5 л. от 03.10.2019.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XXI-В-28-2.1-500-4 (Ведьма)\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2FE488-CBAA-4EEE-8DB6-350E28ECF26E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Паспорт" sheetId="16" r:id="rId1"/>
@@ -36,7 +37,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Чист.  поддон'!$A$1:$S$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Чист. форма'!$A$1:$S$26</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -558,13 +566,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="59" x14ac:knownFonts="1">
     <font>
@@ -2225,10 +2233,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="653">
+  <cellXfs count="652">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -3446,7 +3454,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3462,7 +3470,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3535,17 +3543,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3555,8 +3563,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3568,11 +3576,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3582,7 +3587,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3596,11 +3601,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1"/>
@@ -3612,13 +3617,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="45" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3631,7 +3636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3642,449 +3647,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="45" fillId="12" borderId="89" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="77" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="93" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="93" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4101,11 +3663,454 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="12" borderId="89" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="93" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="93" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="77" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Процентный" xfId="4" builtinId="5"/>
     <cellStyle name="Финансовый" xfId="3" builtinId="3"/>
   </cellStyles>
@@ -4395,7 +4400,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4441,7 +4452,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4486,7 +4503,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Прямая соединительная линия 9"/>
+        <xdr:cNvPr id="10" name="Прямая соединительная линия 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4530,7 +4553,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4579,7 +4608,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 8" descr="Fun_1"/>
+        <xdr:cNvPr id="2" name="Picture 8" descr="Fun_1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4625,7 +4660,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4669,7 +4710,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4713,7 +4760,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4762,7 +4815,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4" descr="BOT-1_HR.jpg"/>
+        <xdr:cNvPr id="3" name="Picture 4" descr="BOT-1_HR.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4808,7 +4867,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4852,7 +4917,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4896,7 +4967,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4945,7 +5022,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4991,7 +5074,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5035,7 +5124,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5079,7 +5174,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5128,7 +5229,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1078" name="Picture 4" descr="BAF-2_HR.JPG"/>
+        <xdr:cNvPr id="1078" name="Picture 4" descr="BAF-2_HR.JPG">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000036040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5174,7 +5281,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5218,7 +5331,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5262,7 +5381,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5311,7 +5436,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4" descr="NR-02.TIF"/>
+        <xdr:cNvPr id="3" name="Picture 4" descr="NR-02.TIF">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -5357,7 +5488,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5401,7 +5538,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5444,7 +5587,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 4" descr="Iso0418(FGP)"/>
+        <xdr:cNvPr id="2" name="Picture 4" descr="Iso0418(FGP)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5490,7 +5639,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5539,7 +5694,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 5" descr="pbb.tif"/>
+        <xdr:cNvPr id="3" name="Picture 5" descr="pbb.tif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -5585,7 +5746,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5629,7 +5796,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5673,7 +5846,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5722,7 +5901,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 9" descr="THIMBLE"/>
+        <xdr:cNvPr id="2" name="Picture 9" descr="THIMBLE">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5768,7 +5953,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5812,7 +6003,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5856,7 +6053,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5905,7 +6108,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 6" descr="BLOWHEAD"/>
+        <xdr:cNvPr id="2" name="Picture 6" descr="BLOWHEAD">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5951,7 +6160,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5995,7 +6210,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6039,7 +6260,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6147,6 +6374,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -6182,6 +6426,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -6357,53 +6618,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D10" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="498" t="s">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="501" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="498"/>
-      <c r="C1" s="498"/>
-      <c r="D1" s="498"/>
-      <c r="E1" s="498"/>
-      <c r="F1" s="498"/>
-      <c r="G1" s="498"/>
-      <c r="H1" s="498"/>
-      <c r="I1" s="498"/>
-      <c r="J1" s="498"/>
-      <c r="K1" s="498"/>
-      <c r="L1" s="498"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="499" t="s">
+      <c r="B1" s="501"/>
+      <c r="C1" s="501"/>
+      <c r="D1" s="501"/>
+      <c r="E1" s="501"/>
+      <c r="F1" s="501"/>
+      <c r="G1" s="501"/>
+      <c r="H1" s="501"/>
+      <c r="I1" s="501"/>
+      <c r="J1" s="501"/>
+      <c r="K1" s="501"/>
+      <c r="L1" s="501"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="502" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="499"/>
-      <c r="C2" s="499"/>
-      <c r="D2" s="499"/>
-      <c r="E2" s="499"/>
+      <c r="B2" s="502"/>
+      <c r="C2" s="502"/>
+      <c r="D2" s="502"/>
+      <c r="E2" s="502"/>
       <c r="F2" s="395"/>
       <c r="G2" s="396"/>
       <c r="H2" s="397"/>
@@ -6411,7 +6672,7 @@
       <c r="L2" s="398"/>
       <c r="M2" s="399"/>
     </row>
-    <row r="3" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="399"/>
       <c r="B3" s="400"/>
       <c r="C3" s="400"/>
@@ -6423,7 +6684,7 @@
       <c r="K3" s="398"/>
       <c r="M3" s="375"/>
     </row>
-    <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="403" t="s">
         <v>130</v>
       </c>
@@ -6461,7 +6722,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="407">
         <v>1</v>
       </c>
@@ -6488,7 +6749,7 @@
       <c r="K5" s="414"/>
       <c r="L5" s="415"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="416">
         <f>A5+1</f>
         <v>2</v>
@@ -6516,7 +6777,7 @@
       <c r="K6" s="390"/>
       <c r="L6" s="420"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="416">
         <f t="shared" ref="A7:A16" si="1">A6+1</f>
         <v>3</v>
@@ -6544,7 +6805,7 @@
       <c r="K7" s="390"/>
       <c r="L7" s="420"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="416">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -6572,7 +6833,7 @@
       <c r="K8" s="390"/>
       <c r="L8" s="420"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="416">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -6600,7 +6861,7 @@
       <c r="K9" s="409"/>
       <c r="L9" s="420"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="416">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -6628,7 +6889,7 @@
       <c r="K10" s="390"/>
       <c r="L10" s="420"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="416">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -6657,7 +6918,7 @@
       <c r="L11" s="420"/>
       <c r="M11" s="425"/>
     </row>
-    <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="416">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -6686,7 +6947,7 @@
       <c r="L12" s="420"/>
       <c r="M12" s="425"/>
     </row>
-    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="416">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6716,7 +6977,7 @@
       <c r="K13" s="409"/>
       <c r="L13" s="420"/>
     </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="416">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -6744,7 +7005,7 @@
       <c r="K14" s="409"/>
       <c r="L14" s="420"/>
     </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="416">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -6772,7 +7033,7 @@
       <c r="K15" s="409"/>
       <c r="L15" s="420"/>
     </row>
-    <row r="16" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="427">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -6794,7 +7055,7 @@
       <c r="K16" s="429"/>
       <c r="L16" s="420"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="434"/>
       <c r="B17" s="435"/>
       <c r="C17" s="399"/>
@@ -6806,7 +7067,7 @@
       <c r="I17" s="399"/>
       <c r="J17" s="399"/>
     </row>
-    <row r="18" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="399"/>
       <c r="B18" s="436" t="s">
         <v>145</v>
@@ -6822,7 +7083,7 @@
       <c r="K18" s="437"/>
       <c r="L18" s="437"/>
     </row>
-    <row r="19" spans="1:12" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="403" t="s">
         <v>146</v>
       </c>
@@ -6856,7 +7117,7 @@
       <c r="K19" s="441"/>
       <c r="L19" s="441"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="442">
         <f>D5*700000</f>
         <v>15400000</v>
@@ -6888,11 +7149,11 @@
         <f>1-G20</f>
         <v>0.95777116883116886</v>
       </c>
-      <c r="J20" s="646"/>
+      <c r="J20" s="492"/>
       <c r="K20" s="450"/>
       <c r="L20" s="450"/>
     </row>
-    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="451"/>
       <c r="B21" s="452">
         <v>43840</v>
@@ -6921,27 +7182,48 @@
         <f>I20-G21</f>
         <v>0.91543785714285719</v>
       </c>
-      <c r="J21" s="647">
+      <c r="J21" s="493">
         <v>367</v>
       </c>
       <c r="K21" s="399"/>
       <c r="L21" s="399"/>
     </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="456"/>
-      <c r="B22" s="457"/>
-      <c r="C22" s="457"/>
-      <c r="D22" s="457"/>
-      <c r="E22" s="458"/>
-      <c r="F22" s="458"/>
-      <c r="G22" s="459"/>
-      <c r="H22" s="460"/>
-      <c r="I22" s="461"/>
-      <c r="J22" s="648"/>
+      <c r="B22" s="457">
+        <v>43955</v>
+      </c>
+      <c r="C22" s="457">
+        <v>43957</v>
+      </c>
+      <c r="D22" s="457">
+        <v>43972</v>
+      </c>
+      <c r="E22" s="458">
+        <v>419640</v>
+      </c>
+      <c r="F22" s="458">
+        <v>481020</v>
+      </c>
+      <c r="G22" s="446">
+        <f>F22/A$20</f>
+        <v>3.1235064935064935E-2</v>
+      </c>
+      <c r="H22" s="454">
+        <f>H21-F22</f>
+        <v>13616723</v>
+      </c>
+      <c r="I22" s="455">
+        <f>I21-G22</f>
+        <v>0.8842027922077923</v>
+      </c>
+      <c r="J22" s="494">
+        <v>364</v>
+      </c>
       <c r="K22" s="450"/>
       <c r="L22" s="450"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="456"/>
       <c r="B23" s="390"/>
       <c r="C23" s="390"/>
@@ -6950,141 +7232,141 @@
       <c r="F23" s="390"/>
       <c r="G23" s="390"/>
       <c r="H23" s="390"/>
-      <c r="I23" s="462"/>
-      <c r="J23" s="649"/>
+      <c r="I23" s="461"/>
+      <c r="J23" s="495"/>
       <c r="K23" s="449"/>
       <c r="L23" s="399"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="456"/>
       <c r="B24" s="457"/>
       <c r="C24" s="457"/>
       <c r="D24" s="457"/>
       <c r="E24" s="458"/>
       <c r="F24" s="458"/>
-      <c r="G24" s="463"/>
-      <c r="H24" s="460"/>
-      <c r="I24" s="461"/>
-      <c r="J24" s="648"/>
-      <c r="K24" s="464"/>
+      <c r="G24" s="462"/>
+      <c r="H24" s="459"/>
+      <c r="I24" s="460"/>
+      <c r="J24" s="494"/>
+      <c r="K24" s="463"/>
       <c r="L24" s="399"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="456"/>
       <c r="B25" s="457"/>
       <c r="C25" s="457"/>
       <c r="D25" s="457"/>
       <c r="E25" s="458"/>
       <c r="F25" s="458"/>
-      <c r="G25" s="463"/>
-      <c r="H25" s="460"/>
-      <c r="I25" s="461"/>
-      <c r="J25" s="648"/>
+      <c r="G25" s="462"/>
+      <c r="H25" s="459"/>
+      <c r="I25" s="460"/>
+      <c r="J25" s="494"/>
       <c r="K25" s="449"/>
       <c r="L25" s="399"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="456"/>
       <c r="B26" s="457"/>
       <c r="C26" s="457"/>
       <c r="D26" s="457"/>
-      <c r="E26" s="460"/>
+      <c r="E26" s="459"/>
       <c r="F26" s="458"/>
-      <c r="G26" s="463"/>
-      <c r="H26" s="460"/>
-      <c r="I26" s="461"/>
-      <c r="J26" s="648"/>
+      <c r="G26" s="462"/>
+      <c r="H26" s="459"/>
+      <c r="I26" s="460"/>
+      <c r="J26" s="494"/>
       <c r="K26" s="449"/>
       <c r="L26" s="399"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="456"/>
       <c r="B27" s="457"/>
       <c r="C27" s="457"/>
       <c r="D27" s="457"/>
-      <c r="E27" s="460"/>
+      <c r="E27" s="459"/>
       <c r="F27" s="458"/>
-      <c r="G27" s="463"/>
-      <c r="H27" s="460"/>
-      <c r="I27" s="461"/>
-      <c r="J27" s="648"/>
+      <c r="G27" s="462"/>
+      <c r="H27" s="459"/>
+      <c r="I27" s="460"/>
+      <c r="J27" s="494"/>
       <c r="K27" s="449"/>
       <c r="L27" s="399"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="456"/>
       <c r="B28" s="457"/>
       <c r="C28" s="457"/>
       <c r="D28" s="390"/>
       <c r="E28" s="390"/>
       <c r="F28" s="458"/>
-      <c r="G28" s="465"/>
-      <c r="H28" s="460"/>
-      <c r="I28" s="466"/>
-      <c r="J28" s="650"/>
+      <c r="G28" s="464"/>
+      <c r="H28" s="459"/>
+      <c r="I28" s="465"/>
+      <c r="J28" s="496"/>
       <c r="K28" s="449"/>
       <c r="L28" s="399"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="456"/>
       <c r="B29" s="457"/>
       <c r="C29" s="457"/>
       <c r="D29" s="390"/>
       <c r="E29" s="390"/>
       <c r="F29" s="458"/>
-      <c r="G29" s="463"/>
-      <c r="H29" s="460"/>
-      <c r="I29" s="466"/>
-      <c r="J29" s="650"/>
+      <c r="G29" s="462"/>
+      <c r="H29" s="459"/>
+      <c r="I29" s="465"/>
+      <c r="J29" s="496"/>
       <c r="K29" s="449"/>
       <c r="L29" s="399"/>
     </row>
-    <row r="30" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="467"/>
-      <c r="B30" s="468"/>
-      <c r="C30" s="468"/>
-      <c r="D30" s="469"/>
-      <c r="E30" s="469"/>
-      <c r="F30" s="470"/>
-      <c r="G30" s="471"/>
-      <c r="H30" s="472"/>
-      <c r="I30" s="473"/>
-      <c r="J30" s="651"/>
+    <row r="30" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="466"/>
+      <c r="B30" s="467"/>
+      <c r="C30" s="467"/>
+      <c r="D30" s="468"/>
+      <c r="E30" s="468"/>
+      <c r="F30" s="469"/>
+      <c r="G30" s="470"/>
+      <c r="H30" s="471"/>
+      <c r="I30" s="472"/>
+      <c r="J30" s="497"/>
       <c r="K30" s="399"/>
       <c r="L30" s="399"/>
     </row>
-    <row r="31" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="474" t="s">
+    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="473" t="s">
         <v>155</v>
       </c>
-      <c r="B31" s="475"/>
-      <c r="C31" s="475"/>
-      <c r="D31" s="476"/>
-      <c r="E31" s="477">
+      <c r="B31" s="474"/>
+      <c r="C31" s="474"/>
+      <c r="D31" s="475"/>
+      <c r="E31" s="476">
         <f>SUM(E20:E30)</f>
-        <v>1071084</v>
-      </c>
-      <c r="F31" s="478">
+        <v>1490724</v>
+      </c>
+      <c r="F31" s="477">
         <f>SUM(F20:F30)</f>
-        <v>1302257</v>
-      </c>
-      <c r="G31" s="479">
+        <v>1783277</v>
+      </c>
+      <c r="G31" s="478">
         <f>SUM(G20:G30)</f>
-        <v>8.4562142857142863E-2</v>
-      </c>
-      <c r="H31" s="480">
+        <v>0.1157972077922078</v>
+      </c>
+      <c r="H31" s="479">
         <f>A20-F31</f>
-        <v>14097743</v>
-      </c>
-      <c r="I31" s="481">
+        <v>13616723</v>
+      </c>
+      <c r="I31" s="480">
         <f>1-G31</f>
-        <v>0.91543785714285719</v>
-      </c>
-      <c r="J31" s="652"/>
-      <c r="K31" s="482"/>
-      <c r="L31" s="482"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.88420279220779219</v>
+      </c>
+      <c r="J31" s="498"/>
+      <c r="K31" s="481"/>
+      <c r="L31" s="481"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="399"/>
       <c r="B34" s="399"/>
       <c r="C34" s="399"/>
@@ -7096,13 +7378,13 @@
       <c r="I34" s="399"/>
       <c r="J34" s="399"/>
     </row>
-    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="500" t="s">
+    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="503" t="s">
         <v>156</v>
       </c>
-      <c r="B35" s="500"/>
-      <c r="C35" s="500"/>
-      <c r="D35" s="500"/>
+      <c r="B35" s="503"/>
+      <c r="C35" s="503"/>
+      <c r="D35" s="503"/>
       <c r="E35" s="399"/>
       <c r="F35" s="399"/>
       <c r="G35" s="399"/>
@@ -7110,15 +7392,15 @@
       <c r="I35" s="399"/>
       <c r="J35" s="399"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="501" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="504" t="s">
         <v>157</v>
       </c>
-      <c r="B36" s="501"/>
-      <c r="C36" s="483" t="s">
+      <c r="B36" s="504"/>
+      <c r="C36" s="482" t="s">
         <v>158</v>
       </c>
-      <c r="D36" s="483" t="s">
+      <c r="D36" s="482" t="s">
         <v>159</v>
       </c>
       <c r="E36" s="399"/>
@@ -7128,30 +7410,30 @@
       <c r="I36" s="399"/>
       <c r="J36" s="399"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="502">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="505">
         <f>A20-F31</f>
-        <v>14097743</v>
-      </c>
-      <c r="B37" s="503"/>
-      <c r="C37" s="484">
+        <v>13616723</v>
+      </c>
+      <c r="B37" s="506"/>
+      <c r="C37" s="483">
         <f>1-G31</f>
-        <v>0.91543785714285719</v>
-      </c>
-      <c r="D37" s="485">
+        <v>0.88420279220779219</v>
+      </c>
+      <c r="D37" s="484">
         <f>(C37/0.8)*100</f>
-        <v>114.42973214285715</v>
-      </c>
-      <c r="E37" s="486" t="s">
+        <v>110.52534902597402</v>
+      </c>
+      <c r="E37" s="485" t="s">
         <v>160</v>
       </c>
-      <c r="F37" s="486"/>
-      <c r="G37" s="486"/>
-      <c r="H37" s="486"/>
-      <c r="I37" s="486"/>
-      <c r="J37" s="486"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F37" s="485"/>
+      <c r="G37" s="485"/>
+      <c r="H37" s="485"/>
+      <c r="I37" s="485"/>
+      <c r="J37" s="485"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="399"/>
       <c r="B38" s="399"/>
       <c r="C38" s="399"/>
@@ -7159,7 +7441,7 @@
       <c r="E38" s="399"/>
       <c r="F38" s="399"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="399"/>
       <c r="B39" s="399"/>
       <c r="C39" s="399"/>
@@ -7174,10 +7456,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="399"/>
-      <c r="B40" s="487"/>
-      <c r="C40" s="487"/>
+      <c r="B40" s="486"/>
+      <c r="C40" s="486"/>
       <c r="D40" s="399"/>
       <c r="E40" s="399"/>
       <c r="F40" s="399"/>
@@ -7186,146 +7468,146 @@
       <c r="I40" s="399"/>
       <c r="J40" s="399"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="488"/>
-      <c r="B41" s="488"/>
-      <c r="C41" s="488"/>
-      <c r="D41" s="488"/>
-      <c r="E41" s="488"/>
-      <c r="F41" s="488"/>
-      <c r="G41" s="488"/>
-      <c r="H41" s="488"/>
-      <c r="I41" s="495"/>
-      <c r="J41" s="496"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="489"/>
-      <c r="B42" s="490"/>
-      <c r="C42" s="490"/>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="487"/>
+      <c r="B41" s="487"/>
+      <c r="C41" s="487"/>
+      <c r="D41" s="487"/>
+      <c r="E41" s="487"/>
+      <c r="F41" s="487"/>
+      <c r="G41" s="487"/>
+      <c r="H41" s="487"/>
+      <c r="I41" s="499"/>
+      <c r="J41" s="500"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="488"/>
+      <c r="B42" s="489"/>
+      <c r="C42" s="489"/>
       <c r="D42" s="399"/>
       <c r="E42" s="399"/>
-      <c r="F42" s="490"/>
-      <c r="G42" s="491"/>
-      <c r="H42" s="490"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="489"/>
-      <c r="B43" s="490"/>
-      <c r="C43" s="490"/>
-      <c r="D43" s="490"/>
-      <c r="E43" s="490"/>
-      <c r="F43" s="490"/>
-      <c r="G43" s="491"/>
-      <c r="H43" s="490"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="489"/>
-      <c r="B44" s="490"/>
-      <c r="C44" s="490"/>
+      <c r="F42" s="489"/>
+      <c r="G42" s="490"/>
+      <c r="H42" s="489"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="488"/>
+      <c r="B43" s="489"/>
+      <c r="C43" s="489"/>
+      <c r="D43" s="489"/>
+      <c r="E43" s="489"/>
+      <c r="F43" s="489"/>
+      <c r="G43" s="490"/>
+      <c r="H43" s="489"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="488"/>
+      <c r="B44" s="489"/>
+      <c r="C44" s="489"/>
       <c r="D44" s="399"/>
       <c r="E44" s="399"/>
-      <c r="F44" s="490"/>
-      <c r="G44" s="491"/>
-      <c r="H44" s="490"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="489"/>
-      <c r="B45" s="490"/>
-      <c r="C45" s="490"/>
-      <c r="D45" s="490"/>
-      <c r="E45" s="490"/>
-      <c r="F45" s="490"/>
-      <c r="G45" s="491"/>
-      <c r="H45" s="490"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="489"/>
-      <c r="B46" s="490"/>
-      <c r="C46" s="490"/>
+      <c r="F44" s="489"/>
+      <c r="G44" s="490"/>
+      <c r="H44" s="489"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="488"/>
+      <c r="B45" s="489"/>
+      <c r="C45" s="489"/>
+      <c r="D45" s="489"/>
+      <c r="E45" s="489"/>
+      <c r="F45" s="489"/>
+      <c r="G45" s="490"/>
+      <c r="H45" s="489"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="488"/>
+      <c r="B46" s="489"/>
+      <c r="C46" s="489"/>
       <c r="D46" s="399"/>
       <c r="E46" s="399"/>
-      <c r="F46" s="490"/>
-      <c r="G46" s="491"/>
-      <c r="H46" s="490"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="489"/>
-      <c r="B47" s="490"/>
+      <c r="F46" s="489"/>
+      <c r="G46" s="490"/>
+      <c r="H46" s="489"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="488"/>
+      <c r="B47" s="489"/>
       <c r="C47" s="450"/>
-      <c r="D47" s="492"/>
-      <c r="E47" s="492"/>
+      <c r="D47" s="491"/>
+      <c r="E47" s="491"/>
       <c r="F47" s="450"/>
       <c r="G47" s="450"/>
       <c r="H47" s="450"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="489"/>
-      <c r="B48" s="490"/>
-      <c r="C48" s="490"/>
-      <c r="D48" s="490"/>
-      <c r="E48" s="490"/>
-      <c r="F48" s="490"/>
-      <c r="G48" s="491"/>
-      <c r="H48" s="490"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="489"/>
-      <c r="B49" s="490"/>
-      <c r="C49" s="490"/>
-      <c r="D49" s="490"/>
-      <c r="E49" s="490"/>
-      <c r="F49" s="490"/>
-      <c r="G49" s="491"/>
-      <c r="H49" s="490"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="489"/>
-      <c r="B50" s="490"/>
-      <c r="C50" s="490"/>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="488"/>
+      <c r="B48" s="489"/>
+      <c r="C48" s="489"/>
+      <c r="D48" s="489"/>
+      <c r="E48" s="489"/>
+      <c r="F48" s="489"/>
+      <c r="G48" s="490"/>
+      <c r="H48" s="489"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="488"/>
+      <c r="B49" s="489"/>
+      <c r="C49" s="489"/>
+      <c r="D49" s="489"/>
+      <c r="E49" s="489"/>
+      <c r="F49" s="489"/>
+      <c r="G49" s="490"/>
+      <c r="H49" s="489"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="488"/>
+      <c r="B50" s="489"/>
+      <c r="C50" s="489"/>
       <c r="D50" s="399"/>
       <c r="E50" s="399"/>
-      <c r="F50" s="490"/>
-      <c r="G50" s="491"/>
-      <c r="H50" s="490"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F50" s="489"/>
+      <c r="G50" s="490"/>
+      <c r="H50" s="489"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="399"/>
-      <c r="B51" s="493"/>
-      <c r="C51" s="493"/>
-      <c r="D51" s="494"/>
-      <c r="E51" s="486"/>
+      <c r="B51" s="507"/>
+      <c r="C51" s="507"/>
+      <c r="D51" s="508"/>
+      <c r="E51" s="485"/>
       <c r="F51" s="399"/>
       <c r="G51" s="399"/>
       <c r="H51" s="399"/>
       <c r="I51" s="399"/>
       <c r="J51" s="399"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="488"/>
-      <c r="B52" s="488"/>
-      <c r="C52" s="488"/>
-      <c r="D52" s="488"/>
-      <c r="E52" s="488"/>
-      <c r="F52" s="488"/>
-      <c r="G52" s="488"/>
-      <c r="H52" s="488"/>
-      <c r="I52" s="495"/>
-      <c r="J52" s="496"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="489"/>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="487"/>
+      <c r="B52" s="487"/>
+      <c r="C52" s="487"/>
+      <c r="D52" s="487"/>
+      <c r="E52" s="487"/>
+      <c r="F52" s="487"/>
+      <c r="G52" s="487"/>
+      <c r="H52" s="487"/>
+      <c r="I52" s="499"/>
+      <c r="J52" s="500"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="488"/>
       <c r="B53" s="399"/>
       <c r="C53" s="399"/>
       <c r="D53" s="399"/>
       <c r="E53" s="399"/>
-      <c r="F53" s="491"/>
-      <c r="G53" s="491"/>
-      <c r="H53" s="490"/>
-      <c r="I53" s="497"/>
-      <c r="J53" s="497"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="489"/>
+      <c r="F53" s="490"/>
+      <c r="G53" s="490"/>
+      <c r="H53" s="489"/>
+      <c r="I53" s="509"/>
+      <c r="J53" s="509"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="488"/>
       <c r="B54" s="399"/>
       <c r="C54" s="399"/>
       <c r="D54" s="450"/>
@@ -7333,10 +7615,10 @@
       <c r="F54" s="450"/>
       <c r="G54" s="450"/>
       <c r="H54" s="450"/>
-      <c r="I54" s="497"/>
-      <c r="J54" s="497"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I54" s="509"/>
+      <c r="J54" s="509"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="399"/>
       <c r="B55" s="399"/>
       <c r="C55" s="399"/>
@@ -7346,13 +7628,13 @@
       <c r="G55" s="399"/>
       <c r="H55" s="399"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="495"/>
-      <c r="C60" s="496"/>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="495"/>
-      <c r="C67" s="496"/>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B60" s="499"/>
+      <c r="C60" s="500"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67" s="499"/>
+      <c r="C67" s="500"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -7378,7 +7660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -7388,20 +7670,20 @@
       <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="171" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="171" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="171" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="171" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="171" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="171" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="171" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="171" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="171" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="171" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="171" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="171" customWidth="1"/>
     <col min="8" max="18" width="9" style="171" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="171" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="171"/>
+    <col min="19" max="19" width="1.42578125" style="171" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="171"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="167"/>
       <c r="B1" s="168"/>
       <c r="C1" s="169"/>
@@ -7422,49 +7704,49 @@
       <c r="R1" s="169"/>
       <c r="S1" s="170"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="172"/>
-      <c r="B2" s="604"/>
-      <c r="C2" s="605"/>
-      <c r="D2" s="606"/>
-      <c r="E2" s="613" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="614"/>
-      <c r="G2" s="614"/>
-      <c r="H2" s="615"/>
-      <c r="I2" s="619" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="620"/>
-      <c r="K2" s="623">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="L2" s="624"/>
+      <c r="L2" s="623"/>
       <c r="M2" s="173"/>
       <c r="N2" s="174"/>
       <c r="O2" s="175"/>
-      <c r="P2" s="635"/>
-      <c r="Q2" s="635"/>
+      <c r="P2" s="641"/>
+      <c r="Q2" s="641"/>
       <c r="R2" s="176"/>
       <c r="S2" s="177"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="172"/>
-      <c r="B3" s="607"/>
-      <c r="C3" s="608"/>
-      <c r="D3" s="609"/>
-      <c r="E3" s="616" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="617"/>
-      <c r="G3" s="617"/>
-      <c r="H3" s="618"/>
-      <c r="I3" s="621"/>
-      <c r="J3" s="622"/>
-      <c r="K3" s="625"/>
-      <c r="L3" s="626"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
       <c r="M3" s="178"/>
       <c r="N3" s="179"/>
       <c r="O3" s="179"/>
@@ -7473,11 +7755,11 @@
       <c r="R3" s="180"/>
       <c r="S3" s="177"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="172"/>
-      <c r="B4" s="610"/>
-      <c r="C4" s="611"/>
-      <c r="D4" s="612"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -7494,24 +7776,24 @@
       <c r="R4" s="180"/>
       <c r="S4" s="177"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="172"/>
-      <c r="B5" s="558" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="597"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="626"/>
+      <c r="D5" s="522" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="598"/>
-      <c r="J5" s="599"/>
-      <c r="K5" s="600"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="523"/>
+      <c r="F5" s="523"/>
+      <c r="G5" s="523"/>
+      <c r="H5" s="524"/>
+      <c r="I5" s="627"/>
+      <c r="J5" s="628"/>
+      <c r="K5" s="629"/>
+      <c r="L5" s="524"/>
       <c r="M5" s="181"/>
       <c r="N5" s="179"/>
       <c r="O5" s="179"/>
@@ -7520,24 +7802,24 @@
       <c r="R5" s="180"/>
       <c r="S5" s="177"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="172"/>
-      <c r="B6" s="558" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="597"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="626"/>
+      <c r="D6" s="516" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="563"/>
-      <c r="F6" s="563"/>
-      <c r="G6" s="563"/>
-      <c r="H6" s="564"/>
-      <c r="I6" s="598"/>
-      <c r="J6" s="599"/>
-      <c r="K6" s="600"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="627"/>
+      <c r="J6" s="628"/>
+      <c r="K6" s="629"/>
+      <c r="L6" s="524"/>
       <c r="M6" s="178"/>
       <c r="N6" s="179"/>
       <c r="O6" s="179"/>
@@ -7546,29 +7828,29 @@
       <c r="R6" s="180"/>
       <c r="S6" s="177"/>
     </row>
-    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="172"/>
-      <c r="B7" s="565" t="s">
+      <c r="B7" s="595" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="601"/>
-      <c r="D7" s="514">
+      <c r="C7" s="630"/>
+      <c r="D7" s="525">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="567"/>
-      <c r="F7" s="567"/>
-      <c r="G7" s="567"/>
-      <c r="H7" s="568"/>
-      <c r="I7" s="602" t="s">
+      <c r="E7" s="597"/>
+      <c r="F7" s="597"/>
+      <c r="G7" s="597"/>
+      <c r="H7" s="598"/>
+      <c r="I7" s="631" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="601"/>
-      <c r="K7" s="520">
+      <c r="J7" s="630"/>
+      <c r="K7" s="513">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="521"/>
+      <c r="L7" s="514"/>
       <c r="M7" s="181"/>
       <c r="N7" s="179"/>
       <c r="O7" s="179"/>
@@ -7577,7 +7859,7 @@
       <c r="R7" s="180"/>
       <c r="S7" s="177"/>
     </row>
-    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="182"/>
       <c r="B8" s="183"/>
       <c r="C8" s="184"/>
@@ -7598,7 +7880,7 @@
       <c r="R8" s="187"/>
       <c r="S8" s="188"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="189"/>
       <c r="B9" s="256" t="s">
         <v>17</v>
@@ -7631,7 +7913,7 @@
       <c r="R9" s="349"/>
       <c r="S9" s="204"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="182"/>
       <c r="B10" s="191" t="s">
         <v>25</v>
@@ -7666,7 +7948,7 @@
       <c r="R10" s="351"/>
       <c r="S10" s="188"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="182"/>
       <c r="B11" s="193" t="s">
         <v>26</v>
@@ -7699,7 +7981,7 @@
       <c r="R11" s="353"/>
       <c r="S11" s="188"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="182"/>
       <c r="B12" s="193" t="s">
         <v>2</v>
@@ -7732,7 +8014,7 @@
       <c r="R12" s="353"/>
       <c r="S12" s="188"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="182"/>
       <c r="B13" s="193" t="s">
         <v>3</v>
@@ -7765,7 +8047,7 @@
       <c r="R13" s="353"/>
       <c r="S13" s="188"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="182"/>
       <c r="B14" s="193" t="s">
         <v>27</v>
@@ -7798,7 +8080,7 @@
       <c r="R14" s="353"/>
       <c r="S14" s="188"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="182"/>
       <c r="B15" s="193" t="s">
         <v>28</v>
@@ -7831,7 +8113,7 @@
       <c r="R15" s="353"/>
       <c r="S15" s="188"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="182"/>
       <c r="B16" s="193" t="s">
         <v>4</v>
@@ -7864,7 +8146,7 @@
       <c r="R16" s="353"/>
       <c r="S16" s="188"/>
     </row>
-    <row r="17" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A17" s="182"/>
       <c r="B17" s="193" t="s">
         <v>9</v>
@@ -7897,7 +8179,7 @@
       <c r="R17" s="353"/>
       <c r="S17" s="188"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="182"/>
       <c r="B18" s="193" t="s">
         <v>5</v>
@@ -7930,7 +8212,7 @@
       <c r="R18" s="353"/>
       <c r="S18" s="188"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="195"/>
       <c r="B19" s="196"/>
       <c r="C19" s="196"/>
@@ -7951,9 +8233,20 @@
       <c r="R19" s="196"/>
       <c r="S19" s="198"/>
     </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -7961,17 +8254,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
@@ -7991,7 +8273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -8001,20 +8283,20 @@
       <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="210" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="210" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="210" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="210" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="210" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="210" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="210" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="210" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="210" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="210" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="210" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="210" customWidth="1"/>
     <col min="8" max="18" width="9" style="210" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="210" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="210"/>
+    <col min="19" max="19" width="1.42578125" style="210" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="210"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="206"/>
       <c r="B1" s="207"/>
       <c r="C1" s="208"/>
@@ -8035,49 +8317,49 @@
       <c r="R1" s="208"/>
       <c r="S1" s="209"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="211"/>
-      <c r="B2" s="604"/>
-      <c r="C2" s="605"/>
-      <c r="D2" s="606"/>
-      <c r="E2" s="613" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="614"/>
-      <c r="G2" s="614"/>
-      <c r="H2" s="615"/>
-      <c r="I2" s="619" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="620"/>
-      <c r="K2" s="623">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="624"/>
+      <c r="L2" s="623"/>
       <c r="M2" s="212"/>
       <c r="N2" s="213"/>
       <c r="O2" s="214"/>
-      <c r="P2" s="639"/>
-      <c r="Q2" s="639"/>
+      <c r="P2" s="642"/>
+      <c r="Q2" s="642"/>
       <c r="R2" s="215"/>
       <c r="S2" s="216"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="211"/>
-      <c r="B3" s="607"/>
-      <c r="C3" s="608"/>
-      <c r="D3" s="609"/>
-      <c r="E3" s="616" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="617"/>
-      <c r="G3" s="617"/>
-      <c r="H3" s="618"/>
-      <c r="I3" s="621"/>
-      <c r="J3" s="622"/>
-      <c r="K3" s="625"/>
-      <c r="L3" s="626"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
       <c r="M3" s="217"/>
       <c r="N3" s="218"/>
       <c r="O3" s="218"/>
@@ -8086,11 +8368,11 @@
       <c r="R3" s="219"/>
       <c r="S3" s="216"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="211"/>
-      <c r="B4" s="610"/>
-      <c r="C4" s="611"/>
-      <c r="D4" s="612"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -8107,24 +8389,24 @@
       <c r="R4" s="219"/>
       <c r="S4" s="216"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="211"/>
-      <c r="B5" s="558" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="597"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="626"/>
+      <c r="D5" s="522" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="598"/>
-      <c r="J5" s="599"/>
-      <c r="K5" s="600"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="523"/>
+      <c r="F5" s="523"/>
+      <c r="G5" s="523"/>
+      <c r="H5" s="524"/>
+      <c r="I5" s="627"/>
+      <c r="J5" s="628"/>
+      <c r="K5" s="629"/>
+      <c r="L5" s="524"/>
       <c r="M5" s="220"/>
       <c r="N5" s="218"/>
       <c r="O5" s="218"/>
@@ -8133,24 +8415,24 @@
       <c r="R5" s="219"/>
       <c r="S5" s="216"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="211"/>
-      <c r="B6" s="558" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="597"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="626"/>
+      <c r="D6" s="516" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="563"/>
-      <c r="F6" s="563"/>
-      <c r="G6" s="563"/>
-      <c r="H6" s="564"/>
-      <c r="I6" s="598"/>
-      <c r="J6" s="599"/>
-      <c r="K6" s="600"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="627"/>
+      <c r="J6" s="628"/>
+      <c r="K6" s="629"/>
+      <c r="L6" s="524"/>
       <c r="M6" s="217"/>
       <c r="N6" s="218"/>
       <c r="O6" s="218"/>
@@ -8159,29 +8441,29 @@
       <c r="R6" s="219"/>
       <c r="S6" s="216"/>
     </row>
-    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="211"/>
-      <c r="B7" s="565" t="s">
+      <c r="B7" s="595" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="601"/>
-      <c r="D7" s="514">
+      <c r="C7" s="630"/>
+      <c r="D7" s="525">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="567"/>
-      <c r="F7" s="567"/>
-      <c r="G7" s="567"/>
-      <c r="H7" s="568"/>
-      <c r="I7" s="602" t="s">
+      <c r="E7" s="597"/>
+      <c r="F7" s="597"/>
+      <c r="G7" s="597"/>
+      <c r="H7" s="598"/>
+      <c r="I7" s="631" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="601"/>
-      <c r="K7" s="520">
+      <c r="J7" s="630"/>
+      <c r="K7" s="513">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="521"/>
+      <c r="L7" s="514"/>
       <c r="M7" s="220"/>
       <c r="N7" s="218"/>
       <c r="O7" s="218"/>
@@ -8190,7 +8472,7 @@
       <c r="R7" s="219"/>
       <c r="S7" s="216"/>
     </row>
-    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="221"/>
       <c r="B8" s="222"/>
       <c r="C8" s="223"/>
@@ -8211,7 +8493,7 @@
       <c r="R8" s="226"/>
       <c r="S8" s="227"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="228"/>
       <c r="B9" s="256" t="s">
         <v>17</v>
@@ -8244,7 +8526,7 @@
       <c r="R9" s="230"/>
       <c r="S9" s="231"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="221"/>
       <c r="B10" s="232" t="s">
         <v>25</v>
@@ -8277,7 +8559,7 @@
       <c r="R10" s="236"/>
       <c r="S10" s="227"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="221"/>
       <c r="B11" s="237" t="s">
         <v>26</v>
@@ -8310,7 +8592,7 @@
       <c r="R11" s="241"/>
       <c r="S11" s="227"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="221"/>
       <c r="B12" s="237" t="s">
         <v>2</v>
@@ -8343,7 +8625,7 @@
       <c r="R12" s="241"/>
       <c r="S12" s="227"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="221"/>
       <c r="B13" s="237" t="s">
         <v>3</v>
@@ -8376,7 +8658,7 @@
       <c r="R13" s="241"/>
       <c r="S13" s="227"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="221"/>
       <c r="B14" s="237" t="s">
         <v>27</v>
@@ -8409,7 +8691,7 @@
       <c r="R14" s="241"/>
       <c r="S14" s="227"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="221"/>
       <c r="B15" s="237" t="s">
         <v>28</v>
@@ -8442,7 +8724,7 @@
       <c r="R15" s="241"/>
       <c r="S15" s="227"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="221"/>
       <c r="B16" s="237" t="s">
         <v>9</v>
@@ -8475,7 +8757,7 @@
       <c r="R16" s="241"/>
       <c r="S16" s="227"/>
     </row>
-    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="221"/>
       <c r="B17" s="237" t="s">
         <v>5</v>
@@ -8508,14 +8790,14 @@
       <c r="R17" s="241"/>
       <c r="S17" s="227"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="221"/>
-      <c r="B18" s="636" t="s">
+      <c r="B18" s="643" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="637"/>
-      <c r="D18" s="637"/>
-      <c r="E18" s="638"/>
+      <c r="C18" s="644"/>
+      <c r="D18" s="644"/>
+      <c r="E18" s="645"/>
       <c r="F18" s="118" t="s">
         <v>16</v>
       </c>
@@ -8535,7 +8817,7 @@
       <c r="R18" s="245"/>
       <c r="S18" s="227"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="246"/>
       <c r="B19" s="247"/>
       <c r="C19" s="247"/>
@@ -8556,17 +8838,9 @@
       <c r="R19" s="247"/>
       <c r="S19" s="249"/>
     </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
@@ -8578,6 +8852,14 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8617,7 +8899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -8627,20 +8909,20 @@
       <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -8661,49 +8943,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="135"/>
-      <c r="B2" s="604"/>
-      <c r="C2" s="605"/>
-      <c r="D2" s="606"/>
-      <c r="E2" s="613" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="614"/>
-      <c r="G2" s="614"/>
-      <c r="H2" s="615"/>
-      <c r="I2" s="619" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="620"/>
-      <c r="K2" s="623">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="L2" s="624"/>
+      <c r="L2" s="623"/>
       <c r="M2" s="136"/>
       <c r="N2" s="137"/>
       <c r="O2" s="138"/>
-      <c r="P2" s="640"/>
-      <c r="Q2" s="640"/>
+      <c r="P2" s="646"/>
+      <c r="Q2" s="646"/>
       <c r="R2" s="139"/>
       <c r="S2" s="140"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="135"/>
-      <c r="B3" s="607"/>
-      <c r="C3" s="608"/>
-      <c r="D3" s="609"/>
-      <c r="E3" s="616" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="617"/>
-      <c r="G3" s="617"/>
-      <c r="H3" s="618"/>
-      <c r="I3" s="621"/>
-      <c r="J3" s="622"/>
-      <c r="K3" s="625"/>
-      <c r="L3" s="626"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
       <c r="M3" s="141"/>
       <c r="N3" s="142"/>
       <c r="O3" s="142"/>
@@ -8712,11 +8994,11 @@
       <c r="R3" s="143"/>
       <c r="S3" s="140"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="135"/>
-      <c r="B4" s="610"/>
-      <c r="C4" s="611"/>
-      <c r="D4" s="612"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -8733,24 +9015,24 @@
       <c r="R4" s="143"/>
       <c r="S4" s="140"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="135"/>
-      <c r="B5" s="558" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="597"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="626"/>
+      <c r="D5" s="522" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="598"/>
-      <c r="J5" s="599"/>
-      <c r="K5" s="600"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="523"/>
+      <c r="F5" s="523"/>
+      <c r="G5" s="523"/>
+      <c r="H5" s="524"/>
+      <c r="I5" s="627"/>
+      <c r="J5" s="628"/>
+      <c r="K5" s="629"/>
+      <c r="L5" s="524"/>
       <c r="M5" s="144"/>
       <c r="N5" s="142"/>
       <c r="O5" s="142"/>
@@ -8759,24 +9041,24 @@
       <c r="R5" s="143"/>
       <c r="S5" s="140"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="135"/>
-      <c r="B6" s="558" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="597"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="626"/>
+      <c r="D6" s="516" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="563"/>
-      <c r="F6" s="563"/>
-      <c r="G6" s="563"/>
-      <c r="H6" s="564"/>
-      <c r="I6" s="598"/>
-      <c r="J6" s="599"/>
-      <c r="K6" s="600"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="627"/>
+      <c r="J6" s="628"/>
+      <c r="K6" s="629"/>
+      <c r="L6" s="524"/>
       <c r="M6" s="141"/>
       <c r="N6" s="142"/>
       <c r="O6" s="142"/>
@@ -8785,29 +9067,29 @@
       <c r="R6" s="143"/>
       <c r="S6" s="140"/>
     </row>
-    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="135"/>
-      <c r="B7" s="565" t="s">
+      <c r="B7" s="595" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="601"/>
-      <c r="D7" s="514">
+      <c r="C7" s="630"/>
+      <c r="D7" s="525">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="567"/>
-      <c r="F7" s="567"/>
-      <c r="G7" s="567"/>
-      <c r="H7" s="568"/>
-      <c r="I7" s="602" t="s">
+      <c r="E7" s="597"/>
+      <c r="F7" s="597"/>
+      <c r="G7" s="597"/>
+      <c r="H7" s="598"/>
+      <c r="I7" s="631" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="601"/>
-      <c r="K7" s="520">
+      <c r="J7" s="630"/>
+      <c r="K7" s="513">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="521"/>
+      <c r="L7" s="514"/>
       <c r="M7" s="144"/>
       <c r="N7" s="142"/>
       <c r="O7" s="142"/>
@@ -8816,7 +9098,7 @@
       <c r="R7" s="143"/>
       <c r="S7" s="140"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="145"/>
       <c r="C8" s="146"/>
@@ -8837,7 +9119,7 @@
       <c r="R8" s="149"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="150"/>
       <c r="B9" s="256" t="s">
         <v>17</v>
@@ -8870,7 +9152,7 @@
       <c r="R9" s="153"/>
       <c r="S9" s="154"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="155"/>
       <c r="B10" s="156" t="s">
         <v>25</v>
@@ -8903,7 +9185,7 @@
       <c r="R10" s="158"/>
       <c r="S10" s="159"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="155"/>
       <c r="B11" s="156" t="s">
         <v>26</v>
@@ -8936,7 +9218,7 @@
       <c r="R11" s="158"/>
       <c r="S11" s="159"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="155"/>
       <c r="B12" s="156" t="s">
         <v>2</v>
@@ -8969,7 +9251,7 @@
       <c r="R12" s="158"/>
       <c r="S12" s="159"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="155"/>
       <c r="B13" s="156" t="s">
         <v>3</v>
@@ -9002,7 +9284,7 @@
       <c r="R13" s="158"/>
       <c r="S13" s="159"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="155"/>
       <c r="B14" s="156" t="s">
         <v>27</v>
@@ -9035,7 +9317,7 @@
       <c r="R14" s="158"/>
       <c r="S14" s="159"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="155"/>
       <c r="B15" s="156" t="s">
         <v>28</v>
@@ -9068,7 +9350,7 @@
       <c r="R15" s="158"/>
       <c r="S15" s="159"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="155"/>
       <c r="B16" s="156" t="s">
         <v>4</v>
@@ -9101,7 +9383,7 @@
       <c r="R16" s="158"/>
       <c r="S16" s="159"/>
     </row>
-    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="97"/>
       <c r="C17" s="98"/>
@@ -9122,7 +9404,7 @@
       <c r="R17" s="100"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="97"/>
       <c r="C18" s="98"/>
@@ -9143,7 +9425,7 @@
       <c r="R18" s="100"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="78"/>
       <c r="B19" s="105"/>
       <c r="C19" s="106"/>
@@ -9164,7 +9446,7 @@
       <c r="R19" s="111"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="112"/>
       <c r="B20" s="113"/>
       <c r="C20" s="113"/>
@@ -9185,9 +9467,20 @@
       <c r="R20" s="115"/>
       <c r="S20" s="116"/>
     </row>
-    <row r="21" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -9195,17 +9488,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -9225,7 +9507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -9235,20 +9517,20 @@
       <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="267" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="267" customWidth="1"/>
     <col min="2" max="2" width="5" style="267" customWidth="1"/>
     <col min="3" max="3" width="11" style="267" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="267" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="267" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="267" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="267" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="267" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="267" customWidth="1"/>
     <col min="8" max="18" width="9" style="267" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="267" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="267"/>
+    <col min="19" max="19" width="1.42578125" style="267" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="267"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="263"/>
       <c r="B1" s="264"/>
       <c r="C1" s="265"/>
@@ -9269,49 +9551,49 @@
       <c r="R1" s="265"/>
       <c r="S1" s="266"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="268"/>
-      <c r="B2" s="604"/>
-      <c r="C2" s="605"/>
-      <c r="D2" s="606"/>
-      <c r="E2" s="613" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="614"/>
-      <c r="G2" s="614"/>
-      <c r="H2" s="615"/>
-      <c r="I2" s="619" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="620"/>
-      <c r="K2" s="642">
+      <c r="J2" s="619"/>
+      <c r="K2" s="648">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="L2" s="643"/>
+      <c r="L2" s="649"/>
       <c r="M2" s="269"/>
       <c r="N2" s="270"/>
       <c r="O2" s="271"/>
-      <c r="P2" s="641"/>
-      <c r="Q2" s="641"/>
+      <c r="P2" s="647"/>
+      <c r="Q2" s="647"/>
       <c r="R2" s="272"/>
       <c r="S2" s="273"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="268"/>
-      <c r="B3" s="607"/>
-      <c r="C3" s="608"/>
-      <c r="D3" s="609"/>
-      <c r="E3" s="616" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="617"/>
-      <c r="G3" s="617"/>
-      <c r="H3" s="618"/>
-      <c r="I3" s="621"/>
-      <c r="J3" s="622"/>
-      <c r="K3" s="644"/>
-      <c r="L3" s="645"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="650"/>
+      <c r="L3" s="651"/>
       <c r="M3" s="274"/>
       <c r="N3" s="275"/>
       <c r="O3" s="275"/>
@@ -9320,11 +9602,11 @@
       <c r="R3" s="276"/>
       <c r="S3" s="273"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="268"/>
-      <c r="B4" s="610"/>
-      <c r="C4" s="611"/>
-      <c r="D4" s="612"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -9341,24 +9623,24 @@
       <c r="R4" s="276"/>
       <c r="S4" s="273"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="268"/>
-      <c r="B5" s="558" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="597"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="626"/>
+      <c r="D5" s="522" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="598"/>
-      <c r="J5" s="599"/>
-      <c r="K5" s="600"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="523"/>
+      <c r="F5" s="523"/>
+      <c r="G5" s="523"/>
+      <c r="H5" s="524"/>
+      <c r="I5" s="627"/>
+      <c r="J5" s="628"/>
+      <c r="K5" s="629"/>
+      <c r="L5" s="524"/>
       <c r="M5" s="277"/>
       <c r="N5" s="275"/>
       <c r="O5" s="275"/>
@@ -9367,24 +9649,24 @@
       <c r="R5" s="276"/>
       <c r="S5" s="273"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="268"/>
-      <c r="B6" s="558" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="597"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="626"/>
+      <c r="D6" s="516" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="563"/>
-      <c r="F6" s="563"/>
-      <c r="G6" s="563"/>
-      <c r="H6" s="564"/>
-      <c r="I6" s="598"/>
-      <c r="J6" s="599"/>
-      <c r="K6" s="600"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="627"/>
+      <c r="J6" s="628"/>
+      <c r="K6" s="629"/>
+      <c r="L6" s="524"/>
       <c r="M6" s="274"/>
       <c r="N6" s="275"/>
       <c r="O6" s="275"/>
@@ -9393,29 +9675,29 @@
       <c r="R6" s="276"/>
       <c r="S6" s="273"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="268"/>
-      <c r="B7" s="565" t="s">
+      <c r="B7" s="595" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="601"/>
-      <c r="D7" s="514">
+      <c r="C7" s="630"/>
+      <c r="D7" s="525">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="567"/>
-      <c r="F7" s="567"/>
-      <c r="G7" s="567"/>
-      <c r="H7" s="568"/>
-      <c r="I7" s="602" t="s">
+      <c r="E7" s="597"/>
+      <c r="F7" s="597"/>
+      <c r="G7" s="597"/>
+      <c r="H7" s="598"/>
+      <c r="I7" s="631" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="601"/>
-      <c r="K7" s="520">
+      <c r="J7" s="630"/>
+      <c r="K7" s="513">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="521"/>
+      <c r="L7" s="514"/>
       <c r="M7" s="277"/>
       <c r="N7" s="275"/>
       <c r="O7" s="275"/>
@@ -9424,7 +9706,7 @@
       <c r="R7" s="276"/>
       <c r="S7" s="273"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="278"/>
       <c r="B8" s="279"/>
       <c r="C8" s="280"/>
@@ -9445,7 +9727,7 @@
       <c r="R8" s="283"/>
       <c r="S8" s="284"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="285"/>
       <c r="B9" s="256" t="s">
         <v>17</v>
@@ -9478,7 +9760,7 @@
       <c r="R9" s="355"/>
       <c r="S9" s="287"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="278"/>
       <c r="B10" s="288" t="s">
         <v>25</v>
@@ -9511,7 +9793,7 @@
       <c r="R10" s="357"/>
       <c r="S10" s="284"/>
     </row>
-    <row r="11" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A11" s="278"/>
       <c r="B11" s="292" t="s">
         <v>26</v>
@@ -9544,7 +9826,7 @@
       <c r="R11" s="358"/>
       <c r="S11" s="284"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="278"/>
       <c r="B12" s="292" t="s">
         <v>2</v>
@@ -9577,7 +9859,7 @@
       <c r="R12" s="360"/>
       <c r="S12" s="284"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="278"/>
       <c r="B13" s="292" t="s">
         <v>28</v>
@@ -9610,7 +9892,7 @@
       <c r="R13" s="360"/>
       <c r="S13" s="284"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="278"/>
       <c r="B14" s="292" t="s">
         <v>4</v>
@@ -9643,7 +9925,7 @@
       <c r="R14" s="360"/>
       <c r="S14" s="284"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="278"/>
       <c r="B15" s="298"/>
       <c r="C15" s="299"/>
@@ -9664,7 +9946,7 @@
       <c r="R15" s="342"/>
       <c r="S15" s="284"/>
     </row>
-    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="301"/>
       <c r="B16" s="302"/>
       <c r="C16" s="302"/>
@@ -9685,9 +9967,11 @@
       <c r="R16" s="302"/>
       <c r="S16" s="304"/>
     </row>
-    <row r="17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B2:D4"/>
@@ -9704,8 +9988,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9731,90 +10013,90 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="504" t="s">
+    <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="515" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="508"/>
-      <c r="C1" s="508"/>
-      <c r="D1" s="508"/>
-      <c r="E1" s="508"/>
+      <c r="B1" s="519"/>
+      <c r="C1" s="519"/>
+      <c r="D1" s="519"/>
+      <c r="E1" s="519"/>
       <c r="G1" s="374" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="505" t="s">
+    <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="516" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="506"/>
-      <c r="C2" s="506"/>
-      <c r="D2" s="506"/>
-      <c r="E2" s="507"/>
+      <c r="B2" s="517"/>
+      <c r="C2" s="517"/>
+      <c r="D2" s="517"/>
+      <c r="E2" s="518"/>
       <c r="G2" s="373" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="G3" s="373" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="509" t="s">
+    <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="520" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="510"/>
-      <c r="C4" s="510"/>
-      <c r="D4" s="510"/>
-      <c r="E4" s="510"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="511" t="s">
+      <c r="B4" s="521"/>
+      <c r="C4" s="521"/>
+      <c r="D4" s="521"/>
+      <c r="E4" s="521"/>
+    </row>
+    <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="522" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="512"/>
-      <c r="C5" s="512"/>
-      <c r="D5" s="512"/>
-      <c r="E5" s="513"/>
-    </row>
-    <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="504" t="s">
+      <c r="B5" s="523"/>
+      <c r="C5" s="523"/>
+      <c r="D5" s="523"/>
+      <c r="E5" s="524"/>
+    </row>
+    <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="515" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="508"/>
-      <c r="C7" s="508"/>
-      <c r="D7" s="508"/>
-      <c r="E7" s="508"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="514"/>
-      <c r="B8" s="515"/>
-      <c r="C8" s="515"/>
-      <c r="D8" s="515"/>
-      <c r="E8" s="516"/>
-    </row>
-    <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="504" t="s">
+      <c r="B7" s="519"/>
+      <c r="C7" s="519"/>
+      <c r="D7" s="519"/>
+      <c r="E7" s="519"/>
+    </row>
+    <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="525"/>
+      <c r="B8" s="526"/>
+      <c r="C8" s="526"/>
+      <c r="D8" s="526"/>
+      <c r="E8" s="527"/>
+    </row>
+    <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="515" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="504"/>
+      <c r="B10" s="515"/>
       <c r="C10" s="375"/>
       <c r="D10" s="383" t="s">
         <v>95</v>
@@ -9824,36 +10106,36 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="520"/>
-      <c r="B11" s="521"/>
+    <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="513"/>
+      <c r="B11" s="514"/>
       <c r="D11" s="382">
         <v>43741</v>
       </c>
-      <c r="F11" s="518" t="s">
+      <c r="F11" s="511" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="518"/>
-      <c r="H11" s="518"/>
-      <c r="I11" s="518"/>
-      <c r="J11" s="519" t="s">
+      <c r="G11" s="511"/>
+      <c r="H11" s="511"/>
+      <c r="I11" s="511"/>
+      <c r="J11" s="512" t="s">
         <v>100</v>
       </c>
-      <c r="K11" s="519"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="518" t="s">
+      <c r="K11" s="512"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F12" s="511" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="518"/>
-      <c r="H12" s="518"/>
-      <c r="I12" s="518"/>
-      <c r="J12" s="519" t="s">
+      <c r="G12" s="511"/>
+      <c r="H12" s="511"/>
+      <c r="I12" s="511"/>
+      <c r="J12" s="512" t="s">
         <v>101</v>
       </c>
-      <c r="K12" s="519"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="512"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="376" t="s">
         <v>89</v>
       </c>
@@ -9863,18 +10145,18 @@
       <c r="C13" s="389" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="518" t="s">
+      <c r="F13" s="511" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="518"/>
-      <c r="H13" s="518"/>
-      <c r="I13" s="518"/>
-      <c r="J13" s="519" t="s">
+      <c r="G13" s="511"/>
+      <c r="H13" s="511"/>
+      <c r="I13" s="511"/>
+      <c r="J13" s="512" t="s">
         <v>102</v>
       </c>
-      <c r="K13" s="519"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="512"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="378" t="s">
         <v>44</v>
       </c>
@@ -9885,7 +10167,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="378" t="s">
         <v>45</v>
       </c>
@@ -9896,7 +10178,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="378" t="s">
         <v>38</v>
       </c>
@@ -9907,7 +10189,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="378" t="s">
         <v>23</v>
       </c>
@@ -9918,7 +10200,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="378" t="s">
         <v>48</v>
       </c>
@@ -9929,7 +10211,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="378" t="s">
         <v>91</v>
       </c>
@@ -9940,7 +10222,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="378" t="s">
         <v>52</v>
       </c>
@@ -9951,7 +10233,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="378" t="s">
         <v>54</v>
       </c>
@@ -9962,7 +10244,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="378" t="s">
         <v>92</v>
       </c>
@@ -9971,7 +10253,7 @@
       </c>
       <c r="C22" s="385"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="378" t="s">
         <v>57</v>
       </c>
@@ -9982,7 +10264,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="378" t="s">
         <v>71</v>
       </c>
@@ -9993,7 +10275,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="378" t="s">
         <v>93</v>
       </c>
@@ -10002,7 +10284,7 @@
       </c>
       <c r="C25" s="385"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="380" t="s">
         <v>56</v>
       </c>
@@ -10013,7 +10295,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="380" t="s">
         <v>107</v>
       </c>
@@ -10022,23 +10304,30 @@
       </c>
       <c r="C27" s="390"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="384"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="517" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="510" t="s">
         <v>122</v>
       </c>
-      <c r="B29" s="517"/>
-      <c r="C29" s="517"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="510"/>
+      <c r="C29" s="510"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A7:E7"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="F12:I12"/>
@@ -10047,13 +10336,6 @@
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -10061,23 +10343,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:K46"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A12" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E26" sqref="E26:F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="9.109375" style="309"/>
-    <col min="7" max="7" width="9.109375" style="309" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" style="309" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="309" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="309"/>
+    <col min="1" max="6" width="9.140625" style="309"/>
+    <col min="7" max="7" width="9.140625" style="309" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="309" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="309" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="309"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="370" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="370" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G2" s="319" t="s">
         <v>59</v>
       </c>
@@ -10086,7 +10368,7 @@
       <c r="J2" s="320"/>
       <c r="K2" s="320"/>
     </row>
-    <row r="3" spans="1:11" s="370" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="370" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G3" s="319" t="s">
         <v>103</v>
       </c>
@@ -10095,7 +10377,7 @@
       <c r="J3" s="320"/>
       <c r="K3" s="320"/>
     </row>
-    <row r="4" spans="1:11" s="370" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="370" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G4" s="319" t="s">
         <v>106</v>
       </c>
@@ -10104,8 +10386,8 @@
       <c r="J4" s="320"/>
       <c r="K4" s="320"/>
     </row>
-    <row r="5" spans="1:11" s="370" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:11" s="370" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" s="370" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" s="370" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G6" s="371"/>
       <c r="H6" s="319" t="s">
         <v>104</v>
@@ -10113,12 +10395,12 @@
       <c r="I6" s="320"/>
       <c r="J6" s="320"/>
     </row>
-    <row r="7" spans="1:11" s="370" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" s="370" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="H7" s="320"/>
       <c r="I7" s="320"/>
       <c r="J7" s="320"/>
     </row>
-    <row r="8" spans="1:11" s="370" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" s="370" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G8" s="312" t="s">
         <v>60</v>
       </c>
@@ -10128,50 +10410,50 @@
       <c r="I8" s="320"/>
       <c r="J8" s="320"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="528" t="s">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="559" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="528"/>
-      <c r="C11" s="528"/>
-      <c r="D11" s="528"/>
-      <c r="E11" s="528"/>
-      <c r="F11" s="528"/>
-      <c r="G11" s="528"/>
-      <c r="H11" s="528"/>
-      <c r="I11" s="528"/>
-      <c r="J11" s="528"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="527" t="s">
+      <c r="B11" s="559"/>
+      <c r="C11" s="559"/>
+      <c r="D11" s="559"/>
+      <c r="E11" s="559"/>
+      <c r="F11" s="559"/>
+      <c r="G11" s="559"/>
+      <c r="H11" s="559"/>
+      <c r="I11" s="559"/>
+      <c r="J11" s="559"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="558" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="527"/>
-      <c r="C12" s="527"/>
-      <c r="D12" s="527"/>
-      <c r="E12" s="527"/>
-      <c r="F12" s="527"/>
-      <c r="G12" s="527"/>
-      <c r="H12" s="527"/>
-      <c r="I12" s="527"/>
-      <c r="J12" s="527"/>
-    </row>
-    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="529" t="str">
+      <c r="B12" s="558"/>
+      <c r="C12" s="558"/>
+      <c r="D12" s="558"/>
+      <c r="E12" s="558"/>
+      <c r="F12" s="558"/>
+      <c r="G12" s="558"/>
+      <c r="H12" s="558"/>
+      <c r="I12" s="558"/>
+      <c r="J12" s="558"/>
+    </row>
+    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="560" t="str">
         <f>Данные!A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="B13" s="528"/>
-      <c r="C13" s="528"/>
-      <c r="D13" s="528"/>
-      <c r="E13" s="528"/>
-      <c r="F13" s="528"/>
-      <c r="G13" s="528"/>
-      <c r="H13" s="528"/>
-      <c r="I13" s="528"/>
-      <c r="J13" s="528"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="559"/>
+      <c r="C13" s="559"/>
+      <c r="D13" s="559"/>
+      <c r="E13" s="559"/>
+      <c r="F13" s="559"/>
+      <c r="G13" s="559"/>
+      <c r="H13" s="559"/>
+      <c r="I13" s="559"/>
+      <c r="J13" s="559"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="313" t="s">
         <v>61</v>
       </c>
@@ -10188,7 +10470,7 @@
       <c r="I15" s="313"/>
       <c r="J15" s="314"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="313" t="s">
         <v>97</v>
       </c>
@@ -10202,7 +10484,7 @@
       <c r="I16" s="313"/>
       <c r="J16" s="314"/>
     </row>
-    <row r="17" spans="1:10" s="372" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="372" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="322" t="s">
         <v>62</v>
       </c>
@@ -10223,7 +10505,7 @@
       </c>
       <c r="J17" s="314"/>
     </row>
-    <row r="18" spans="1:10" s="372" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="372" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="322" t="s">
         <v>62</v>
       </c>
@@ -10244,7 +10526,7 @@
       </c>
       <c r="J18" s="314"/>
     </row>
-    <row r="19" spans="1:10" s="372" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="372" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="323"/>
       <c r="B19" s="323"/>
       <c r="C19" s="323"/>
@@ -10262,7 +10544,7 @@
       </c>
       <c r="J19" s="314"/>
     </row>
-    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="313" t="s">
         <v>76</v>
       </c>
@@ -10279,7 +10561,7 @@
       </c>
       <c r="J20" s="314"/>
     </row>
-    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="313" t="s">
         <v>77</v>
       </c>
@@ -10293,328 +10575,328 @@
       <c r="I21" s="313"/>
       <c r="J21" s="314"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="533" t="s">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="548" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="533" t="s">
+      <c r="B22" s="548" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="533"/>
-      <c r="D22" s="533"/>
-      <c r="E22" s="533" t="s">
+      <c r="C22" s="548"/>
+      <c r="D22" s="548"/>
+      <c r="E22" s="548" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="533"/>
-      <c r="G22" s="534" t="s">
+      <c r="F22" s="548"/>
+      <c r="G22" s="549" t="s">
         <v>69</v>
       </c>
-      <c r="H22" s="533" t="s">
+      <c r="H22" s="548" t="s">
         <v>70</v>
       </c>
-      <c r="I22" s="533"/>
-      <c r="J22" s="533"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="533"/>
-      <c r="B23" s="533"/>
-      <c r="C23" s="533"/>
-      <c r="D23" s="533"/>
-      <c r="E23" s="533"/>
-      <c r="F23" s="533"/>
-      <c r="G23" s="534"/>
-      <c r="H23" s="533"/>
-      <c r="I23" s="533"/>
-      <c r="J23" s="533"/>
-    </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="550">
+      <c r="I22" s="548"/>
+      <c r="J22" s="548"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="548"/>
+      <c r="B23" s="548"/>
+      <c r="C23" s="548"/>
+      <c r="D23" s="548"/>
+      <c r="E23" s="548"/>
+      <c r="F23" s="548"/>
+      <c r="G23" s="549"/>
+      <c r="H23" s="548"/>
+      <c r="I23" s="548"/>
+      <c r="J23" s="548"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="543">
         <v>1</v>
       </c>
-      <c r="B24" s="552" t="s">
+      <c r="B24" s="545" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="553"/>
-      <c r="D24" s="554"/>
-      <c r="E24" s="538" t="str">
+      <c r="C24" s="546"/>
+      <c r="D24" s="547"/>
+      <c r="E24" s="531" t="str">
         <f>Данные!C14</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F24" s="539"/>
-      <c r="G24" s="542">
+      <c r="F24" s="532"/>
+      <c r="G24" s="535">
         <f>Данные!B14</f>
         <v>22</v>
       </c>
-      <c r="H24" s="544"/>
-      <c r="I24" s="545"/>
-      <c r="J24" s="546"/>
-    </row>
-    <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="551"/>
-      <c r="B25" s="535" t="str">
+      <c r="H24" s="537"/>
+      <c r="I24" s="538"/>
+      <c r="J24" s="539"/>
+    </row>
+    <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="544"/>
+      <c r="B25" s="528" t="str">
         <f>Данные!A30</f>
         <v>(к серийному формокомплекту ХХI-В-28-2.1-500-4 Ведьма)</v>
       </c>
-      <c r="C25" s="536"/>
-      <c r="D25" s="537"/>
-      <c r="E25" s="540"/>
-      <c r="F25" s="541"/>
-      <c r="G25" s="543"/>
-      <c r="H25" s="547"/>
-      <c r="I25" s="548"/>
-      <c r="J25" s="549"/>
-    </row>
-    <row r="26" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="529"/>
+      <c r="D25" s="530"/>
+      <c r="E25" s="533"/>
+      <c r="F25" s="534"/>
+      <c r="G25" s="536"/>
+      <c r="H25" s="540"/>
+      <c r="I25" s="541"/>
+      <c r="J25" s="542"/>
+    </row>
+    <row r="26" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="386">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="530" t="s">
+      <c r="B26" s="550" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="531"/>
-      <c r="D26" s="532"/>
-      <c r="E26" s="525" t="str">
+      <c r="C26" s="551"/>
+      <c r="D26" s="552"/>
+      <c r="E26" s="553" t="str">
         <f>Данные!C15</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F26" s="525"/>
+      <c r="F26" s="553"/>
       <c r="G26" s="318">
         <f>Данные!B15</f>
         <v>22</v>
       </c>
-      <c r="H26" s="526"/>
-      <c r="I26" s="526"/>
-      <c r="J26" s="526"/>
-    </row>
-    <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="554"/>
+      <c r="I26" s="554"/>
+      <c r="J26" s="554"/>
+    </row>
+    <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="386">
         <f t="shared" ref="A27:A36" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B27" s="522" t="s">
+      <c r="B27" s="555" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="523"/>
-      <c r="D27" s="524"/>
-      <c r="E27" s="525" t="str">
+      <c r="C27" s="556"/>
+      <c r="D27" s="557"/>
+      <c r="E27" s="553" t="str">
         <f>Данные!C16</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F27" s="525"/>
+      <c r="F27" s="553"/>
       <c r="G27" s="318">
         <f>Данные!B16</f>
         <v>26</v>
       </c>
-      <c r="H27" s="526"/>
-      <c r="I27" s="526"/>
-      <c r="J27" s="526"/>
-    </row>
-    <row r="28" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="554"/>
+      <c r="I27" s="554"/>
+      <c r="J27" s="554"/>
+    </row>
+    <row r="28" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="386">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B28" s="522" t="s">
+      <c r="B28" s="555" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="523"/>
-      <c r="D28" s="524"/>
-      <c r="E28" s="525" t="str">
+      <c r="C28" s="556"/>
+      <c r="D28" s="557"/>
+      <c r="E28" s="553" t="str">
         <f>Данные!C17</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F28" s="525"/>
+      <c r="F28" s="553"/>
       <c r="G28" s="318">
         <f>Данные!B17</f>
         <v>26</v>
       </c>
-      <c r="H28" s="526"/>
-      <c r="I28" s="526"/>
-      <c r="J28" s="526"/>
-    </row>
-    <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="554"/>
+      <c r="I28" s="554"/>
+      <c r="J28" s="554"/>
+    </row>
+    <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="386">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B29" s="522" t="s">
+      <c r="B29" s="555" t="s">
         <v>113</v>
       </c>
-      <c r="C29" s="523"/>
-      <c r="D29" s="524"/>
-      <c r="E29" s="525" t="str">
+      <c r="C29" s="556"/>
+      <c r="D29" s="557"/>
+      <c r="E29" s="553" t="str">
         <f>Данные!C18</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F29" s="525"/>
+      <c r="F29" s="553"/>
       <c r="G29" s="318">
         <f>Данные!B18</f>
         <v>50</v>
       </c>
-      <c r="H29" s="526"/>
-      <c r="I29" s="526"/>
-      <c r="J29" s="526"/>
-    </row>
-    <row r="30" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="554"/>
+      <c r="I29" s="554"/>
+      <c r="J29" s="554"/>
+    </row>
+    <row r="30" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="386">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B30" s="522" t="s">
+      <c r="B30" s="555" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="523"/>
-      <c r="D30" s="524"/>
-      <c r="E30" s="525" t="str">
+      <c r="C30" s="556"/>
+      <c r="D30" s="557"/>
+      <c r="E30" s="553" t="str">
         <f>Данные!C19</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F30" s="525"/>
+      <c r="F30" s="553"/>
       <c r="G30" s="318">
         <f>Данные!B19</f>
         <v>50</v>
       </c>
-      <c r="H30" s="526"/>
-      <c r="I30" s="526"/>
-      <c r="J30" s="526"/>
-    </row>
-    <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="554"/>
+      <c r="I30" s="554"/>
+      <c r="J30" s="554"/>
+    </row>
+    <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="386">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B31" s="522" t="s">
+      <c r="B31" s="555" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="523"/>
-      <c r="D31" s="524"/>
-      <c r="E31" s="525" t="str">
+      <c r="C31" s="556"/>
+      <c r="D31" s="557"/>
+      <c r="E31" s="553" t="str">
         <f>Данные!C20</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F31" s="525"/>
+      <c r="F31" s="553"/>
       <c r="G31" s="318">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="H31" s="526"/>
-      <c r="I31" s="526"/>
-      <c r="J31" s="526"/>
-    </row>
-    <row r="32" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H31" s="554"/>
+      <c r="I31" s="554"/>
+      <c r="J31" s="554"/>
+    </row>
+    <row r="32" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="386">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B32" s="522" t="s">
+      <c r="B32" s="555" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="523"/>
-      <c r="D32" s="524"/>
-      <c r="E32" s="525" t="str">
+      <c r="C32" s="556"/>
+      <c r="D32" s="557"/>
+      <c r="E32" s="553" t="str">
         <f>Данные!C21</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F32" s="525"/>
+      <c r="F32" s="553"/>
       <c r="G32" s="318">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="H32" s="526"/>
-      <c r="I32" s="526"/>
-      <c r="J32" s="526"/>
-    </row>
-    <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H32" s="554"/>
+      <c r="I32" s="554"/>
+      <c r="J32" s="554"/>
+    </row>
+    <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="386">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B33" s="522" t="s">
+      <c r="B33" s="555" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="523"/>
-      <c r="D33" s="524"/>
-      <c r="E33" s="525" t="str">
+      <c r="C33" s="556"/>
+      <c r="D33" s="557"/>
+      <c r="E33" s="553" t="str">
         <f>Данные!C23</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F33" s="525"/>
+      <c r="F33" s="553"/>
       <c r="G33" s="318">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="H33" s="526"/>
-      <c r="I33" s="526"/>
-      <c r="J33" s="526"/>
-    </row>
-    <row r="34" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="554"/>
+      <c r="I33" s="554"/>
+      <c r="J33" s="554"/>
+    </row>
+    <row r="34" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="386">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B34" s="522" t="s">
+      <c r="B34" s="555" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="523"/>
-      <c r="D34" s="524"/>
-      <c r="E34" s="525" t="str">
+      <c r="C34" s="556"/>
+      <c r="D34" s="557"/>
+      <c r="E34" s="553" t="str">
         <f>Данные!C23</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F34" s="525"/>
+      <c r="F34" s="553"/>
       <c r="G34" s="318">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="H34" s="526"/>
-      <c r="I34" s="526"/>
-      <c r="J34" s="526"/>
-    </row>
-    <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="554"/>
+      <c r="I34" s="554"/>
+      <c r="J34" s="554"/>
+    </row>
+    <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="386">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B35" s="522" t="s">
+      <c r="B35" s="555" t="s">
         <v>118</v>
       </c>
-      <c r="C35" s="523"/>
-      <c r="D35" s="524"/>
-      <c r="E35" s="525"/>
-      <c r="F35" s="525"/>
+      <c r="C35" s="556"/>
+      <c r="D35" s="557"/>
+      <c r="E35" s="553"/>
+      <c r="F35" s="553"/>
       <c r="G35" s="388">
         <f>Данные!B27</f>
         <v>18</v>
       </c>
-      <c r="H35" s="526"/>
-      <c r="I35" s="526"/>
-      <c r="J35" s="526"/>
-    </row>
-    <row r="36" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="554"/>
+      <c r="I35" s="554"/>
+      <c r="J35" s="554"/>
+    </row>
+    <row r="36" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="386">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B36" s="522" t="s">
+      <c r="B36" s="555" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="523"/>
-      <c r="D36" s="524"/>
-      <c r="E36" s="525" t="str">
+      <c r="C36" s="556"/>
+      <c r="D36" s="557"/>
+      <c r="E36" s="553" t="str">
         <f>Данные!C24</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F36" s="525"/>
+      <c r="F36" s="553"/>
       <c r="G36" s="318">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H36" s="526"/>
-      <c r="I36" s="526"/>
-      <c r="J36" s="526"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H36" s="554"/>
+      <c r="I36" s="554"/>
+      <c r="J36" s="554"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="313"/>
       <c r="B37" s="313"/>
       <c r="C37" s="313"/>
@@ -10626,7 +10908,7 @@
       <c r="I37" s="313"/>
       <c r="J37" s="314"/>
     </row>
-    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="313" t="s">
         <v>72</v>
       </c>
@@ -10640,7 +10922,7 @@
       <c r="I38" s="313"/>
       <c r="J38" s="314"/>
     </row>
-    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="313"/>
       <c r="B39" s="313"/>
       <c r="C39" s="313"/>
@@ -10652,7 +10934,7 @@
       <c r="I39" s="313"/>
       <c r="J39" s="314"/>
     </row>
-    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="313"/>
       <c r="B40" s="316" t="s">
         <v>73</v>
@@ -10668,7 +10950,7 @@
       <c r="I40" s="313"/>
       <c r="J40" s="314"/>
     </row>
-    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="313"/>
       <c r="B41" s="313"/>
       <c r="C41" s="313"/>
@@ -10680,7 +10962,7 @@
       <c r="I41" s="313"/>
       <c r="J41" s="314"/>
     </row>
-    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="313"/>
       <c r="B42" s="313"/>
       <c r="C42" s="313"/>
@@ -10694,7 +10976,7 @@
       </c>
       <c r="J42" s="313"/>
     </row>
-    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="313"/>
       <c r="B43" s="313"/>
       <c r="C43" s="313"/>
@@ -10705,7 +10987,7 @@
       <c r="I43" s="313"/>
       <c r="J43" s="313"/>
     </row>
-    <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="313"/>
       <c r="B44" s="313"/>
       <c r="C44" s="313"/>
@@ -10718,14 +11000,14 @@
         <v>Д.Е. Серков</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="310"/>
       <c r="B45" s="310"/>
       <c r="C45" s="310"/>
       <c r="D45" s="310"/>
       <c r="E45" s="310"/>
     </row>
-    <row r="46" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="310"/>
       <c r="B46" s="310"/>
       <c r="C46" s="310"/>
@@ -10741,31 +11023,12 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:J25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:J23"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="H36:J36"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -10782,12 +11045,31 @@
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="H30:J30"/>
     <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:J23"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:D24"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10796,7 +11078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -10806,20 +11088,20 @@
       <selection pane="bottomRight" activeCell="B25" sqref="B25:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
     <col min="2" max="2" width="5" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="0.85546875" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -10840,49 +11122,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="573"/>
-      <c r="C2" s="574"/>
-      <c r="D2" s="575"/>
-      <c r="E2" s="582" t="s">
+      <c r="B2" s="561"/>
+      <c r="C2" s="562"/>
+      <c r="D2" s="563"/>
+      <c r="E2" s="570" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="583"/>
-      <c r="G2" s="583"/>
-      <c r="H2" s="584"/>
-      <c r="I2" s="589" t="s">
+      <c r="F2" s="571"/>
+      <c r="G2" s="571"/>
+      <c r="H2" s="572"/>
+      <c r="I2" s="577" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="590"/>
-      <c r="K2" s="593">
+      <c r="J2" s="578"/>
+      <c r="K2" s="581">
         <f>Данные!B14</f>
         <v>22</v>
       </c>
-      <c r="L2" s="594"/>
+      <c r="L2" s="582"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="585"/>
-      <c r="Q2" s="585"/>
+      <c r="P2" s="573"/>
+      <c r="Q2" s="573"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="576"/>
-      <c r="C3" s="577"/>
-      <c r="D3" s="578"/>
-      <c r="E3" s="586" t="s">
+      <c r="B3" s="564"/>
+      <c r="C3" s="565"/>
+      <c r="D3" s="566"/>
+      <c r="E3" s="574" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="587"/>
-      <c r="G3" s="587"/>
-      <c r="H3" s="588"/>
-      <c r="I3" s="591"/>
-      <c r="J3" s="592"/>
-      <c r="K3" s="595"/>
-      <c r="L3" s="596"/>
+      <c r="F3" s="575"/>
+      <c r="G3" s="575"/>
+      <c r="H3" s="576"/>
+      <c r="I3" s="579"/>
+      <c r="J3" s="580"/>
+      <c r="K3" s="583"/>
+      <c r="L3" s="584"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -10891,11 +11173,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="579"/>
-      <c r="C4" s="580"/>
-      <c r="D4" s="581"/>
+      <c r="B4" s="567"/>
+      <c r="C4" s="568"/>
+      <c r="D4" s="569"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -10912,24 +11194,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="558" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="559"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="589"/>
+      <c r="D5" s="522" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="560"/>
-      <c r="J5" s="561"/>
-      <c r="K5" s="512"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="523"/>
+      <c r="F5" s="523"/>
+      <c r="G5" s="523"/>
+      <c r="H5" s="524"/>
+      <c r="I5" s="590"/>
+      <c r="J5" s="591"/>
+      <c r="K5" s="523"/>
+      <c r="L5" s="524"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -10938,24 +11220,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="558" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="562"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="592"/>
+      <c r="D6" s="516" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="563"/>
-      <c r="F6" s="563"/>
-      <c r="G6" s="563"/>
-      <c r="H6" s="564"/>
-      <c r="I6" s="560"/>
-      <c r="J6" s="561"/>
-      <c r="K6" s="512"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="590"/>
+      <c r="J6" s="591"/>
+      <c r="K6" s="523"/>
+      <c r="L6" s="524"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -10964,29 +11246,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="565" t="s">
+      <c r="B7" s="595" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="566"/>
-      <c r="D7" s="514">
+      <c r="C7" s="596"/>
+      <c r="D7" s="525">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="567"/>
-      <c r="F7" s="567"/>
-      <c r="G7" s="567"/>
-      <c r="H7" s="568"/>
-      <c r="I7" s="565" t="s">
+      <c r="E7" s="597"/>
+      <c r="F7" s="597"/>
+      <c r="G7" s="597"/>
+      <c r="H7" s="598"/>
+      <c r="I7" s="595" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="569"/>
-      <c r="K7" s="520">
+      <c r="J7" s="599"/>
+      <c r="K7" s="513">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="521"/>
+      <c r="L7" s="514"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -10995,7 +11277,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -11016,7 +11298,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -11049,7 +11331,7 @@
       <c r="R9" s="328"/>
       <c r="S9" s="199"/>
     </row>
-    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -11082,7 +11364,7 @@
       <c r="R10" s="330"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="97" t="s">
         <v>26</v>
@@ -11115,7 +11397,7 @@
       <c r="R11" s="332"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="97" t="s">
         <v>2</v>
@@ -11148,7 +11430,7 @@
       <c r="R12" s="332"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="97" t="s">
         <v>3</v>
@@ -11181,7 +11463,7 @@
       <c r="R13" s="332"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="97" t="s">
         <v>27</v>
@@ -11214,7 +11496,7 @@
       <c r="R14" s="332"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="97" t="s">
         <v>9</v>
@@ -11247,7 +11529,7 @@
       <c r="R15" s="332"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="97" t="s">
         <v>5</v>
@@ -11280,7 +11562,7 @@
       <c r="R16" s="332"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="97" t="s">
         <v>30</v>
@@ -11313,7 +11595,7 @@
       <c r="R17" s="332"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="105" t="s">
         <v>32</v>
@@ -11346,7 +11628,7 @@
       <c r="R18" s="334"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="105" t="s">
         <v>33</v>
@@ -11379,7 +11661,7 @@
       <c r="R19" s="334"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="78"/>
       <c r="B20" s="105" t="s">
         <v>35</v>
@@ -11412,7 +11694,7 @@
       <c r="R20" s="334"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="78"/>
       <c r="B21" s="105" t="s">
         <v>41</v>
@@ -11445,7 +11727,7 @@
       <c r="R21" s="334"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="78"/>
       <c r="B22" s="105" t="s">
         <v>42</v>
@@ -11478,14 +11760,14 @@
       <c r="R22" s="334"/>
       <c r="S22" s="86"/>
     </row>
-    <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="570" t="s">
+      <c r="B23" s="600" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="571"/>
-      <c r="D23" s="571"/>
-      <c r="E23" s="572"/>
+      <c r="C23" s="601"/>
+      <c r="D23" s="601"/>
+      <c r="E23" s="602"/>
       <c r="F23" s="118" t="s">
         <v>16</v>
       </c>
@@ -11505,14 +11787,14 @@
       <c r="R23" s="334"/>
       <c r="S23" s="86"/>
     </row>
-    <row r="24" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="78"/>
-      <c r="B24" s="570" t="s">
+      <c r="B24" s="600" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="571"/>
-      <c r="D24" s="571"/>
-      <c r="E24" s="572"/>
+      <c r="C24" s="601"/>
+      <c r="D24" s="601"/>
+      <c r="E24" s="602"/>
       <c r="F24" s="118" t="s">
         <v>16</v>
       </c>
@@ -11532,14 +11814,14 @@
       <c r="R24" s="334"/>
       <c r="S24" s="86"/>
     </row>
-    <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="78"/>
-      <c r="B25" s="555" t="s">
+      <c r="B25" s="585" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="556"/>
-      <c r="D25" s="556"/>
-      <c r="E25" s="557"/>
+      <c r="C25" s="586"/>
+      <c r="D25" s="586"/>
+      <c r="E25" s="587"/>
       <c r="F25" s="118" t="s">
         <v>16</v>
       </c>
@@ -11559,7 +11841,7 @@
       <c r="R25" s="336"/>
       <c r="S25" s="86"/>
     </row>
-    <row r="26" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="112"/>
       <c r="B26" s="113"/>
       <c r="C26" s="113"/>
@@ -11580,15 +11862,9 @@
       <c r="R26" s="115"/>
       <c r="S26" s="116"/>
     </row>
-    <row r="27" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -11604,6 +11880,12 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R25">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -11623,7 +11905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -11633,20 +11915,20 @@
       <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="64" customWidth="1"/>
     <col min="4" max="5" width="6" style="64" customWidth="1"/>
     <col min="6" max="6" width="7" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -11667,52 +11949,52 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="604">
+      <c r="B2" s="603">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="605"/>
-      <c r="D2" s="606"/>
-      <c r="E2" s="613" t="s">
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="614"/>
-      <c r="G2" s="614"/>
-      <c r="H2" s="615"/>
-      <c r="I2" s="619" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="620"/>
-      <c r="K2" s="623">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B15</f>
         <v>22</v>
       </c>
-      <c r="L2" s="624"/>
+      <c r="L2" s="623"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="585"/>
-      <c r="Q2" s="585"/>
+      <c r="P2" s="573"/>
+      <c r="Q2" s="573"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="607"/>
-      <c r="C3" s="608"/>
-      <c r="D3" s="609"/>
-      <c r="E3" s="616" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="617"/>
-      <c r="G3" s="617"/>
-      <c r="H3" s="618"/>
-      <c r="I3" s="621"/>
-      <c r="J3" s="622"/>
-      <c r="K3" s="625"/>
-      <c r="L3" s="626"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11721,11 +12003,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="610"/>
-      <c r="C4" s="611"/>
-      <c r="D4" s="612"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -11742,24 +12024,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="558" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="597"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="626"/>
+      <c r="D5" s="522" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="598"/>
-      <c r="J5" s="599"/>
-      <c r="K5" s="600"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="523"/>
+      <c r="F5" s="523"/>
+      <c r="G5" s="523"/>
+      <c r="H5" s="524"/>
+      <c r="I5" s="627"/>
+      <c r="J5" s="628"/>
+      <c r="K5" s="629"/>
+      <c r="L5" s="524"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11768,24 +12050,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="558" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="597"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="626"/>
+      <c r="D6" s="516" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="563"/>
-      <c r="F6" s="563"/>
-      <c r="G6" s="563"/>
-      <c r="H6" s="564"/>
-      <c r="I6" s="598"/>
-      <c r="J6" s="599"/>
-      <c r="K6" s="600"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="627"/>
+      <c r="J6" s="628"/>
+      <c r="K6" s="629"/>
+      <c r="L6" s="524"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11794,29 +12076,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="565" t="s">
+      <c r="B7" s="595" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="601"/>
-      <c r="D7" s="514">
+      <c r="C7" s="630"/>
+      <c r="D7" s="525">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="567"/>
-      <c r="F7" s="567"/>
-      <c r="G7" s="567"/>
-      <c r="H7" s="568"/>
-      <c r="I7" s="602" t="s">
+      <c r="E7" s="597"/>
+      <c r="F7" s="597"/>
+      <c r="G7" s="597"/>
+      <c r="H7" s="598"/>
+      <c r="I7" s="631" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="601"/>
-      <c r="K7" s="520">
+      <c r="J7" s="630"/>
+      <c r="K7" s="513">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="521"/>
+      <c r="L7" s="514"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -11825,7 +12107,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -11846,7 +12128,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -11879,7 +12161,7 @@
       <c r="R9" s="328"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -11912,7 +12194,7 @@
       <c r="R10" s="330"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="97" t="s">
         <v>28</v>
@@ -11945,7 +12227,7 @@
       <c r="R11" s="332"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="97" t="s">
         <v>4</v>
@@ -11978,7 +12260,7 @@
       <c r="R12" s="332"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="97" t="s">
         <v>5</v>
@@ -12011,15 +12293,15 @@
       <c r="R13" s="332"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="570" t="s">
+      <c r="B14" s="600" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="571"/>
-      <c r="D14" s="571"/>
-      <c r="E14" s="571"/>
-      <c r="F14" s="603"/>
+      <c r="C14" s="601"/>
+      <c r="D14" s="601"/>
+      <c r="E14" s="601"/>
+      <c r="F14" s="632"/>
       <c r="G14" s="56" t="s">
         <v>78</v>
       </c>
@@ -12036,14 +12318,14 @@
       <c r="R14" s="334"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
-      <c r="B15" s="555" t="s">
+      <c r="B15" s="585" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="556"/>
-      <c r="D15" s="556"/>
-      <c r="E15" s="557"/>
+      <c r="C15" s="586"/>
+      <c r="D15" s="586"/>
+      <c r="E15" s="587"/>
       <c r="F15" s="118" t="s">
         <v>16</v>
       </c>
@@ -12063,7 +12345,7 @@
       <c r="R15" s="336"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="112"/>
       <c r="B16" s="113"/>
       <c r="C16" s="113"/>
@@ -12084,22 +12366,16 @@
       <c r="R16" s="115"/>
       <c r="S16" s="116"/>
     </row>
-    <row r="17" spans="2:16" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B17" s="125"/>
       <c r="P17" s="126"/>
     </row>
-    <row r="18" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="125"/>
       <c r="P18" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12114,6 +12390,12 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -12141,7 +12423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -12151,20 +12433,20 @@
       <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0.88671875" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="64" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="64" customWidth="1"/>
+    <col min="1" max="1" width="0.85546875" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="64" customWidth="1"/>
+    <col min="4" max="5" width="5.7109375" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="0.5546875" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="0.5703125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -12185,49 +12467,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="573"/>
-      <c r="C2" s="574"/>
-      <c r="D2" s="575"/>
-      <c r="E2" s="582" t="s">
+      <c r="B2" s="561"/>
+      <c r="C2" s="562"/>
+      <c r="D2" s="563"/>
+      <c r="E2" s="570" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="583"/>
-      <c r="G2" s="583"/>
-      <c r="H2" s="584"/>
-      <c r="I2" s="589" t="s">
+      <c r="F2" s="571"/>
+      <c r="G2" s="571"/>
+      <c r="H2" s="572"/>
+      <c r="I2" s="577" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="590"/>
-      <c r="K2" s="593">
+      <c r="J2" s="578"/>
+      <c r="K2" s="581">
         <f>Данные!B16</f>
         <v>26</v>
       </c>
-      <c r="L2" s="594"/>
+      <c r="L2" s="582"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="585"/>
-      <c r="Q2" s="585"/>
+      <c r="P2" s="573"/>
+      <c r="Q2" s="573"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="576"/>
-      <c r="C3" s="577"/>
-      <c r="D3" s="578"/>
-      <c r="E3" s="586" t="s">
+      <c r="B3" s="564"/>
+      <c r="C3" s="565"/>
+      <c r="D3" s="566"/>
+      <c r="E3" s="574" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="587"/>
-      <c r="G3" s="587"/>
-      <c r="H3" s="588"/>
-      <c r="I3" s="591"/>
-      <c r="J3" s="592"/>
-      <c r="K3" s="595"/>
-      <c r="L3" s="596"/>
+      <c r="F3" s="575"/>
+      <c r="G3" s="575"/>
+      <c r="H3" s="576"/>
+      <c r="I3" s="579"/>
+      <c r="J3" s="580"/>
+      <c r="K3" s="583"/>
+      <c r="L3" s="584"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12236,11 +12518,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="579"/>
-      <c r="C4" s="580"/>
-      <c r="D4" s="581"/>
+      <c r="B4" s="567"/>
+      <c r="C4" s="568"/>
+      <c r="D4" s="569"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12257,24 +12539,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="558" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="559"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="589"/>
+      <c r="D5" s="522" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="560"/>
-      <c r="J5" s="561"/>
-      <c r="K5" s="512"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="523"/>
+      <c r="F5" s="523"/>
+      <c r="G5" s="523"/>
+      <c r="H5" s="524"/>
+      <c r="I5" s="590"/>
+      <c r="J5" s="591"/>
+      <c r="K5" s="523"/>
+      <c r="L5" s="524"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12283,24 +12565,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="558" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="562"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="592"/>
+      <c r="D6" s="516" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="563"/>
-      <c r="F6" s="563"/>
-      <c r="G6" s="563"/>
-      <c r="H6" s="564"/>
-      <c r="I6" s="560"/>
-      <c r="J6" s="561"/>
-      <c r="K6" s="512"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="590"/>
+      <c r="J6" s="591"/>
+      <c r="K6" s="523"/>
+      <c r="L6" s="524"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12309,29 +12591,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="565" t="s">
+      <c r="B7" s="595" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="566"/>
-      <c r="D7" s="514">
+      <c r="C7" s="596"/>
+      <c r="D7" s="525">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="567"/>
-      <c r="F7" s="567"/>
-      <c r="G7" s="567"/>
-      <c r="H7" s="568"/>
-      <c r="I7" s="565" t="s">
+      <c r="E7" s="597"/>
+      <c r="F7" s="597"/>
+      <c r="G7" s="597"/>
+      <c r="H7" s="598"/>
+      <c r="I7" s="595" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="569"/>
-      <c r="K7" s="520">
+      <c r="J7" s="599"/>
+      <c r="K7" s="513">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="521"/>
+      <c r="L7" s="514"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12340,7 +12622,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -12361,7 +12643,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:24" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -12397,7 +12679,7 @@
       <c r="W9" s="91"/>
       <c r="X9" s="91"/>
     </row>
-    <row r="10" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -12433,7 +12715,7 @@
       <c r="W10" s="91"/>
       <c r="X10" s="91"/>
     </row>
-    <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="97" t="s">
         <v>3</v>
@@ -12469,7 +12751,7 @@
       <c r="W11" s="101"/>
       <c r="X11" s="91"/>
     </row>
-    <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="97" t="s">
         <v>27</v>
@@ -12505,7 +12787,7 @@
       <c r="W12" s="102"/>
       <c r="X12" s="91"/>
     </row>
-    <row r="13" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="97" t="s">
         <v>4</v>
@@ -12541,7 +12823,7 @@
       <c r="W13" s="102"/>
       <c r="X13" s="91"/>
     </row>
-    <row r="14" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="97" t="s">
         <v>5</v>
@@ -12577,7 +12859,7 @@
       <c r="W14" s="102"/>
       <c r="X14" s="91"/>
     </row>
-    <row r="15" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="97" t="s">
         <v>30</v>
@@ -12613,7 +12895,7 @@
       <c r="W15" s="101"/>
       <c r="X15" s="91"/>
     </row>
-    <row r="16" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="97" t="s">
         <v>31</v>
@@ -12649,7 +12931,7 @@
       <c r="W16" s="102"/>
       <c r="X16" s="91"/>
     </row>
-    <row r="17" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="105" t="s">
         <v>32</v>
@@ -12685,7 +12967,7 @@
       <c r="W17" s="101"/>
       <c r="X17" s="91"/>
     </row>
-    <row r="18" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="105" t="s">
         <v>33</v>
@@ -12721,7 +13003,7 @@
       <c r="W18" s="101"/>
       <c r="X18" s="91"/>
     </row>
-    <row r="19" spans="1:24" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="105" t="s">
         <v>34</v>
@@ -12757,7 +13039,7 @@
       <c r="W19" s="101"/>
       <c r="X19" s="91"/>
     </row>
-    <row r="20" spans="1:24" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
       <c r="B20" s="105" t="s">
         <v>35</v>
@@ -12790,7 +13072,7 @@
       <c r="R20" s="336"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="112"/>
       <c r="B21" s="113"/>
       <c r="C21" s="113"/>
@@ -12811,14 +13093,9 @@
       <c r="R21" s="115"/>
       <c r="S21" s="116"/>
     </row>
-    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="B2:D4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
@@ -12832,6 +13109,11 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="B2:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -12853,7 +13135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -12863,20 +13145,20 @@
       <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="5" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="5" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="5" customWidth="1"/>
     <col min="8" max="18" width="9" style="5" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="5" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="5"/>
+    <col min="19" max="19" width="0.85546875" style="5" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -12897,49 +13179,49 @@
       <c r="R1" s="3"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="573"/>
-      <c r="C2" s="574"/>
-      <c r="D2" s="575"/>
-      <c r="E2" s="582" t="s">
+      <c r="B2" s="561"/>
+      <c r="C2" s="562"/>
+      <c r="D2" s="563"/>
+      <c r="E2" s="570" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="583"/>
-      <c r="G2" s="583"/>
-      <c r="H2" s="584"/>
-      <c r="I2" s="589" t="s">
+      <c r="F2" s="571"/>
+      <c r="G2" s="571"/>
+      <c r="H2" s="572"/>
+      <c r="I2" s="577" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="590"/>
-      <c r="K2" s="593">
+      <c r="J2" s="578"/>
+      <c r="K2" s="581">
         <f>Данные!B17</f>
         <v>26</v>
       </c>
-      <c r="L2" s="594"/>
+      <c r="L2" s="582"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="627"/>
-      <c r="Q2" s="627"/>
+      <c r="P2" s="633"/>
+      <c r="Q2" s="633"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="576"/>
-      <c r="C3" s="577"/>
-      <c r="D3" s="578"/>
-      <c r="E3" s="586" t="s">
+      <c r="B3" s="564"/>
+      <c r="C3" s="565"/>
+      <c r="D3" s="566"/>
+      <c r="E3" s="574" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="587"/>
-      <c r="G3" s="587"/>
-      <c r="H3" s="588"/>
-      <c r="I3" s="591"/>
-      <c r="J3" s="592"/>
-      <c r="K3" s="595"/>
-      <c r="L3" s="596"/>
+      <c r="F3" s="575"/>
+      <c r="G3" s="575"/>
+      <c r="H3" s="576"/>
+      <c r="I3" s="579"/>
+      <c r="J3" s="580"/>
+      <c r="K3" s="583"/>
+      <c r="L3" s="584"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -12948,11 +13230,11 @@
       <c r="R3" s="15"/>
       <c r="S3" s="11"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="579"/>
-      <c r="C4" s="580"/>
-      <c r="D4" s="581"/>
+      <c r="B4" s="567"/>
+      <c r="C4" s="568"/>
+      <c r="D4" s="569"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12969,24 +13251,24 @@
       <c r="R4" s="15"/>
       <c r="S4" s="11"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="558" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="559"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="589"/>
+      <c r="D5" s="522" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="560"/>
-      <c r="J5" s="561"/>
-      <c r="K5" s="512"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="523"/>
+      <c r="F5" s="523"/>
+      <c r="G5" s="523"/>
+      <c r="H5" s="524"/>
+      <c r="I5" s="590"/>
+      <c r="J5" s="591"/>
+      <c r="K5" s="523"/>
+      <c r="L5" s="524"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -12995,24 +13277,24 @@
       <c r="R5" s="15"/>
       <c r="S5" s="11"/>
     </row>
-    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="558" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="562"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="592"/>
+      <c r="D6" s="516" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="563"/>
-      <c r="F6" s="563"/>
-      <c r="G6" s="563"/>
-      <c r="H6" s="564"/>
-      <c r="I6" s="560"/>
-      <c r="J6" s="561"/>
-      <c r="K6" s="512"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="590"/>
+      <c r="J6" s="591"/>
+      <c r="K6" s="523"/>
+      <c r="L6" s="524"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13021,29 +13303,29 @@
       <c r="R6" s="15"/>
       <c r="S6" s="11"/>
     </row>
-    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="565" t="s">
+      <c r="B7" s="595" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="566"/>
-      <c r="D7" s="514">
+      <c r="C7" s="596"/>
+      <c r="D7" s="525">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="567"/>
-      <c r="F7" s="567"/>
-      <c r="G7" s="567"/>
-      <c r="H7" s="568"/>
-      <c r="I7" s="565" t="s">
+      <c r="E7" s="597"/>
+      <c r="F7" s="597"/>
+      <c r="G7" s="597"/>
+      <c r="H7" s="598"/>
+      <c r="I7" s="595" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="569"/>
-      <c r="K7" s="520">
+      <c r="J7" s="599"/>
+      <c r="K7" s="513">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="521"/>
+      <c r="L7" s="514"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13052,7 +13334,7 @@
       <c r="R7" s="23"/>
       <c r="S7" s="11"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="25"/>
       <c r="C8" s="26"/>
@@ -13073,7 +13355,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="32"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -13106,7 +13388,7 @@
       <c r="R9" s="338"/>
       <c r="S9" s="38"/>
     </row>
-    <row r="10" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="50" t="s">
         <v>6</v>
@@ -13139,7 +13421,7 @@
       <c r="R10" s="340"/>
       <c r="S10" s="32"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="50" t="s">
         <v>2</v>
@@ -13172,7 +13454,7 @@
       <c r="R11" s="340"/>
       <c r="S11" s="32"/>
     </row>
-    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
       <c r="B12" s="50" t="s">
         <v>3</v>
@@ -13205,7 +13487,7 @@
       <c r="R12" s="340"/>
       <c r="S12" s="32"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24"/>
       <c r="B13" s="50" t="s">
         <v>7</v>
@@ -13238,7 +13520,7 @@
       <c r="R13" s="340"/>
       <c r="S13" s="32"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="24"/>
       <c r="B14" s="50" t="s">
         <v>8</v>
@@ -13271,7 +13553,7 @@
       <c r="R14" s="340"/>
       <c r="S14" s="32"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="57" t="s">
         <v>4</v>
@@ -13304,7 +13586,7 @@
       <c r="R15" s="342"/>
       <c r="S15" s="32"/>
     </row>
-    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
       <c r="B16" s="40"/>
       <c r="C16" s="41"/>
@@ -13325,20 +13607,9 @@
       <c r="R16" s="46"/>
       <c r="S16" s="43"/>
     </row>
-    <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -13346,6 +13617,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -13368,7 +13650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -13381,20 +13663,20 @@
       <selection pane="bottomRight" activeCell="B21" sqref="B21:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="64" customWidth="1"/>
-    <col min="8" max="18" width="8.88671875" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="64" customWidth="1"/>
+    <col min="8" max="18" width="8.85546875" style="64" customWidth="1"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -13415,62 +13697,62 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="604"/>
-      <c r="C2" s="605"/>
-      <c r="D2" s="606"/>
-      <c r="E2" s="613" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="614"/>
-      <c r="G2" s="614"/>
-      <c r="H2" s="615"/>
-      <c r="I2" s="619" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="620"/>
-      <c r="K2" s="623">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B18</f>
         <v>50</v>
       </c>
-      <c r="L2" s="624"/>
-      <c r="M2" s="628"/>
-      <c r="N2" s="629"/>
-      <c r="O2" s="629"/>
-      <c r="P2" s="629"/>
-      <c r="Q2" s="629"/>
-      <c r="R2" s="630"/>
+      <c r="L2" s="623"/>
+      <c r="M2" s="634"/>
+      <c r="N2" s="635"/>
+      <c r="O2" s="635"/>
+      <c r="P2" s="635"/>
+      <c r="Q2" s="635"/>
+      <c r="R2" s="636"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="607"/>
-      <c r="C3" s="608"/>
-      <c r="D3" s="609"/>
-      <c r="E3" s="616" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="617"/>
-      <c r="G3" s="617"/>
-      <c r="H3" s="618"/>
-      <c r="I3" s="621"/>
-      <c r="J3" s="622"/>
-      <c r="K3" s="625"/>
-      <c r="L3" s="626"/>
-      <c r="M3" s="631"/>
-      <c r="N3" s="632"/>
-      <c r="O3" s="632"/>
-      <c r="P3" s="632"/>
-      <c r="Q3" s="632"/>
-      <c r="R3" s="633"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
+      <c r="M3" s="637"/>
+      <c r="N3" s="638"/>
+      <c r="O3" s="638"/>
+      <c r="P3" s="638"/>
+      <c r="Q3" s="638"/>
+      <c r="R3" s="639"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="610"/>
-      <c r="C4" s="611"/>
-      <c r="D4" s="612"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -13479,98 +13761,98 @@
       <c r="J4" s="251"/>
       <c r="K4" s="254"/>
       <c r="L4" s="255"/>
-      <c r="M4" s="631"/>
-      <c r="N4" s="632"/>
-      <c r="O4" s="632"/>
-      <c r="P4" s="632"/>
-      <c r="Q4" s="632"/>
-      <c r="R4" s="633"/>
+      <c r="M4" s="637"/>
+      <c r="N4" s="638"/>
+      <c r="O4" s="638"/>
+      <c r="P4" s="638"/>
+      <c r="Q4" s="638"/>
+      <c r="R4" s="639"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="558" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="597"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="626"/>
+      <c r="D5" s="522" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="598"/>
-      <c r="J5" s="599"/>
-      <c r="K5" s="600"/>
-      <c r="L5" s="513"/>
-      <c r="M5" s="631"/>
-      <c r="N5" s="632"/>
-      <c r="O5" s="632"/>
-      <c r="P5" s="632"/>
-      <c r="Q5" s="632"/>
-      <c r="R5" s="633"/>
+      <c r="E5" s="523"/>
+      <c r="F5" s="523"/>
+      <c r="G5" s="523"/>
+      <c r="H5" s="524"/>
+      <c r="I5" s="627"/>
+      <c r="J5" s="628"/>
+      <c r="K5" s="629"/>
+      <c r="L5" s="524"/>
+      <c r="M5" s="637"/>
+      <c r="N5" s="638"/>
+      <c r="O5" s="638"/>
+      <c r="P5" s="638"/>
+      <c r="Q5" s="638"/>
+      <c r="R5" s="639"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="558" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="597"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="626"/>
+      <c r="D6" s="516" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="563"/>
-      <c r="F6" s="563"/>
-      <c r="G6" s="563"/>
-      <c r="H6" s="564"/>
-      <c r="I6" s="598"/>
-      <c r="J6" s="599"/>
-      <c r="K6" s="600"/>
-      <c r="L6" s="513"/>
-      <c r="M6" s="631"/>
-      <c r="N6" s="632"/>
-      <c r="O6" s="632"/>
-      <c r="P6" s="632"/>
-      <c r="Q6" s="632"/>
-      <c r="R6" s="633"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="627"/>
+      <c r="J6" s="628"/>
+      <c r="K6" s="629"/>
+      <c r="L6" s="524"/>
+      <c r="M6" s="637"/>
+      <c r="N6" s="638"/>
+      <c r="O6" s="638"/>
+      <c r="P6" s="638"/>
+      <c r="Q6" s="638"/>
+      <c r="R6" s="639"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="565" t="s">
+      <c r="B7" s="595" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="601"/>
-      <c r="D7" s="514">
+      <c r="C7" s="630"/>
+      <c r="D7" s="525">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="567"/>
-      <c r="F7" s="567"/>
-      <c r="G7" s="567"/>
-      <c r="H7" s="568"/>
-      <c r="I7" s="602" t="s">
+      <c r="E7" s="597"/>
+      <c r="F7" s="597"/>
+      <c r="G7" s="597"/>
+      <c r="H7" s="598"/>
+      <c r="I7" s="631" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="601"/>
-      <c r="K7" s="520">
+      <c r="J7" s="630"/>
+      <c r="K7" s="513">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="521"/>
-      <c r="M7" s="631"/>
-      <c r="N7" s="632"/>
-      <c r="O7" s="632"/>
-      <c r="P7" s="632"/>
-      <c r="Q7" s="632"/>
-      <c r="R7" s="633"/>
+      <c r="L7" s="514"/>
+      <c r="M7" s="637"/>
+      <c r="N7" s="638"/>
+      <c r="O7" s="638"/>
+      <c r="P7" s="638"/>
+      <c r="Q7" s="638"/>
+      <c r="R7" s="639"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -13591,7 +13873,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="256" t="s">
         <v>17</v>
@@ -13624,7 +13906,7 @@
       <c r="R9" s="89"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -13657,7 +13939,7 @@
       <c r="R10" s="96"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="202" t="s">
         <v>26</v>
@@ -13690,7 +13972,7 @@
       <c r="R11" s="100"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="202" t="s">
         <v>2</v>
@@ -13723,7 +14005,7 @@
       <c r="R12" s="100"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="202" t="s">
         <v>3</v>
@@ -13756,7 +14038,7 @@
       <c r="R13" s="100"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="97" t="s">
         <v>27</v>
@@ -13789,7 +14071,7 @@
       <c r="R14" s="100"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="97" t="s">
         <v>28</v>
@@ -13822,7 +14104,7 @@
       <c r="R15" s="100"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="97" t="s">
         <v>9</v>
@@ -13855,7 +14137,7 @@
       <c r="R16" s="100"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="97" t="s">
         <v>29</v>
@@ -13888,7 +14170,7 @@
       <c r="R17" s="100"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="97" t="s">
         <v>30</v>
@@ -13921,7 +14203,7 @@
       <c r="R18" s="100"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="97" t="s">
         <v>35</v>
@@ -13954,7 +14236,7 @@
       <c r="R19" s="100"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="78"/>
       <c r="B20" s="97" t="s">
         <v>39</v>
@@ -13987,14 +14269,14 @@
       <c r="R20" s="108"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
-      <c r="B21" s="555" t="s">
+      <c r="B21" s="585" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="556"/>
-      <c r="D21" s="556"/>
-      <c r="E21" s="557"/>
+      <c r="C21" s="586"/>
+      <c r="D21" s="586"/>
+      <c r="E21" s="587"/>
       <c r="F21" s="118" t="s">
         <v>16</v>
       </c>
@@ -14014,7 +14296,7 @@
       <c r="R21" s="111"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="112"/>
       <c r="B22" s="113"/>
       <c r="C22" s="113"/>
@@ -14035,11 +14317,18 @@
       <c r="R22" s="115"/>
       <c r="S22" s="116"/>
     </row>
-    <row r="23" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B23" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -14052,13 +14341,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
@@ -14078,7 +14360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -14088,19 +14370,19 @@
       <selection pane="bottomRight" activeCell="H19" sqref="H18:H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
-    <col min="4" max="6" width="5.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="64" customWidth="1"/>
+    <col min="4" max="6" width="5.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.109375" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.140625" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -14121,49 +14403,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="604"/>
-      <c r="C2" s="605"/>
-      <c r="D2" s="606"/>
-      <c r="E2" s="613" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="614"/>
-      <c r="G2" s="614"/>
-      <c r="H2" s="615"/>
-      <c r="I2" s="619" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="620"/>
-      <c r="K2" s="623">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B19</f>
         <v>50</v>
       </c>
-      <c r="L2" s="624"/>
+      <c r="L2" s="623"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="634"/>
-      <c r="Q2" s="634"/>
+      <c r="P2" s="640"/>
+      <c r="Q2" s="640"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="607"/>
-      <c r="C3" s="608"/>
-      <c r="D3" s="609"/>
-      <c r="E3" s="616" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="617"/>
-      <c r="G3" s="617"/>
-      <c r="H3" s="618"/>
-      <c r="I3" s="621"/>
-      <c r="J3" s="622"/>
-      <c r="K3" s="625"/>
-      <c r="L3" s="626"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14172,11 +14454,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="610"/>
-      <c r="C4" s="611"/>
-      <c r="D4" s="612"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -14193,24 +14475,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="558" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="597"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="626"/>
+      <c r="D5" s="522" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="598"/>
-      <c r="J5" s="599"/>
-      <c r="K5" s="600"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="523"/>
+      <c r="F5" s="523"/>
+      <c r="G5" s="523"/>
+      <c r="H5" s="524"/>
+      <c r="I5" s="627"/>
+      <c r="J5" s="628"/>
+      <c r="K5" s="629"/>
+      <c r="L5" s="524"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14219,24 +14501,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="558" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="597"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="626"/>
+      <c r="D6" s="516" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="563"/>
-      <c r="F6" s="563"/>
-      <c r="G6" s="563"/>
-      <c r="H6" s="564"/>
-      <c r="I6" s="598"/>
-      <c r="J6" s="599"/>
-      <c r="K6" s="600"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="627"/>
+      <c r="J6" s="628"/>
+      <c r="K6" s="629"/>
+      <c r="L6" s="524"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14245,29 +14527,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="565" t="s">
+      <c r="B7" s="595" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="601"/>
-      <c r="D7" s="514">
+      <c r="C7" s="630"/>
+      <c r="D7" s="525">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="567"/>
-      <c r="F7" s="567"/>
-      <c r="G7" s="567"/>
-      <c r="H7" s="568"/>
-      <c r="I7" s="602" t="s">
+      <c r="E7" s="597"/>
+      <c r="F7" s="597"/>
+      <c r="G7" s="597"/>
+      <c r="H7" s="598"/>
+      <c r="I7" s="631" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="601"/>
-      <c r="K7" s="520">
+      <c r="J7" s="630"/>
+      <c r="K7" s="513">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="521"/>
+      <c r="L7" s="514"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -14276,7 +14558,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -14297,7 +14579,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="256" t="s">
         <v>17</v>
@@ -14330,7 +14612,7 @@
       <c r="R9" s="89"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="131" t="s">
         <v>26</v>
@@ -14363,7 +14645,7 @@
       <c r="R10" s="100"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="131" t="s">
         <v>2</v>
@@ -14396,7 +14678,7 @@
       <c r="R11" s="100"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="131" t="s">
         <v>3</v>
@@ -14429,7 +14711,7 @@
       <c r="R12" s="100"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="131" t="s">
         <v>27</v>
@@ -14462,7 +14744,7 @@
       <c r="R13" s="100"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="131" t="s">
         <v>9</v>
@@ -14495,7 +14777,7 @@
       <c r="R14" s="100"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="131" t="s">
         <v>5</v>
@@ -14528,14 +14810,14 @@
       <c r="R15" s="100"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="555" t="s">
+      <c r="B16" s="585" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="556"/>
-      <c r="D16" s="556"/>
-      <c r="E16" s="557"/>
+      <c r="C16" s="586"/>
+      <c r="D16" s="586"/>
+      <c r="E16" s="587"/>
       <c r="F16" s="261" t="s">
         <v>16</v>
       </c>
@@ -14555,7 +14837,7 @@
       <c r="R16" s="124"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="112"/>
       <c r="B17" s="130"/>
       <c r="C17" s="129"/>
@@ -14576,11 +14858,20 @@
       <c r="R17" s="115"/>
       <c r="S17" s="116"/>
     </row>
-    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B18" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
@@ -14591,15 +14882,6 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2.1-500-4 (Ведьма)/Ведьма 0.5 л. от 03.10.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2.1-500-4 (Ведьма)/Ведьма 0.5 л. от 03.10.2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XXI-В-28-2.1-500-4 (Ведьма)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2FE488-CBAA-4EEE-8DB6-350E28ECF26E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65380300-BBE3-4A69-A970-D541B8EBE17F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2236,7 +2236,7 @@
     <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="652">
+  <cellXfs count="640">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -3577,38 +3577,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
@@ -3688,21 +3662,6 @@
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3738,6 +3697,60 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="77" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3797,117 +3810,6 @@
     </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="77" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3959,73 +3861,76 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4049,6 +3954,75 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4075,35 +4049,35 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -6621,14 +6595,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
@@ -6642,29 +6616,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="501" t="s">
+      <c r="A1" s="489" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="501"/>
-      <c r="C1" s="501"/>
-      <c r="D1" s="501"/>
-      <c r="E1" s="501"/>
-      <c r="F1" s="501"/>
-      <c r="G1" s="501"/>
-      <c r="H1" s="501"/>
-      <c r="I1" s="501"/>
-      <c r="J1" s="501"/>
-      <c r="K1" s="501"/>
-      <c r="L1" s="501"/>
+      <c r="B1" s="489"/>
+      <c r="C1" s="489"/>
+      <c r="D1" s="489"/>
+      <c r="E1" s="489"/>
+      <c r="F1" s="489"/>
+      <c r="G1" s="489"/>
+      <c r="H1" s="489"/>
+      <c r="I1" s="489"/>
+      <c r="J1" s="489"/>
+      <c r="K1" s="489"/>
+      <c r="L1" s="489"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="502" t="s">
+      <c r="A2" s="490" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="502"/>
-      <c r="C2" s="502"/>
-      <c r="D2" s="502"/>
-      <c r="E2" s="502"/>
+      <c r="B2" s="490"/>
+      <c r="C2" s="490"/>
+      <c r="D2" s="490"/>
+      <c r="E2" s="490"/>
       <c r="F2" s="395"/>
       <c r="G2" s="396"/>
       <c r="H2" s="397"/>
@@ -7149,7 +7123,7 @@
         <f>1-G20</f>
         <v>0.95777116883116886</v>
       </c>
-      <c r="J20" s="492"/>
+      <c r="J20" s="480"/>
       <c r="K20" s="450"/>
       <c r="L20" s="450"/>
     </row>
@@ -7175,14 +7149,14 @@
         <v>4.2333311688311691E-2</v>
       </c>
       <c r="H21" s="454">
-        <f>H20-F21</f>
+        <f t="shared" ref="H21:I23" si="2">H20-F21</f>
         <v>14097743</v>
       </c>
       <c r="I21" s="455">
-        <f>I20-G21</f>
+        <f t="shared" si="2"/>
         <v>0.91543785714285719</v>
       </c>
-      <c r="J21" s="493">
+      <c r="J21" s="481">
         <v>367</v>
       </c>
       <c r="K21" s="399"/>
@@ -7210,14 +7184,14 @@
         <v>3.1235064935064935E-2</v>
       </c>
       <c r="H22" s="454">
-        <f>H21-F22</f>
+        <f t="shared" si="2"/>
         <v>13616723</v>
       </c>
       <c r="I22" s="455">
-        <f>I21-G22</f>
+        <f t="shared" si="2"/>
         <v>0.8842027922077923</v>
       </c>
-      <c r="J22" s="494">
+      <c r="J22" s="482">
         <v>364</v>
       </c>
       <c r="K22" s="450"/>
@@ -7225,43 +7199,104 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="456"/>
-      <c r="B23" s="390"/>
-      <c r="C23" s="390"/>
-      <c r="D23" s="390"/>
-      <c r="E23" s="390"/>
-      <c r="F23" s="390"/>
-      <c r="G23" s="390"/>
-      <c r="H23" s="390"/>
-      <c r="I23" s="461"/>
-      <c r="J23" s="495"/>
+      <c r="B23" s="457">
+        <v>44083</v>
+      </c>
+      <c r="C23" s="457">
+        <v>44084</v>
+      </c>
+      <c r="D23" s="457">
+        <v>44105</v>
+      </c>
+      <c r="E23" s="458">
+        <v>271440</v>
+      </c>
+      <c r="F23" s="458">
+        <v>325901</v>
+      </c>
+      <c r="G23" s="446">
+        <f>F23/A$20</f>
+        <v>2.1162402597402596E-2</v>
+      </c>
+      <c r="H23" s="454">
+        <f t="shared" si="2"/>
+        <v>13290822</v>
+      </c>
+      <c r="I23" s="455">
+        <f t="shared" si="2"/>
+        <v>0.86304038961038976</v>
+      </c>
+      <c r="J23" s="483"/>
       <c r="K23" s="449"/>
       <c r="L23" s="399"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="456"/>
-      <c r="B24" s="457"/>
-      <c r="C24" s="457"/>
-      <c r="D24" s="457"/>
-      <c r="E24" s="458"/>
-      <c r="F24" s="458"/>
-      <c r="G24" s="462"/>
-      <c r="H24" s="459"/>
-      <c r="I24" s="460"/>
-      <c r="J24" s="494"/>
-      <c r="K24" s="463"/>
+      <c r="B24" s="457">
+        <v>44137</v>
+      </c>
+      <c r="C24" s="457">
+        <v>44139</v>
+      </c>
+      <c r="D24" s="457">
+        <v>44166</v>
+      </c>
+      <c r="E24" s="458">
+        <v>449280</v>
+      </c>
+      <c r="F24" s="458">
+        <v>479081</v>
+      </c>
+      <c r="G24" s="446">
+        <f>F24/A$20</f>
+        <v>3.1109155844155845E-2</v>
+      </c>
+      <c r="H24" s="454">
+        <f t="shared" ref="H24" si="3">H23-F24</f>
+        <v>12811741</v>
+      </c>
+      <c r="I24" s="455">
+        <f t="shared" ref="I24" si="4">I23-G24</f>
+        <v>0.8319312337662339</v>
+      </c>
+      <c r="J24" s="482">
+        <v>362</v>
+      </c>
+      <c r="K24" s="459"/>
       <c r="L24" s="399"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="456"/>
-      <c r="B25" s="457"/>
-      <c r="C25" s="457"/>
-      <c r="D25" s="457"/>
-      <c r="E25" s="458"/>
-      <c r="F25" s="458"/>
-      <c r="G25" s="462"/>
-      <c r="H25" s="459"/>
-      <c r="I25" s="460"/>
-      <c r="J25" s="494"/>
+      <c r="B25" s="457">
+        <v>44306</v>
+      </c>
+      <c r="C25" s="457">
+        <v>44308</v>
+      </c>
+      <c r="D25" s="457">
+        <v>44319</v>
+      </c>
+      <c r="E25" s="458">
+        <v>461760</v>
+      </c>
+      <c r="F25" s="458">
+        <v>489845</v>
+      </c>
+      <c r="G25" s="446">
+        <f>F25/A$20</f>
+        <v>3.1808116883116883E-2</v>
+      </c>
+      <c r="H25" s="454">
+        <f t="shared" ref="H25" si="5">H24-F25</f>
+        <v>12321896</v>
+      </c>
+      <c r="I25" s="455">
+        <f t="shared" ref="I25" si="6">I24-G25</f>
+        <v>0.80012311688311699</v>
+      </c>
+      <c r="J25" s="482">
+        <v>374</v>
+      </c>
       <c r="K25" s="449"/>
       <c r="L25" s="399"/>
     </row>
@@ -7270,12 +7305,12 @@
       <c r="B26" s="457"/>
       <c r="C26" s="457"/>
       <c r="D26" s="457"/>
-      <c r="E26" s="459"/>
+      <c r="E26" s="458"/>
       <c r="F26" s="458"/>
-      <c r="G26" s="462"/>
-      <c r="H26" s="459"/>
-      <c r="I26" s="460"/>
-      <c r="J26" s="494"/>
+      <c r="G26" s="446"/>
+      <c r="H26" s="454"/>
+      <c r="I26" s="455"/>
+      <c r="J26" s="482"/>
       <c r="K26" s="449"/>
       <c r="L26" s="399"/>
     </row>
@@ -7284,12 +7319,12 @@
       <c r="B27" s="457"/>
       <c r="C27" s="457"/>
       <c r="D27" s="457"/>
-      <c r="E27" s="459"/>
+      <c r="E27" s="458"/>
       <c r="F27" s="458"/>
-      <c r="G27" s="462"/>
-      <c r="H27" s="459"/>
-      <c r="I27" s="460"/>
-      <c r="J27" s="494"/>
+      <c r="G27" s="446"/>
+      <c r="H27" s="454"/>
+      <c r="I27" s="455"/>
+      <c r="J27" s="482"/>
       <c r="K27" s="449"/>
       <c r="L27" s="399"/>
     </row>
@@ -7297,13 +7332,13 @@
       <c r="A28" s="456"/>
       <c r="B28" s="457"/>
       <c r="C28" s="457"/>
-      <c r="D28" s="390"/>
-      <c r="E28" s="390"/>
+      <c r="D28" s="457"/>
+      <c r="E28" s="458"/>
       <c r="F28" s="458"/>
-      <c r="G28" s="464"/>
-      <c r="H28" s="459"/>
-      <c r="I28" s="465"/>
-      <c r="J28" s="496"/>
+      <c r="G28" s="446"/>
+      <c r="H28" s="454"/>
+      <c r="I28" s="455"/>
+      <c r="J28" s="484"/>
       <c r="K28" s="449"/>
       <c r="L28" s="399"/>
     </row>
@@ -7311,60 +7346,60 @@
       <c r="A29" s="456"/>
       <c r="B29" s="457"/>
       <c r="C29" s="457"/>
-      <c r="D29" s="390"/>
-      <c r="E29" s="390"/>
+      <c r="D29" s="457"/>
+      <c r="E29" s="458"/>
       <c r="F29" s="458"/>
-      <c r="G29" s="462"/>
-      <c r="H29" s="459"/>
-      <c r="I29" s="465"/>
-      <c r="J29" s="496"/>
+      <c r="G29" s="446"/>
+      <c r="H29" s="454"/>
+      <c r="I29" s="455"/>
+      <c r="J29" s="484"/>
       <c r="K29" s="449"/>
       <c r="L29" s="399"/>
     </row>
     <row r="30" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="466"/>
-      <c r="B30" s="467"/>
-      <c r="C30" s="467"/>
-      <c r="D30" s="468"/>
-      <c r="E30" s="468"/>
-      <c r="F30" s="469"/>
-      <c r="G30" s="470"/>
-      <c r="H30" s="471"/>
-      <c r="I30" s="472"/>
-      <c r="J30" s="497"/>
+      <c r="A30" s="460"/>
+      <c r="B30" s="457"/>
+      <c r="C30" s="457"/>
+      <c r="D30" s="457"/>
+      <c r="E30" s="458"/>
+      <c r="F30" s="458"/>
+      <c r="G30" s="446"/>
+      <c r="H30" s="454"/>
+      <c r="I30" s="455"/>
+      <c r="J30" s="485"/>
       <c r="K30" s="399"/>
       <c r="L30" s="399"/>
     </row>
     <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="473" t="s">
+      <c r="A31" s="461" t="s">
         <v>155</v>
       </c>
-      <c r="B31" s="474"/>
-      <c r="C31" s="474"/>
-      <c r="D31" s="475"/>
-      <c r="E31" s="476">
+      <c r="B31" s="462"/>
+      <c r="C31" s="462"/>
+      <c r="D31" s="463"/>
+      <c r="E31" s="464">
         <f>SUM(E20:E30)</f>
-        <v>1490724</v>
-      </c>
-      <c r="F31" s="477">
+        <v>2673204</v>
+      </c>
+      <c r="F31" s="465">
         <f>SUM(F20:F30)</f>
-        <v>1783277</v>
-      </c>
-      <c r="G31" s="478">
+        <v>3078104</v>
+      </c>
+      <c r="G31" s="466">
         <f>SUM(G20:G30)</f>
-        <v>0.1157972077922078</v>
-      </c>
-      <c r="H31" s="479">
+        <v>0.19987688311688315</v>
+      </c>
+      <c r="H31" s="467">
         <f>A20-F31</f>
-        <v>13616723</v>
-      </c>
-      <c r="I31" s="480">
+        <v>12321896</v>
+      </c>
+      <c r="I31" s="468">
         <f>1-G31</f>
-        <v>0.88420279220779219</v>
-      </c>
-      <c r="J31" s="498"/>
-      <c r="K31" s="481"/>
-      <c r="L31" s="481"/>
+        <v>0.80012311688311688</v>
+      </c>
+      <c r="J31" s="486"/>
+      <c r="K31" s="469"/>
+      <c r="L31" s="469"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="399"/>
@@ -7379,12 +7414,12 @@
       <c r="J34" s="399"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="503" t="s">
+      <c r="A35" s="491" t="s">
         <v>156</v>
       </c>
-      <c r="B35" s="503"/>
-      <c r="C35" s="503"/>
-      <c r="D35" s="503"/>
+      <c r="B35" s="491"/>
+      <c r="C35" s="491"/>
+      <c r="D35" s="491"/>
       <c r="E35" s="399"/>
       <c r="F35" s="399"/>
       <c r="G35" s="399"/>
@@ -7393,14 +7428,14 @@
       <c r="J35" s="399"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="504" t="s">
+      <c r="A36" s="492" t="s">
         <v>157</v>
       </c>
-      <c r="B36" s="504"/>
-      <c r="C36" s="482" t="s">
+      <c r="B36" s="492"/>
+      <c r="C36" s="470" t="s">
         <v>158</v>
       </c>
-      <c r="D36" s="482" t="s">
+      <c r="D36" s="470" t="s">
         <v>159</v>
       </c>
       <c r="E36" s="399"/>
@@ -7411,27 +7446,27 @@
       <c r="J36" s="399"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="505">
+      <c r="A37" s="493">
         <f>A20-F31</f>
-        <v>13616723</v>
-      </c>
-      <c r="B37" s="506"/>
-      <c r="C37" s="483">
+        <v>12321896</v>
+      </c>
+      <c r="B37" s="494"/>
+      <c r="C37" s="471">
         <f>1-G31</f>
-        <v>0.88420279220779219</v>
-      </c>
-      <c r="D37" s="484">
+        <v>0.80012311688311688</v>
+      </c>
+      <c r="D37" s="472">
         <f>(C37/0.8)*100</f>
-        <v>110.52534902597402</v>
-      </c>
-      <c r="E37" s="485" t="s">
+        <v>100.0153896103896</v>
+      </c>
+      <c r="E37" s="473" t="s">
         <v>160</v>
       </c>
-      <c r="F37" s="485"/>
-      <c r="G37" s="485"/>
-      <c r="H37" s="485"/>
-      <c r="I37" s="485"/>
-      <c r="J37" s="485"/>
+      <c r="F37" s="473"/>
+      <c r="G37" s="473"/>
+      <c r="H37" s="473"/>
+      <c r="I37" s="473"/>
+      <c r="J37" s="473"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="399"/>
@@ -7458,8 +7493,8 @@
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="399"/>
-      <c r="B40" s="486"/>
-      <c r="C40" s="486"/>
+      <c r="B40" s="474"/>
+      <c r="C40" s="474"/>
       <c r="D40" s="399"/>
       <c r="E40" s="399"/>
       <c r="F40" s="399"/>
@@ -7469,113 +7504,113 @@
       <c r="J40" s="399"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="487"/>
-      <c r="B41" s="487"/>
-      <c r="C41" s="487"/>
-      <c r="D41" s="487"/>
-      <c r="E41" s="487"/>
-      <c r="F41" s="487"/>
-      <c r="G41" s="487"/>
-      <c r="H41" s="487"/>
-      <c r="I41" s="499"/>
-      <c r="J41" s="500"/>
+      <c r="A41" s="475"/>
+      <c r="B41" s="475"/>
+      <c r="C41" s="475"/>
+      <c r="D41" s="475"/>
+      <c r="E41" s="475"/>
+      <c r="F41" s="475"/>
+      <c r="G41" s="475"/>
+      <c r="H41" s="475"/>
+      <c r="I41" s="487"/>
+      <c r="J41" s="488"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="488"/>
-      <c r="B42" s="489"/>
-      <c r="C42" s="489"/>
+      <c r="A42" s="476"/>
+      <c r="B42" s="477"/>
+      <c r="C42" s="477"/>
       <c r="D42" s="399"/>
       <c r="E42" s="399"/>
-      <c r="F42" s="489"/>
-      <c r="G42" s="490"/>
-      <c r="H42" s="489"/>
+      <c r="F42" s="477"/>
+      <c r="G42" s="478"/>
+      <c r="H42" s="477"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="488"/>
-      <c r="B43" s="489"/>
-      <c r="C43" s="489"/>
-      <c r="D43" s="489"/>
-      <c r="E43" s="489"/>
-      <c r="F43" s="489"/>
-      <c r="G43" s="490"/>
-      <c r="H43" s="489"/>
+      <c r="A43" s="476"/>
+      <c r="B43" s="477"/>
+      <c r="C43" s="477"/>
+      <c r="D43" s="477"/>
+      <c r="E43" s="477"/>
+      <c r="F43" s="477"/>
+      <c r="G43" s="478"/>
+      <c r="H43" s="477"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="488"/>
-      <c r="B44" s="489"/>
-      <c r="C44" s="489"/>
+      <c r="A44" s="476"/>
+      <c r="B44" s="477"/>
+      <c r="C44" s="477"/>
       <c r="D44" s="399"/>
       <c r="E44" s="399"/>
-      <c r="F44" s="489"/>
-      <c r="G44" s="490"/>
-      <c r="H44" s="489"/>
+      <c r="F44" s="477"/>
+      <c r="G44" s="478"/>
+      <c r="H44" s="477"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="488"/>
-      <c r="B45" s="489"/>
-      <c r="C45" s="489"/>
-      <c r="D45" s="489"/>
-      <c r="E45" s="489"/>
-      <c r="F45" s="489"/>
-      <c r="G45" s="490"/>
-      <c r="H45" s="489"/>
+      <c r="A45" s="476"/>
+      <c r="B45" s="477"/>
+      <c r="C45" s="477"/>
+      <c r="D45" s="477"/>
+      <c r="E45" s="477"/>
+      <c r="F45" s="477"/>
+      <c r="G45" s="478"/>
+      <c r="H45" s="477"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="488"/>
-      <c r="B46" s="489"/>
-      <c r="C46" s="489"/>
+      <c r="A46" s="476"/>
+      <c r="B46" s="477"/>
+      <c r="C46" s="477"/>
       <c r="D46" s="399"/>
       <c r="E46" s="399"/>
-      <c r="F46" s="489"/>
-      <c r="G46" s="490"/>
-      <c r="H46" s="489"/>
+      <c r="F46" s="477"/>
+      <c r="G46" s="478"/>
+      <c r="H46" s="477"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="488"/>
-      <c r="B47" s="489"/>
+      <c r="A47" s="476"/>
+      <c r="B47" s="477"/>
       <c r="C47" s="450"/>
-      <c r="D47" s="491"/>
-      <c r="E47" s="491"/>
+      <c r="D47" s="479"/>
+      <c r="E47" s="479"/>
       <c r="F47" s="450"/>
       <c r="G47" s="450"/>
       <c r="H47" s="450"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="488"/>
-      <c r="B48" s="489"/>
-      <c r="C48" s="489"/>
-      <c r="D48" s="489"/>
-      <c r="E48" s="489"/>
-      <c r="F48" s="489"/>
-      <c r="G48" s="490"/>
-      <c r="H48" s="489"/>
+      <c r="A48" s="476"/>
+      <c r="B48" s="477"/>
+      <c r="C48" s="477"/>
+      <c r="D48" s="477"/>
+      <c r="E48" s="477"/>
+      <c r="F48" s="477"/>
+      <c r="G48" s="478"/>
+      <c r="H48" s="477"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="488"/>
-      <c r="B49" s="489"/>
-      <c r="C49" s="489"/>
-      <c r="D49" s="489"/>
-      <c r="E49" s="489"/>
-      <c r="F49" s="489"/>
-      <c r="G49" s="490"/>
-      <c r="H49" s="489"/>
+      <c r="A49" s="476"/>
+      <c r="B49" s="477"/>
+      <c r="C49" s="477"/>
+      <c r="D49" s="477"/>
+      <c r="E49" s="477"/>
+      <c r="F49" s="477"/>
+      <c r="G49" s="478"/>
+      <c r="H49" s="477"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="488"/>
-      <c r="B50" s="489"/>
-      <c r="C50" s="489"/>
+      <c r="A50" s="476"/>
+      <c r="B50" s="477"/>
+      <c r="C50" s="477"/>
       <c r="D50" s="399"/>
       <c r="E50" s="399"/>
-      <c r="F50" s="489"/>
-      <c r="G50" s="490"/>
-      <c r="H50" s="489"/>
+      <c r="F50" s="477"/>
+      <c r="G50" s="478"/>
+      <c r="H50" s="477"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="399"/>
-      <c r="B51" s="507"/>
-      <c r="C51" s="507"/>
-      <c r="D51" s="508"/>
-      <c r="E51" s="485"/>
+      <c r="B51" s="495"/>
+      <c r="C51" s="495"/>
+      <c r="D51" s="496"/>
+      <c r="E51" s="473"/>
       <c r="F51" s="399"/>
       <c r="G51" s="399"/>
       <c r="H51" s="399"/>
@@ -7583,31 +7618,31 @@
       <c r="J51" s="399"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="487"/>
-      <c r="B52" s="487"/>
-      <c r="C52" s="487"/>
-      <c r="D52" s="487"/>
-      <c r="E52" s="487"/>
-      <c r="F52" s="487"/>
-      <c r="G52" s="487"/>
-      <c r="H52" s="487"/>
-      <c r="I52" s="499"/>
-      <c r="J52" s="500"/>
+      <c r="A52" s="475"/>
+      <c r="B52" s="475"/>
+      <c r="C52" s="475"/>
+      <c r="D52" s="475"/>
+      <c r="E52" s="475"/>
+      <c r="F52" s="475"/>
+      <c r="G52" s="475"/>
+      <c r="H52" s="475"/>
+      <c r="I52" s="487"/>
+      <c r="J52" s="488"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="488"/>
+      <c r="A53" s="476"/>
       <c r="B53" s="399"/>
       <c r="C53" s="399"/>
       <c r="D53" s="399"/>
       <c r="E53" s="399"/>
-      <c r="F53" s="490"/>
-      <c r="G53" s="490"/>
-      <c r="H53" s="489"/>
-      <c r="I53" s="509"/>
-      <c r="J53" s="509"/>
+      <c r="F53" s="478"/>
+      <c r="G53" s="478"/>
+      <c r="H53" s="477"/>
+      <c r="I53" s="497"/>
+      <c r="J53" s="497"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="488"/>
+      <c r="A54" s="476"/>
       <c r="B54" s="399"/>
       <c r="C54" s="399"/>
       <c r="D54" s="450"/>
@@ -7615,8 +7650,8 @@
       <c r="F54" s="450"/>
       <c r="G54" s="450"/>
       <c r="H54" s="450"/>
-      <c r="I54" s="509"/>
-      <c r="J54" s="509"/>
+      <c r="I54" s="497"/>
+      <c r="J54" s="497"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="399"/>
@@ -7629,12 +7664,12 @@
       <c r="H55" s="399"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B60" s="499"/>
-      <c r="C60" s="500"/>
+      <c r="B60" s="487"/>
+      <c r="C60" s="488"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B67" s="499"/>
-      <c r="C67" s="500"/>
+      <c r="B67" s="487"/>
+      <c r="C67" s="488"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -7706,47 +7741,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="172"/>
-      <c r="B2" s="603"/>
-      <c r="C2" s="604"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="612" t="s">
+      <c r="B2" s="598"/>
+      <c r="C2" s="599"/>
+      <c r="D2" s="600"/>
+      <c r="E2" s="607" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="613"/>
-      <c r="G2" s="613"/>
-      <c r="H2" s="614"/>
-      <c r="I2" s="618" t="s">
+      <c r="F2" s="608"/>
+      <c r="G2" s="608"/>
+      <c r="H2" s="609"/>
+      <c r="I2" s="613" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="619"/>
-      <c r="K2" s="622">
+      <c r="J2" s="614"/>
+      <c r="K2" s="617">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="L2" s="623"/>
+      <c r="L2" s="618"/>
       <c r="M2" s="173"/>
       <c r="N2" s="174"/>
       <c r="O2" s="175"/>
-      <c r="P2" s="641"/>
-      <c r="Q2" s="641"/>
+      <c r="P2" s="629"/>
+      <c r="Q2" s="629"/>
       <c r="R2" s="176"/>
       <c r="S2" s="177"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="172"/>
-      <c r="B3" s="606"/>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="615" t="s">
+      <c r="B3" s="601"/>
+      <c r="C3" s="602"/>
+      <c r="D3" s="603"/>
+      <c r="E3" s="610" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="616"/>
-      <c r="G3" s="616"/>
-      <c r="H3" s="617"/>
-      <c r="I3" s="620"/>
-      <c r="J3" s="621"/>
-      <c r="K3" s="624"/>
-      <c r="L3" s="625"/>
+      <c r="F3" s="611"/>
+      <c r="G3" s="611"/>
+      <c r="H3" s="612"/>
+      <c r="I3" s="615"/>
+      <c r="J3" s="616"/>
+      <c r="K3" s="619"/>
+      <c r="L3" s="620"/>
       <c r="M3" s="178"/>
       <c r="N3" s="179"/>
       <c r="O3" s="179"/>
@@ -7757,9 +7792,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="172"/>
-      <c r="B4" s="609"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="611"/>
+      <c r="B4" s="604"/>
+      <c r="C4" s="605"/>
+      <c r="D4" s="606"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -7778,22 +7813,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="172"/>
-      <c r="B5" s="588" t="s">
+      <c r="B5" s="552" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="626"/>
-      <c r="D5" s="522" t="str">
+      <c r="C5" s="591"/>
+      <c r="D5" s="505" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="523"/>
-      <c r="F5" s="523"/>
-      <c r="G5" s="523"/>
-      <c r="H5" s="524"/>
-      <c r="I5" s="627"/>
-      <c r="J5" s="628"/>
-      <c r="K5" s="629"/>
-      <c r="L5" s="524"/>
+      <c r="E5" s="506"/>
+      <c r="F5" s="506"/>
+      <c r="G5" s="506"/>
+      <c r="H5" s="507"/>
+      <c r="I5" s="592"/>
+      <c r="J5" s="593"/>
+      <c r="K5" s="594"/>
+      <c r="L5" s="507"/>
       <c r="M5" s="181"/>
       <c r="N5" s="179"/>
       <c r="O5" s="179"/>
@@ -7804,22 +7839,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="172"/>
-      <c r="B6" s="588" t="s">
+      <c r="B6" s="552" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="626"/>
-      <c r="D6" s="516" t="str">
+      <c r="C6" s="591"/>
+      <c r="D6" s="499" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="627"/>
-      <c r="J6" s="628"/>
-      <c r="K6" s="629"/>
-      <c r="L6" s="524"/>
+      <c r="E6" s="557"/>
+      <c r="F6" s="557"/>
+      <c r="G6" s="557"/>
+      <c r="H6" s="558"/>
+      <c r="I6" s="592"/>
+      <c r="J6" s="593"/>
+      <c r="K6" s="594"/>
+      <c r="L6" s="507"/>
       <c r="M6" s="178"/>
       <c r="N6" s="179"/>
       <c r="O6" s="179"/>
@@ -7830,27 +7865,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="172"/>
-      <c r="B7" s="595" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="630"/>
-      <c r="D7" s="525">
+      <c r="C7" s="595"/>
+      <c r="D7" s="508">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="597"/>
-      <c r="F7" s="597"/>
-      <c r="G7" s="597"/>
-      <c r="H7" s="598"/>
-      <c r="I7" s="631" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="596" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="630"/>
-      <c r="K7" s="513">
+      <c r="J7" s="595"/>
+      <c r="K7" s="514">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="514"/>
+      <c r="L7" s="515"/>
       <c r="M7" s="181"/>
       <c r="N7" s="179"/>
       <c r="O7" s="179"/>
@@ -8236,17 +8271,6 @@
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -8254,6 +8278,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
@@ -8319,47 +8354,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="211"/>
-      <c r="B2" s="603"/>
-      <c r="C2" s="604"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="612" t="s">
+      <c r="B2" s="598"/>
+      <c r="C2" s="599"/>
+      <c r="D2" s="600"/>
+      <c r="E2" s="607" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="613"/>
-      <c r="G2" s="613"/>
-      <c r="H2" s="614"/>
-      <c r="I2" s="618" t="s">
+      <c r="F2" s="608"/>
+      <c r="G2" s="608"/>
+      <c r="H2" s="609"/>
+      <c r="I2" s="613" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="619"/>
-      <c r="K2" s="622">
+      <c r="J2" s="614"/>
+      <c r="K2" s="617">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="623"/>
+      <c r="L2" s="618"/>
       <c r="M2" s="212"/>
       <c r="N2" s="213"/>
       <c r="O2" s="214"/>
-      <c r="P2" s="642"/>
-      <c r="Q2" s="642"/>
+      <c r="P2" s="633"/>
+      <c r="Q2" s="633"/>
       <c r="R2" s="215"/>
       <c r="S2" s="216"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="211"/>
-      <c r="B3" s="606"/>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="615" t="s">
+      <c r="B3" s="601"/>
+      <c r="C3" s="602"/>
+      <c r="D3" s="603"/>
+      <c r="E3" s="610" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="616"/>
-      <c r="G3" s="616"/>
-      <c r="H3" s="617"/>
-      <c r="I3" s="620"/>
-      <c r="J3" s="621"/>
-      <c r="K3" s="624"/>
-      <c r="L3" s="625"/>
+      <c r="F3" s="611"/>
+      <c r="G3" s="611"/>
+      <c r="H3" s="612"/>
+      <c r="I3" s="615"/>
+      <c r="J3" s="616"/>
+      <c r="K3" s="619"/>
+      <c r="L3" s="620"/>
       <c r="M3" s="217"/>
       <c r="N3" s="218"/>
       <c r="O3" s="218"/>
@@ -8370,9 +8405,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="211"/>
-      <c r="B4" s="609"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="611"/>
+      <c r="B4" s="604"/>
+      <c r="C4" s="605"/>
+      <c r="D4" s="606"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -8391,22 +8426,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="211"/>
-      <c r="B5" s="588" t="s">
+      <c r="B5" s="552" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="626"/>
-      <c r="D5" s="522" t="str">
+      <c r="C5" s="591"/>
+      <c r="D5" s="505" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="523"/>
-      <c r="F5" s="523"/>
-      <c r="G5" s="523"/>
-      <c r="H5" s="524"/>
-      <c r="I5" s="627"/>
-      <c r="J5" s="628"/>
-      <c r="K5" s="629"/>
-      <c r="L5" s="524"/>
+      <c r="E5" s="506"/>
+      <c r="F5" s="506"/>
+      <c r="G5" s="506"/>
+      <c r="H5" s="507"/>
+      <c r="I5" s="592"/>
+      <c r="J5" s="593"/>
+      <c r="K5" s="594"/>
+      <c r="L5" s="507"/>
       <c r="M5" s="220"/>
       <c r="N5" s="218"/>
       <c r="O5" s="218"/>
@@ -8417,22 +8452,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="211"/>
-      <c r="B6" s="588" t="s">
+      <c r="B6" s="552" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="626"/>
-      <c r="D6" s="516" t="str">
+      <c r="C6" s="591"/>
+      <c r="D6" s="499" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="627"/>
-      <c r="J6" s="628"/>
-      <c r="K6" s="629"/>
-      <c r="L6" s="524"/>
+      <c r="E6" s="557"/>
+      <c r="F6" s="557"/>
+      <c r="G6" s="557"/>
+      <c r="H6" s="558"/>
+      <c r="I6" s="592"/>
+      <c r="J6" s="593"/>
+      <c r="K6" s="594"/>
+      <c r="L6" s="507"/>
       <c r="M6" s="217"/>
       <c r="N6" s="218"/>
       <c r="O6" s="218"/>
@@ -8443,27 +8478,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="211"/>
-      <c r="B7" s="595" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="630"/>
-      <c r="D7" s="525">
+      <c r="C7" s="595"/>
+      <c r="D7" s="508">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="597"/>
-      <c r="F7" s="597"/>
-      <c r="G7" s="597"/>
-      <c r="H7" s="598"/>
-      <c r="I7" s="631" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="596" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="630"/>
-      <c r="K7" s="513">
+      <c r="J7" s="595"/>
+      <c r="K7" s="514">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="514"/>
+      <c r="L7" s="515"/>
       <c r="M7" s="220"/>
       <c r="N7" s="218"/>
       <c r="O7" s="218"/>
@@ -8792,12 +8827,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="221"/>
-      <c r="B18" s="643" t="s">
+      <c r="B18" s="630" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="644"/>
-      <c r="D18" s="644"/>
-      <c r="E18" s="645"/>
+      <c r="C18" s="631"/>
+      <c r="D18" s="631"/>
+      <c r="E18" s="632"/>
       <c r="F18" s="118" t="s">
         <v>16</v>
       </c>
@@ -8841,6 +8876,14 @@
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
@@ -8852,14 +8895,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8945,47 +8980,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="135"/>
-      <c r="B2" s="603"/>
-      <c r="C2" s="604"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="612" t="s">
+      <c r="B2" s="598"/>
+      <c r="C2" s="599"/>
+      <c r="D2" s="600"/>
+      <c r="E2" s="607" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="613"/>
-      <c r="G2" s="613"/>
-      <c r="H2" s="614"/>
-      <c r="I2" s="618" t="s">
+      <c r="F2" s="608"/>
+      <c r="G2" s="608"/>
+      <c r="H2" s="609"/>
+      <c r="I2" s="613" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="619"/>
-      <c r="K2" s="622">
+      <c r="J2" s="614"/>
+      <c r="K2" s="617">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="L2" s="623"/>
+      <c r="L2" s="618"/>
       <c r="M2" s="136"/>
       <c r="N2" s="137"/>
       <c r="O2" s="138"/>
-      <c r="P2" s="646"/>
-      <c r="Q2" s="646"/>
+      <c r="P2" s="634"/>
+      <c r="Q2" s="634"/>
       <c r="R2" s="139"/>
       <c r="S2" s="140"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="135"/>
-      <c r="B3" s="606"/>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="615" t="s">
+      <c r="B3" s="601"/>
+      <c r="C3" s="602"/>
+      <c r="D3" s="603"/>
+      <c r="E3" s="610" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="616"/>
-      <c r="G3" s="616"/>
-      <c r="H3" s="617"/>
-      <c r="I3" s="620"/>
-      <c r="J3" s="621"/>
-      <c r="K3" s="624"/>
-      <c r="L3" s="625"/>
+      <c r="F3" s="611"/>
+      <c r="G3" s="611"/>
+      <c r="H3" s="612"/>
+      <c r="I3" s="615"/>
+      <c r="J3" s="616"/>
+      <c r="K3" s="619"/>
+      <c r="L3" s="620"/>
       <c r="M3" s="141"/>
       <c r="N3" s="142"/>
       <c r="O3" s="142"/>
@@ -8996,9 +9031,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="135"/>
-      <c r="B4" s="609"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="611"/>
+      <c r="B4" s="604"/>
+      <c r="C4" s="605"/>
+      <c r="D4" s="606"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -9017,22 +9052,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="135"/>
-      <c r="B5" s="588" t="s">
+      <c r="B5" s="552" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="626"/>
-      <c r="D5" s="522" t="str">
+      <c r="C5" s="591"/>
+      <c r="D5" s="505" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="523"/>
-      <c r="F5" s="523"/>
-      <c r="G5" s="523"/>
-      <c r="H5" s="524"/>
-      <c r="I5" s="627"/>
-      <c r="J5" s="628"/>
-      <c r="K5" s="629"/>
-      <c r="L5" s="524"/>
+      <c r="E5" s="506"/>
+      <c r="F5" s="506"/>
+      <c r="G5" s="506"/>
+      <c r="H5" s="507"/>
+      <c r="I5" s="592"/>
+      <c r="J5" s="593"/>
+      <c r="K5" s="594"/>
+      <c r="L5" s="507"/>
       <c r="M5" s="144"/>
       <c r="N5" s="142"/>
       <c r="O5" s="142"/>
@@ -9043,22 +9078,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="135"/>
-      <c r="B6" s="588" t="s">
+      <c r="B6" s="552" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="626"/>
-      <c r="D6" s="516" t="str">
+      <c r="C6" s="591"/>
+      <c r="D6" s="499" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="627"/>
-      <c r="J6" s="628"/>
-      <c r="K6" s="629"/>
-      <c r="L6" s="524"/>
+      <c r="E6" s="557"/>
+      <c r="F6" s="557"/>
+      <c r="G6" s="557"/>
+      <c r="H6" s="558"/>
+      <c r="I6" s="592"/>
+      <c r="J6" s="593"/>
+      <c r="K6" s="594"/>
+      <c r="L6" s="507"/>
       <c r="M6" s="141"/>
       <c r="N6" s="142"/>
       <c r="O6" s="142"/>
@@ -9069,27 +9104,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="135"/>
-      <c r="B7" s="595" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="630"/>
-      <c r="D7" s="525">
+      <c r="C7" s="595"/>
+      <c r="D7" s="508">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="597"/>
-      <c r="F7" s="597"/>
-      <c r="G7" s="597"/>
-      <c r="H7" s="598"/>
-      <c r="I7" s="631" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="596" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="630"/>
-      <c r="K7" s="513">
+      <c r="J7" s="595"/>
+      <c r="K7" s="514">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="514"/>
+      <c r="L7" s="515"/>
       <c r="M7" s="144"/>
       <c r="N7" s="142"/>
       <c r="O7" s="142"/>
@@ -9470,17 +9505,6 @@
     <row r="21" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -9488,6 +9512,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -9553,47 +9588,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="268"/>
-      <c r="B2" s="603"/>
-      <c r="C2" s="604"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="612" t="s">
+      <c r="B2" s="598"/>
+      <c r="C2" s="599"/>
+      <c r="D2" s="600"/>
+      <c r="E2" s="607" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="613"/>
-      <c r="G2" s="613"/>
-      <c r="H2" s="614"/>
-      <c r="I2" s="618" t="s">
+      <c r="F2" s="608"/>
+      <c r="G2" s="608"/>
+      <c r="H2" s="609"/>
+      <c r="I2" s="613" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="619"/>
-      <c r="K2" s="648">
+      <c r="J2" s="614"/>
+      <c r="K2" s="635">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="L2" s="649"/>
+      <c r="L2" s="636"/>
       <c r="M2" s="269"/>
       <c r="N2" s="270"/>
       <c r="O2" s="271"/>
-      <c r="P2" s="647"/>
-      <c r="Q2" s="647"/>
+      <c r="P2" s="639"/>
+      <c r="Q2" s="639"/>
       <c r="R2" s="272"/>
       <c r="S2" s="273"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="268"/>
-      <c r="B3" s="606"/>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="615" t="s">
+      <c r="B3" s="601"/>
+      <c r="C3" s="602"/>
+      <c r="D3" s="603"/>
+      <c r="E3" s="610" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="616"/>
-      <c r="G3" s="616"/>
-      <c r="H3" s="617"/>
-      <c r="I3" s="620"/>
-      <c r="J3" s="621"/>
-      <c r="K3" s="650"/>
-      <c r="L3" s="651"/>
+      <c r="F3" s="611"/>
+      <c r="G3" s="611"/>
+      <c r="H3" s="612"/>
+      <c r="I3" s="615"/>
+      <c r="J3" s="616"/>
+      <c r="K3" s="637"/>
+      <c r="L3" s="638"/>
       <c r="M3" s="274"/>
       <c r="N3" s="275"/>
       <c r="O3" s="275"/>
@@ -9604,9 +9639,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="268"/>
-      <c r="B4" s="609"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="611"/>
+      <c r="B4" s="604"/>
+      <c r="C4" s="605"/>
+      <c r="D4" s="606"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -9625,22 +9660,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="268"/>
-      <c r="B5" s="588" t="s">
+      <c r="B5" s="552" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="626"/>
-      <c r="D5" s="522" t="str">
+      <c r="C5" s="591"/>
+      <c r="D5" s="505" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="523"/>
-      <c r="F5" s="523"/>
-      <c r="G5" s="523"/>
-      <c r="H5" s="524"/>
-      <c r="I5" s="627"/>
-      <c r="J5" s="628"/>
-      <c r="K5" s="629"/>
-      <c r="L5" s="524"/>
+      <c r="E5" s="506"/>
+      <c r="F5" s="506"/>
+      <c r="G5" s="506"/>
+      <c r="H5" s="507"/>
+      <c r="I5" s="592"/>
+      <c r="J5" s="593"/>
+      <c r="K5" s="594"/>
+      <c r="L5" s="507"/>
       <c r="M5" s="277"/>
       <c r="N5" s="275"/>
       <c r="O5" s="275"/>
@@ -9651,22 +9686,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="268"/>
-      <c r="B6" s="588" t="s">
+      <c r="B6" s="552" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="626"/>
-      <c r="D6" s="516" t="str">
+      <c r="C6" s="591"/>
+      <c r="D6" s="499" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="627"/>
-      <c r="J6" s="628"/>
-      <c r="K6" s="629"/>
-      <c r="L6" s="524"/>
+      <c r="E6" s="557"/>
+      <c r="F6" s="557"/>
+      <c r="G6" s="557"/>
+      <c r="H6" s="558"/>
+      <c r="I6" s="592"/>
+      <c r="J6" s="593"/>
+      <c r="K6" s="594"/>
+      <c r="L6" s="507"/>
       <c r="M6" s="274"/>
       <c r="N6" s="275"/>
       <c r="O6" s="275"/>
@@ -9677,27 +9712,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="268"/>
-      <c r="B7" s="595" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="630"/>
-      <c r="D7" s="525">
+      <c r="C7" s="595"/>
+      <c r="D7" s="508">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="597"/>
-      <c r="F7" s="597"/>
-      <c r="G7" s="597"/>
-      <c r="H7" s="598"/>
-      <c r="I7" s="631" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="596" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="630"/>
-      <c r="K7" s="513">
+      <c r="J7" s="595"/>
+      <c r="K7" s="514">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="514"/>
+      <c r="L7" s="515"/>
       <c r="M7" s="277"/>
       <c r="N7" s="275"/>
       <c r="O7" s="275"/>
@@ -9970,10 +10005,6 @@
     <row r="17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
@@ -9988,6 +10019,10 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -10029,25 +10064,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="515" t="s">
+      <c r="A1" s="498" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="519"/>
-      <c r="C1" s="519"/>
-      <c r="D1" s="519"/>
-      <c r="E1" s="519"/>
+      <c r="B1" s="502"/>
+      <c r="C1" s="502"/>
+      <c r="D1" s="502"/>
+      <c r="E1" s="502"/>
       <c r="G1" s="374" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="516" t="s">
+      <c r="A2" s="499" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="517"/>
-      <c r="C2" s="517"/>
-      <c r="D2" s="517"/>
-      <c r="E2" s="518"/>
+      <c r="B2" s="500"/>
+      <c r="C2" s="500"/>
+      <c r="D2" s="500"/>
+      <c r="E2" s="501"/>
       <c r="G2" s="373" t="s">
         <v>80</v>
       </c>
@@ -10058,45 +10093,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="520" t="s">
+      <c r="A4" s="503" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="521"/>
-      <c r="C4" s="521"/>
-      <c r="D4" s="521"/>
-      <c r="E4" s="521"/>
+      <c r="B4" s="504"/>
+      <c r="C4" s="504"/>
+      <c r="D4" s="504"/>
+      <c r="E4" s="504"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="522" t="s">
+      <c r="A5" s="505" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="523"/>
-      <c r="C5" s="523"/>
-      <c r="D5" s="523"/>
-      <c r="E5" s="524"/>
+      <c r="B5" s="506"/>
+      <c r="C5" s="506"/>
+      <c r="D5" s="506"/>
+      <c r="E5" s="507"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="515" t="s">
+      <c r="A7" s="498" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="519"/>
-      <c r="C7" s="519"/>
-      <c r="D7" s="519"/>
-      <c r="E7" s="519"/>
+      <c r="B7" s="502"/>
+      <c r="C7" s="502"/>
+      <c r="D7" s="502"/>
+      <c r="E7" s="502"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="525"/>
-      <c r="B8" s="526"/>
-      <c r="C8" s="526"/>
-      <c r="D8" s="526"/>
-      <c r="E8" s="527"/>
+      <c r="A8" s="508"/>
+      <c r="B8" s="509"/>
+      <c r="C8" s="509"/>
+      <c r="D8" s="509"/>
+      <c r="E8" s="510"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="515" t="s">
+      <c r="A10" s="498" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="515"/>
+      <c r="B10" s="498"/>
       <c r="C10" s="375"/>
       <c r="D10" s="383" t="s">
         <v>95</v>
@@ -10107,33 +10142,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="513"/>
-      <c r="B11" s="514"/>
+      <c r="A11" s="514"/>
+      <c r="B11" s="515"/>
       <c r="D11" s="382">
         <v>43741</v>
       </c>
-      <c r="F11" s="511" t="s">
+      <c r="F11" s="512" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="511"/>
-      <c r="H11" s="511"/>
-      <c r="I11" s="511"/>
-      <c r="J11" s="512" t="s">
+      <c r="G11" s="512"/>
+      <c r="H11" s="512"/>
+      <c r="I11" s="512"/>
+      <c r="J11" s="513" t="s">
         <v>100</v>
       </c>
-      <c r="K11" s="512"/>
+      <c r="K11" s="513"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="511" t="s">
+      <c r="F12" s="512" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="511"/>
-      <c r="H12" s="511"/>
-      <c r="I12" s="511"/>
-      <c r="J12" s="512" t="s">
+      <c r="G12" s="512"/>
+      <c r="H12" s="512"/>
+      <c r="I12" s="512"/>
+      <c r="J12" s="513" t="s">
         <v>101</v>
       </c>
-      <c r="K12" s="512"/>
+      <c r="K12" s="513"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="376" t="s">
@@ -10145,16 +10180,16 @@
       <c r="C13" s="389" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="511" t="s">
+      <c r="F13" s="512" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="511"/>
-      <c r="H13" s="511"/>
-      <c r="I13" s="511"/>
-      <c r="J13" s="512" t="s">
+      <c r="G13" s="512"/>
+      <c r="H13" s="512"/>
+      <c r="I13" s="512"/>
+      <c r="J13" s="513" t="s">
         <v>102</v>
       </c>
-      <c r="K13" s="512"/>
+      <c r="K13" s="513"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="378" t="s">
@@ -10308,11 +10343,11 @@
       <c r="A28" s="384"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="510" t="s">
+      <c r="A29" s="511" t="s">
         <v>122</v>
       </c>
-      <c r="B29" s="510"/>
-      <c r="C29" s="510"/>
+      <c r="B29" s="511"/>
+      <c r="C29" s="511"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -10321,13 +10356,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A7:E7"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="F12:I12"/>
@@ -10336,6 +10364,13 @@
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -10411,47 +10446,47 @@
       <c r="J8" s="320"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="559" t="s">
+      <c r="A11" s="522" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="559"/>
-      <c r="C11" s="559"/>
-      <c r="D11" s="559"/>
-      <c r="E11" s="559"/>
-      <c r="F11" s="559"/>
-      <c r="G11" s="559"/>
-      <c r="H11" s="559"/>
-      <c r="I11" s="559"/>
-      <c r="J11" s="559"/>
+      <c r="B11" s="522"/>
+      <c r="C11" s="522"/>
+      <c r="D11" s="522"/>
+      <c r="E11" s="522"/>
+      <c r="F11" s="522"/>
+      <c r="G11" s="522"/>
+      <c r="H11" s="522"/>
+      <c r="I11" s="522"/>
+      <c r="J11" s="522"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="558" t="s">
+      <c r="A12" s="521" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="558"/>
-      <c r="C12" s="558"/>
-      <c r="D12" s="558"/>
-      <c r="E12" s="558"/>
-      <c r="F12" s="558"/>
-      <c r="G12" s="558"/>
-      <c r="H12" s="558"/>
-      <c r="I12" s="558"/>
-      <c r="J12" s="558"/>
+      <c r="B12" s="521"/>
+      <c r="C12" s="521"/>
+      <c r="D12" s="521"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="521"/>
+      <c r="G12" s="521"/>
+      <c r="H12" s="521"/>
+      <c r="I12" s="521"/>
+      <c r="J12" s="521"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="560" t="str">
+      <c r="A13" s="523" t="str">
         <f>Данные!A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="B13" s="559"/>
-      <c r="C13" s="559"/>
-      <c r="D13" s="559"/>
-      <c r="E13" s="559"/>
-      <c r="F13" s="559"/>
-      <c r="G13" s="559"/>
-      <c r="H13" s="559"/>
-      <c r="I13" s="559"/>
-      <c r="J13" s="559"/>
+      <c r="B13" s="522"/>
+      <c r="C13" s="522"/>
+      <c r="D13" s="522"/>
+      <c r="E13" s="522"/>
+      <c r="F13" s="522"/>
+      <c r="G13" s="522"/>
+      <c r="H13" s="522"/>
+      <c r="I13" s="522"/>
+      <c r="J13" s="522"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="313" t="s">
@@ -10576,325 +10611,325 @@
       <c r="J21" s="314"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="548" t="s">
+      <c r="A22" s="527" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="548" t="s">
+      <c r="B22" s="527" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="548"/>
-      <c r="D22" s="548"/>
-      <c r="E22" s="548" t="s">
+      <c r="C22" s="527"/>
+      <c r="D22" s="527"/>
+      <c r="E22" s="527" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="548"/>
-      <c r="G22" s="549" t="s">
+      <c r="F22" s="527"/>
+      <c r="G22" s="528" t="s">
         <v>69</v>
       </c>
-      <c r="H22" s="548" t="s">
+      <c r="H22" s="527" t="s">
         <v>70</v>
       </c>
-      <c r="I22" s="548"/>
-      <c r="J22" s="548"/>
+      <c r="I22" s="527"/>
+      <c r="J22" s="527"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="548"/>
-      <c r="B23" s="548"/>
-      <c r="C23" s="548"/>
-      <c r="D23" s="548"/>
-      <c r="E23" s="548"/>
-      <c r="F23" s="548"/>
-      <c r="G23" s="549"/>
-      <c r="H23" s="548"/>
-      <c r="I23" s="548"/>
-      <c r="J23" s="548"/>
+      <c r="A23" s="527"/>
+      <c r="B23" s="527"/>
+      <c r="C23" s="527"/>
+      <c r="D23" s="527"/>
+      <c r="E23" s="527"/>
+      <c r="F23" s="527"/>
+      <c r="G23" s="528"/>
+      <c r="H23" s="527"/>
+      <c r="I23" s="527"/>
+      <c r="J23" s="527"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="543">
+      <c r="A24" s="544">
         <v>1</v>
       </c>
-      <c r="B24" s="545" t="s">
+      <c r="B24" s="546" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="546"/>
-      <c r="D24" s="547"/>
-      <c r="E24" s="531" t="str">
+      <c r="C24" s="547"/>
+      <c r="D24" s="548"/>
+      <c r="E24" s="532" t="str">
         <f>Данные!C14</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F24" s="532"/>
-      <c r="G24" s="535">
+      <c r="F24" s="533"/>
+      <c r="G24" s="536">
         <f>Данные!B14</f>
         <v>22</v>
       </c>
-      <c r="H24" s="537"/>
-      <c r="I24" s="538"/>
-      <c r="J24" s="539"/>
+      <c r="H24" s="538"/>
+      <c r="I24" s="539"/>
+      <c r="J24" s="540"/>
     </row>
     <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="544"/>
-      <c r="B25" s="528" t="str">
+      <c r="A25" s="545"/>
+      <c r="B25" s="529" t="str">
         <f>Данные!A30</f>
         <v>(к серийному формокомплекту ХХI-В-28-2.1-500-4 Ведьма)</v>
       </c>
-      <c r="C25" s="529"/>
-      <c r="D25" s="530"/>
-      <c r="E25" s="533"/>
-      <c r="F25" s="534"/>
-      <c r="G25" s="536"/>
-      <c r="H25" s="540"/>
-      <c r="I25" s="541"/>
-      <c r="J25" s="542"/>
+      <c r="C25" s="530"/>
+      <c r="D25" s="531"/>
+      <c r="E25" s="534"/>
+      <c r="F25" s="535"/>
+      <c r="G25" s="537"/>
+      <c r="H25" s="541"/>
+      <c r="I25" s="542"/>
+      <c r="J25" s="543"/>
     </row>
     <row r="26" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="386">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="550" t="s">
+      <c r="B26" s="524" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="551"/>
-      <c r="D26" s="552"/>
-      <c r="E26" s="553" t="str">
+      <c r="C26" s="525"/>
+      <c r="D26" s="526"/>
+      <c r="E26" s="519" t="str">
         <f>Данные!C15</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F26" s="553"/>
+      <c r="F26" s="519"/>
       <c r="G26" s="318">
         <f>Данные!B15</f>
         <v>22</v>
       </c>
-      <c r="H26" s="554"/>
-      <c r="I26" s="554"/>
-      <c r="J26" s="554"/>
+      <c r="H26" s="520"/>
+      <c r="I26" s="520"/>
+      <c r="J26" s="520"/>
     </row>
     <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="386">
         <f t="shared" ref="A27:A36" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B27" s="555" t="s">
+      <c r="B27" s="516" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="556"/>
-      <c r="D27" s="557"/>
-      <c r="E27" s="553" t="str">
+      <c r="C27" s="517"/>
+      <c r="D27" s="518"/>
+      <c r="E27" s="519" t="str">
         <f>Данные!C16</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F27" s="553"/>
+      <c r="F27" s="519"/>
       <c r="G27" s="318">
         <f>Данные!B16</f>
         <v>26</v>
       </c>
-      <c r="H27" s="554"/>
-      <c r="I27" s="554"/>
-      <c r="J27" s="554"/>
+      <c r="H27" s="520"/>
+      <c r="I27" s="520"/>
+      <c r="J27" s="520"/>
     </row>
     <row r="28" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="386">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B28" s="555" t="s">
+      <c r="B28" s="516" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="556"/>
-      <c r="D28" s="557"/>
-      <c r="E28" s="553" t="str">
+      <c r="C28" s="517"/>
+      <c r="D28" s="518"/>
+      <c r="E28" s="519" t="str">
         <f>Данные!C17</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F28" s="553"/>
+      <c r="F28" s="519"/>
       <c r="G28" s="318">
         <f>Данные!B17</f>
         <v>26</v>
       </c>
-      <c r="H28" s="554"/>
-      <c r="I28" s="554"/>
-      <c r="J28" s="554"/>
+      <c r="H28" s="520"/>
+      <c r="I28" s="520"/>
+      <c r="J28" s="520"/>
     </row>
     <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="386">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B29" s="555" t="s">
+      <c r="B29" s="516" t="s">
         <v>113</v>
       </c>
-      <c r="C29" s="556"/>
-      <c r="D29" s="557"/>
-      <c r="E29" s="553" t="str">
+      <c r="C29" s="517"/>
+      <c r="D29" s="518"/>
+      <c r="E29" s="519" t="str">
         <f>Данные!C18</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F29" s="553"/>
+      <c r="F29" s="519"/>
       <c r="G29" s="318">
         <f>Данные!B18</f>
         <v>50</v>
       </c>
-      <c r="H29" s="554"/>
-      <c r="I29" s="554"/>
-      <c r="J29" s="554"/>
+      <c r="H29" s="520"/>
+      <c r="I29" s="520"/>
+      <c r="J29" s="520"/>
     </row>
     <row r="30" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="386">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B30" s="555" t="s">
+      <c r="B30" s="516" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="556"/>
-      <c r="D30" s="557"/>
-      <c r="E30" s="553" t="str">
+      <c r="C30" s="517"/>
+      <c r="D30" s="518"/>
+      <c r="E30" s="519" t="str">
         <f>Данные!C19</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F30" s="553"/>
+      <c r="F30" s="519"/>
       <c r="G30" s="318">
         <f>Данные!B19</f>
         <v>50</v>
       </c>
-      <c r="H30" s="554"/>
-      <c r="I30" s="554"/>
-      <c r="J30" s="554"/>
+      <c r="H30" s="520"/>
+      <c r="I30" s="520"/>
+      <c r="J30" s="520"/>
     </row>
     <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="386">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B31" s="555" t="s">
+      <c r="B31" s="516" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="556"/>
-      <c r="D31" s="557"/>
-      <c r="E31" s="553" t="str">
+      <c r="C31" s="517"/>
+      <c r="D31" s="518"/>
+      <c r="E31" s="519" t="str">
         <f>Данные!C20</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F31" s="553"/>
+      <c r="F31" s="519"/>
       <c r="G31" s="318">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="H31" s="554"/>
-      <c r="I31" s="554"/>
-      <c r="J31" s="554"/>
+      <c r="H31" s="520"/>
+      <c r="I31" s="520"/>
+      <c r="J31" s="520"/>
     </row>
     <row r="32" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="386">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B32" s="555" t="s">
+      <c r="B32" s="516" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="556"/>
-      <c r="D32" s="557"/>
-      <c r="E32" s="553" t="str">
+      <c r="C32" s="517"/>
+      <c r="D32" s="518"/>
+      <c r="E32" s="519" t="str">
         <f>Данные!C21</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F32" s="553"/>
+      <c r="F32" s="519"/>
       <c r="G32" s="318">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="H32" s="554"/>
-      <c r="I32" s="554"/>
-      <c r="J32" s="554"/>
+      <c r="H32" s="520"/>
+      <c r="I32" s="520"/>
+      <c r="J32" s="520"/>
     </row>
     <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="386">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B33" s="555" t="s">
+      <c r="B33" s="516" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="556"/>
-      <c r="D33" s="557"/>
-      <c r="E33" s="553" t="str">
+      <c r="C33" s="517"/>
+      <c r="D33" s="518"/>
+      <c r="E33" s="519" t="str">
         <f>Данные!C23</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F33" s="553"/>
+      <c r="F33" s="519"/>
       <c r="G33" s="318">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="H33" s="554"/>
-      <c r="I33" s="554"/>
-      <c r="J33" s="554"/>
+      <c r="H33" s="520"/>
+      <c r="I33" s="520"/>
+      <c r="J33" s="520"/>
     </row>
     <row r="34" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="386">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B34" s="555" t="s">
+      <c r="B34" s="516" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="556"/>
-      <c r="D34" s="557"/>
-      <c r="E34" s="553" t="str">
+      <c r="C34" s="517"/>
+      <c r="D34" s="518"/>
+      <c r="E34" s="519" t="str">
         <f>Данные!C23</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F34" s="553"/>
+      <c r="F34" s="519"/>
       <c r="G34" s="318">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="H34" s="554"/>
-      <c r="I34" s="554"/>
-      <c r="J34" s="554"/>
+      <c r="H34" s="520"/>
+      <c r="I34" s="520"/>
+      <c r="J34" s="520"/>
     </row>
     <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="386">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B35" s="555" t="s">
+      <c r="B35" s="516" t="s">
         <v>118</v>
       </c>
-      <c r="C35" s="556"/>
-      <c r="D35" s="557"/>
-      <c r="E35" s="553"/>
-      <c r="F35" s="553"/>
+      <c r="C35" s="517"/>
+      <c r="D35" s="518"/>
+      <c r="E35" s="519"/>
+      <c r="F35" s="519"/>
       <c r="G35" s="388">
         <f>Данные!B27</f>
         <v>18</v>
       </c>
-      <c r="H35" s="554"/>
-      <c r="I35" s="554"/>
-      <c r="J35" s="554"/>
+      <c r="H35" s="520"/>
+      <c r="I35" s="520"/>
+      <c r="J35" s="520"/>
     </row>
     <row r="36" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="386">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B36" s="555" t="s">
+      <c r="B36" s="516" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="556"/>
-      <c r="D36" s="557"/>
-      <c r="E36" s="553" t="str">
+      <c r="C36" s="517"/>
+      <c r="D36" s="518"/>
+      <c r="E36" s="519" t="str">
         <f>Данные!C24</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F36" s="553"/>
+      <c r="F36" s="519"/>
       <c r="G36" s="318">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H36" s="554"/>
-      <c r="I36" s="554"/>
-      <c r="J36" s="554"/>
+      <c r="H36" s="520"/>
+      <c r="I36" s="520"/>
+      <c r="J36" s="520"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="313"/>
@@ -11023,12 +11058,31 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:J23"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="H29:J29"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -11045,31 +11099,12 @@
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="H30:J30"/>
     <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:J23"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:J25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="H36:J36"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11124,47 +11159,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="561"/>
-      <c r="C2" s="562"/>
-      <c r="D2" s="563"/>
-      <c r="E2" s="570" t="s">
+      <c r="B2" s="567"/>
+      <c r="C2" s="568"/>
+      <c r="D2" s="569"/>
+      <c r="E2" s="576" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="571"/>
-      <c r="G2" s="571"/>
-      <c r="H2" s="572"/>
-      <c r="I2" s="577" t="s">
+      <c r="F2" s="577"/>
+      <c r="G2" s="577"/>
+      <c r="H2" s="578"/>
+      <c r="I2" s="583" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="578"/>
-      <c r="K2" s="581">
+      <c r="J2" s="584"/>
+      <c r="K2" s="587">
         <f>Данные!B14</f>
         <v>22</v>
       </c>
-      <c r="L2" s="582"/>
+      <c r="L2" s="588"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="573"/>
-      <c r="Q2" s="573"/>
+      <c r="P2" s="579"/>
+      <c r="Q2" s="579"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="564"/>
-      <c r="C3" s="565"/>
-      <c r="D3" s="566"/>
-      <c r="E3" s="574" t="s">
+      <c r="B3" s="570"/>
+      <c r="C3" s="571"/>
+      <c r="D3" s="572"/>
+      <c r="E3" s="580" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="575"/>
-      <c r="G3" s="575"/>
-      <c r="H3" s="576"/>
-      <c r="I3" s="579"/>
-      <c r="J3" s="580"/>
-      <c r="K3" s="583"/>
-      <c r="L3" s="584"/>
+      <c r="F3" s="581"/>
+      <c r="G3" s="581"/>
+      <c r="H3" s="582"/>
+      <c r="I3" s="585"/>
+      <c r="J3" s="586"/>
+      <c r="K3" s="589"/>
+      <c r="L3" s="590"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11175,9 +11210,9 @@
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="567"/>
-      <c r="C4" s="568"/>
-      <c r="D4" s="569"/>
+      <c r="B4" s="573"/>
+      <c r="C4" s="574"/>
+      <c r="D4" s="575"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11196,22 +11231,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="588" t="s">
+      <c r="B5" s="552" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="589"/>
-      <c r="D5" s="522" t="str">
+      <c r="C5" s="553"/>
+      <c r="D5" s="505" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="523"/>
-      <c r="F5" s="523"/>
-      <c r="G5" s="523"/>
-      <c r="H5" s="524"/>
-      <c r="I5" s="590"/>
-      <c r="J5" s="591"/>
-      <c r="K5" s="523"/>
-      <c r="L5" s="524"/>
+      <c r="E5" s="506"/>
+      <c r="F5" s="506"/>
+      <c r="G5" s="506"/>
+      <c r="H5" s="507"/>
+      <c r="I5" s="554"/>
+      <c r="J5" s="555"/>
+      <c r="K5" s="506"/>
+      <c r="L5" s="507"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11222,22 +11257,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="588" t="s">
+      <c r="B6" s="552" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="592"/>
-      <c r="D6" s="516" t="str">
+      <c r="C6" s="556"/>
+      <c r="D6" s="499" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="590"/>
-      <c r="J6" s="591"/>
-      <c r="K6" s="523"/>
-      <c r="L6" s="524"/>
+      <c r="E6" s="557"/>
+      <c r="F6" s="557"/>
+      <c r="G6" s="557"/>
+      <c r="H6" s="558"/>
+      <c r="I6" s="554"/>
+      <c r="J6" s="555"/>
+      <c r="K6" s="506"/>
+      <c r="L6" s="507"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11248,27 +11283,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="595" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="596"/>
-      <c r="D7" s="525">
+      <c r="C7" s="560"/>
+      <c r="D7" s="508">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="597"/>
-      <c r="F7" s="597"/>
-      <c r="G7" s="597"/>
-      <c r="H7" s="598"/>
-      <c r="I7" s="595" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="559" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="599"/>
-      <c r="K7" s="513">
+      <c r="J7" s="563"/>
+      <c r="K7" s="514">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="514"/>
+      <c r="L7" s="515"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11762,12 +11797,12 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="600" t="s">
+      <c r="B23" s="564" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="601"/>
-      <c r="D23" s="601"/>
-      <c r="E23" s="602"/>
+      <c r="C23" s="565"/>
+      <c r="D23" s="565"/>
+      <c r="E23" s="566"/>
       <c r="F23" s="118" t="s">
         <v>16</v>
       </c>
@@ -11789,12 +11824,12 @@
     </row>
     <row r="24" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="78"/>
-      <c r="B24" s="600" t="s">
+      <c r="B24" s="564" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="601"/>
-      <c r="D24" s="601"/>
-      <c r="E24" s="602"/>
+      <c r="C24" s="565"/>
+      <c r="D24" s="565"/>
+      <c r="E24" s="566"/>
       <c r="F24" s="118" t="s">
         <v>16</v>
       </c>
@@ -11816,12 +11851,12 @@
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="78"/>
-      <c r="B25" s="585" t="s">
+      <c r="B25" s="549" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="586"/>
-      <c r="D25" s="586"/>
-      <c r="E25" s="587"/>
+      <c r="C25" s="550"/>
+      <c r="D25" s="550"/>
+      <c r="E25" s="551"/>
       <c r="F25" s="118" t="s">
         <v>16</v>
       </c>
@@ -11865,6 +11900,12 @@
     <row r="27" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -11880,12 +11921,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R25">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -11951,50 +11986,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="603">
+      <c r="B2" s="598">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="604"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="612" t="s">
+      <c r="C2" s="599"/>
+      <c r="D2" s="600"/>
+      <c r="E2" s="607" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="613"/>
-      <c r="G2" s="613"/>
-      <c r="H2" s="614"/>
-      <c r="I2" s="618" t="s">
+      <c r="F2" s="608"/>
+      <c r="G2" s="608"/>
+      <c r="H2" s="609"/>
+      <c r="I2" s="613" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="619"/>
-      <c r="K2" s="622">
+      <c r="J2" s="614"/>
+      <c r="K2" s="617">
         <f>Данные!B15</f>
         <v>22</v>
       </c>
-      <c r="L2" s="623"/>
+      <c r="L2" s="618"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="573"/>
-      <c r="Q2" s="573"/>
+      <c r="P2" s="579"/>
+      <c r="Q2" s="579"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="606"/>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="615" t="s">
+      <c r="B3" s="601"/>
+      <c r="C3" s="602"/>
+      <c r="D3" s="603"/>
+      <c r="E3" s="610" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="616"/>
-      <c r="G3" s="616"/>
-      <c r="H3" s="617"/>
-      <c r="I3" s="620"/>
-      <c r="J3" s="621"/>
-      <c r="K3" s="624"/>
-      <c r="L3" s="625"/>
+      <c r="F3" s="611"/>
+      <c r="G3" s="611"/>
+      <c r="H3" s="612"/>
+      <c r="I3" s="615"/>
+      <c r="J3" s="616"/>
+      <c r="K3" s="619"/>
+      <c r="L3" s="620"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12005,9 +12040,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="609"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="611"/>
+      <c r="B4" s="604"/>
+      <c r="C4" s="605"/>
+      <c r="D4" s="606"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -12026,22 +12061,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="588" t="s">
+      <c r="B5" s="552" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="626"/>
-      <c r="D5" s="522" t="str">
+      <c r="C5" s="591"/>
+      <c r="D5" s="505" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="523"/>
-      <c r="F5" s="523"/>
-      <c r="G5" s="523"/>
-      <c r="H5" s="524"/>
-      <c r="I5" s="627"/>
-      <c r="J5" s="628"/>
-      <c r="K5" s="629"/>
-      <c r="L5" s="524"/>
+      <c r="E5" s="506"/>
+      <c r="F5" s="506"/>
+      <c r="G5" s="506"/>
+      <c r="H5" s="507"/>
+      <c r="I5" s="592"/>
+      <c r="J5" s="593"/>
+      <c r="K5" s="594"/>
+      <c r="L5" s="507"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12052,22 +12087,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="588" t="s">
+      <c r="B6" s="552" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="626"/>
-      <c r="D6" s="516" t="str">
+      <c r="C6" s="591"/>
+      <c r="D6" s="499" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="627"/>
-      <c r="J6" s="628"/>
-      <c r="K6" s="629"/>
-      <c r="L6" s="524"/>
+      <c r="E6" s="557"/>
+      <c r="F6" s="557"/>
+      <c r="G6" s="557"/>
+      <c r="H6" s="558"/>
+      <c r="I6" s="592"/>
+      <c r="J6" s="593"/>
+      <c r="K6" s="594"/>
+      <c r="L6" s="507"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12078,27 +12113,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="595" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="630"/>
-      <c r="D7" s="525">
+      <c r="C7" s="595"/>
+      <c r="D7" s="508">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="597"/>
-      <c r="F7" s="597"/>
-      <c r="G7" s="597"/>
-      <c r="H7" s="598"/>
-      <c r="I7" s="631" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="596" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="630"/>
-      <c r="K7" s="513">
+      <c r="J7" s="595"/>
+      <c r="K7" s="514">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="514"/>
+      <c r="L7" s="515"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12295,13 +12330,13 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="600" t="s">
+      <c r="B14" s="564" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="601"/>
-      <c r="D14" s="601"/>
-      <c r="E14" s="601"/>
-      <c r="F14" s="632"/>
+      <c r="C14" s="565"/>
+      <c r="D14" s="565"/>
+      <c r="E14" s="565"/>
+      <c r="F14" s="597"/>
       <c r="G14" s="56" t="s">
         <v>78</v>
       </c>
@@ -12320,12 +12355,12 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
-      <c r="B15" s="585" t="s">
+      <c r="B15" s="549" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="586"/>
-      <c r="D15" s="586"/>
-      <c r="E15" s="587"/>
+      <c r="C15" s="550"/>
+      <c r="D15" s="550"/>
+      <c r="E15" s="551"/>
       <c r="F15" s="118" t="s">
         <v>16</v>
       </c>
@@ -12376,6 +12411,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12390,12 +12431,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -12469,47 +12504,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="561"/>
-      <c r="C2" s="562"/>
-      <c r="D2" s="563"/>
-      <c r="E2" s="570" t="s">
+      <c r="B2" s="567"/>
+      <c r="C2" s="568"/>
+      <c r="D2" s="569"/>
+      <c r="E2" s="576" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="571"/>
-      <c r="G2" s="571"/>
-      <c r="H2" s="572"/>
-      <c r="I2" s="577" t="s">
+      <c r="F2" s="577"/>
+      <c r="G2" s="577"/>
+      <c r="H2" s="578"/>
+      <c r="I2" s="583" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="578"/>
-      <c r="K2" s="581">
+      <c r="J2" s="584"/>
+      <c r="K2" s="587">
         <f>Данные!B16</f>
         <v>26</v>
       </c>
-      <c r="L2" s="582"/>
+      <c r="L2" s="588"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="573"/>
-      <c r="Q2" s="573"/>
+      <c r="P2" s="579"/>
+      <c r="Q2" s="579"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="564"/>
-      <c r="C3" s="565"/>
-      <c r="D3" s="566"/>
-      <c r="E3" s="574" t="s">
+      <c r="B3" s="570"/>
+      <c r="C3" s="571"/>
+      <c r="D3" s="572"/>
+      <c r="E3" s="580" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="575"/>
-      <c r="G3" s="575"/>
-      <c r="H3" s="576"/>
-      <c r="I3" s="579"/>
-      <c r="J3" s="580"/>
-      <c r="K3" s="583"/>
-      <c r="L3" s="584"/>
+      <c r="F3" s="581"/>
+      <c r="G3" s="581"/>
+      <c r="H3" s="582"/>
+      <c r="I3" s="585"/>
+      <c r="J3" s="586"/>
+      <c r="K3" s="589"/>
+      <c r="L3" s="590"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12520,9 +12555,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="567"/>
-      <c r="C4" s="568"/>
-      <c r="D4" s="569"/>
+      <c r="B4" s="573"/>
+      <c r="C4" s="574"/>
+      <c r="D4" s="575"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12541,22 +12576,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="588" t="s">
+      <c r="B5" s="552" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="589"/>
-      <c r="D5" s="522" t="str">
+      <c r="C5" s="553"/>
+      <c r="D5" s="505" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="523"/>
-      <c r="F5" s="523"/>
-      <c r="G5" s="523"/>
-      <c r="H5" s="524"/>
-      <c r="I5" s="590"/>
-      <c r="J5" s="591"/>
-      <c r="K5" s="523"/>
-      <c r="L5" s="524"/>
+      <c r="E5" s="506"/>
+      <c r="F5" s="506"/>
+      <c r="G5" s="506"/>
+      <c r="H5" s="507"/>
+      <c r="I5" s="554"/>
+      <c r="J5" s="555"/>
+      <c r="K5" s="506"/>
+      <c r="L5" s="507"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12567,22 +12602,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="588" t="s">
+      <c r="B6" s="552" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="592"/>
-      <c r="D6" s="516" t="str">
+      <c r="C6" s="556"/>
+      <c r="D6" s="499" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="590"/>
-      <c r="J6" s="591"/>
-      <c r="K6" s="523"/>
-      <c r="L6" s="524"/>
+      <c r="E6" s="557"/>
+      <c r="F6" s="557"/>
+      <c r="G6" s="557"/>
+      <c r="H6" s="558"/>
+      <c r="I6" s="554"/>
+      <c r="J6" s="555"/>
+      <c r="K6" s="506"/>
+      <c r="L6" s="507"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12593,27 +12628,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="595" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="596"/>
-      <c r="D7" s="525">
+      <c r="C7" s="560"/>
+      <c r="D7" s="508">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="597"/>
-      <c r="F7" s="597"/>
-      <c r="G7" s="597"/>
-      <c r="H7" s="598"/>
-      <c r="I7" s="595" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="559" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="599"/>
-      <c r="K7" s="513">
+      <c r="J7" s="563"/>
+      <c r="K7" s="514">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="514"/>
+      <c r="L7" s="515"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13096,6 +13131,9 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="B2:D4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
@@ -13111,9 +13149,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="B2:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -13181,47 +13216,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="561"/>
-      <c r="C2" s="562"/>
-      <c r="D2" s="563"/>
-      <c r="E2" s="570" t="s">
+      <c r="B2" s="567"/>
+      <c r="C2" s="568"/>
+      <c r="D2" s="569"/>
+      <c r="E2" s="576" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="571"/>
-      <c r="G2" s="571"/>
-      <c r="H2" s="572"/>
-      <c r="I2" s="577" t="s">
+      <c r="F2" s="577"/>
+      <c r="G2" s="577"/>
+      <c r="H2" s="578"/>
+      <c r="I2" s="583" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="578"/>
-      <c r="K2" s="581">
+      <c r="J2" s="584"/>
+      <c r="K2" s="587">
         <f>Данные!B17</f>
         <v>26</v>
       </c>
-      <c r="L2" s="582"/>
+      <c r="L2" s="588"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="633"/>
-      <c r="Q2" s="633"/>
+      <c r="P2" s="621"/>
+      <c r="Q2" s="621"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="564"/>
-      <c r="C3" s="565"/>
-      <c r="D3" s="566"/>
-      <c r="E3" s="574" t="s">
+      <c r="B3" s="570"/>
+      <c r="C3" s="571"/>
+      <c r="D3" s="572"/>
+      <c r="E3" s="580" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="575"/>
-      <c r="G3" s="575"/>
-      <c r="H3" s="576"/>
-      <c r="I3" s="579"/>
-      <c r="J3" s="580"/>
-      <c r="K3" s="583"/>
-      <c r="L3" s="584"/>
+      <c r="F3" s="581"/>
+      <c r="G3" s="581"/>
+      <c r="H3" s="582"/>
+      <c r="I3" s="585"/>
+      <c r="J3" s="586"/>
+      <c r="K3" s="589"/>
+      <c r="L3" s="590"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13232,9 +13267,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="567"/>
-      <c r="C4" s="568"/>
-      <c r="D4" s="569"/>
+      <c r="B4" s="573"/>
+      <c r="C4" s="574"/>
+      <c r="D4" s="575"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13253,22 +13288,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="588" t="s">
+      <c r="B5" s="552" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="589"/>
-      <c r="D5" s="522" t="str">
+      <c r="C5" s="553"/>
+      <c r="D5" s="505" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="523"/>
-      <c r="F5" s="523"/>
-      <c r="G5" s="523"/>
-      <c r="H5" s="524"/>
-      <c r="I5" s="590"/>
-      <c r="J5" s="591"/>
-      <c r="K5" s="523"/>
-      <c r="L5" s="524"/>
+      <c r="E5" s="506"/>
+      <c r="F5" s="506"/>
+      <c r="G5" s="506"/>
+      <c r="H5" s="507"/>
+      <c r="I5" s="554"/>
+      <c r="J5" s="555"/>
+      <c r="K5" s="506"/>
+      <c r="L5" s="507"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13279,22 +13314,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="588" t="s">
+      <c r="B6" s="552" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="592"/>
-      <c r="D6" s="516" t="str">
+      <c r="C6" s="556"/>
+      <c r="D6" s="499" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="590"/>
-      <c r="J6" s="591"/>
-      <c r="K6" s="523"/>
-      <c r="L6" s="524"/>
+      <c r="E6" s="557"/>
+      <c r="F6" s="557"/>
+      <c r="G6" s="557"/>
+      <c r="H6" s="558"/>
+      <c r="I6" s="554"/>
+      <c r="J6" s="555"/>
+      <c r="K6" s="506"/>
+      <c r="L6" s="507"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13305,27 +13340,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="595" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="596"/>
-      <c r="D7" s="525">
+      <c r="C7" s="560"/>
+      <c r="D7" s="508">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="597"/>
-      <c r="F7" s="597"/>
-      <c r="G7" s="597"/>
-      <c r="H7" s="598"/>
-      <c r="I7" s="595" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="559" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="599"/>
-      <c r="K7" s="513">
+      <c r="J7" s="563"/>
+      <c r="K7" s="514">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="514"/>
+      <c r="L7" s="515"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13610,6 +13645,17 @@
     <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -13617,17 +13663,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -13699,60 +13734,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="603"/>
-      <c r="C2" s="604"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="612" t="s">
+      <c r="B2" s="598"/>
+      <c r="C2" s="599"/>
+      <c r="D2" s="600"/>
+      <c r="E2" s="607" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="613"/>
-      <c r="G2" s="613"/>
-      <c r="H2" s="614"/>
-      <c r="I2" s="618" t="s">
+      <c r="F2" s="608"/>
+      <c r="G2" s="608"/>
+      <c r="H2" s="609"/>
+      <c r="I2" s="613" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="619"/>
-      <c r="K2" s="622">
+      <c r="J2" s="614"/>
+      <c r="K2" s="617">
         <f>Данные!B18</f>
         <v>50</v>
       </c>
-      <c r="L2" s="623"/>
-      <c r="M2" s="634"/>
-      <c r="N2" s="635"/>
-      <c r="O2" s="635"/>
-      <c r="P2" s="635"/>
-      <c r="Q2" s="635"/>
-      <c r="R2" s="636"/>
+      <c r="L2" s="618"/>
+      <c r="M2" s="622"/>
+      <c r="N2" s="623"/>
+      <c r="O2" s="623"/>
+      <c r="P2" s="623"/>
+      <c r="Q2" s="623"/>
+      <c r="R2" s="624"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="606"/>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="615" t="s">
+      <c r="B3" s="601"/>
+      <c r="C3" s="602"/>
+      <c r="D3" s="603"/>
+      <c r="E3" s="610" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="616"/>
-      <c r="G3" s="616"/>
-      <c r="H3" s="617"/>
-      <c r="I3" s="620"/>
-      <c r="J3" s="621"/>
-      <c r="K3" s="624"/>
-      <c r="L3" s="625"/>
-      <c r="M3" s="637"/>
-      <c r="N3" s="638"/>
-      <c r="O3" s="638"/>
-      <c r="P3" s="638"/>
-      <c r="Q3" s="638"/>
-      <c r="R3" s="639"/>
+      <c r="F3" s="611"/>
+      <c r="G3" s="611"/>
+      <c r="H3" s="612"/>
+      <c r="I3" s="615"/>
+      <c r="J3" s="616"/>
+      <c r="K3" s="619"/>
+      <c r="L3" s="620"/>
+      <c r="M3" s="625"/>
+      <c r="N3" s="626"/>
+      <c r="O3" s="626"/>
+      <c r="P3" s="626"/>
+      <c r="Q3" s="626"/>
+      <c r="R3" s="627"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="609"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="611"/>
+      <c r="B4" s="604"/>
+      <c r="C4" s="605"/>
+      <c r="D4" s="606"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -13761,95 +13796,95 @@
       <c r="J4" s="251"/>
       <c r="K4" s="254"/>
       <c r="L4" s="255"/>
-      <c r="M4" s="637"/>
-      <c r="N4" s="638"/>
-      <c r="O4" s="638"/>
-      <c r="P4" s="638"/>
-      <c r="Q4" s="638"/>
-      <c r="R4" s="639"/>
+      <c r="M4" s="625"/>
+      <c r="N4" s="626"/>
+      <c r="O4" s="626"/>
+      <c r="P4" s="626"/>
+      <c r="Q4" s="626"/>
+      <c r="R4" s="627"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="588" t="s">
+      <c r="B5" s="552" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="626"/>
-      <c r="D5" s="522" t="str">
+      <c r="C5" s="591"/>
+      <c r="D5" s="505" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="523"/>
-      <c r="F5" s="523"/>
-      <c r="G5" s="523"/>
-      <c r="H5" s="524"/>
-      <c r="I5" s="627"/>
-      <c r="J5" s="628"/>
-      <c r="K5" s="629"/>
-      <c r="L5" s="524"/>
-      <c r="M5" s="637"/>
-      <c r="N5" s="638"/>
-      <c r="O5" s="638"/>
-      <c r="P5" s="638"/>
-      <c r="Q5" s="638"/>
-      <c r="R5" s="639"/>
+      <c r="E5" s="506"/>
+      <c r="F5" s="506"/>
+      <c r="G5" s="506"/>
+      <c r="H5" s="507"/>
+      <c r="I5" s="592"/>
+      <c r="J5" s="593"/>
+      <c r="K5" s="594"/>
+      <c r="L5" s="507"/>
+      <c r="M5" s="625"/>
+      <c r="N5" s="626"/>
+      <c r="O5" s="626"/>
+      <c r="P5" s="626"/>
+      <c r="Q5" s="626"/>
+      <c r="R5" s="627"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="588" t="s">
+      <c r="B6" s="552" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="626"/>
-      <c r="D6" s="516" t="str">
+      <c r="C6" s="591"/>
+      <c r="D6" s="499" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="627"/>
-      <c r="J6" s="628"/>
-      <c r="K6" s="629"/>
-      <c r="L6" s="524"/>
-      <c r="M6" s="637"/>
-      <c r="N6" s="638"/>
-      <c r="O6" s="638"/>
-      <c r="P6" s="638"/>
-      <c r="Q6" s="638"/>
-      <c r="R6" s="639"/>
+      <c r="E6" s="557"/>
+      <c r="F6" s="557"/>
+      <c r="G6" s="557"/>
+      <c r="H6" s="558"/>
+      <c r="I6" s="592"/>
+      <c r="J6" s="593"/>
+      <c r="K6" s="594"/>
+      <c r="L6" s="507"/>
+      <c r="M6" s="625"/>
+      <c r="N6" s="626"/>
+      <c r="O6" s="626"/>
+      <c r="P6" s="626"/>
+      <c r="Q6" s="626"/>
+      <c r="R6" s="627"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="595" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="630"/>
-      <c r="D7" s="525">
+      <c r="C7" s="595"/>
+      <c r="D7" s="508">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="597"/>
-      <c r="F7" s="597"/>
-      <c r="G7" s="597"/>
-      <c r="H7" s="598"/>
-      <c r="I7" s="631" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="596" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="630"/>
-      <c r="K7" s="513">
+      <c r="J7" s="595"/>
+      <c r="K7" s="514">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="514"/>
-      <c r="M7" s="637"/>
-      <c r="N7" s="638"/>
-      <c r="O7" s="638"/>
-      <c r="P7" s="638"/>
-      <c r="Q7" s="638"/>
-      <c r="R7" s="639"/>
+      <c r="L7" s="515"/>
+      <c r="M7" s="625"/>
+      <c r="N7" s="626"/>
+      <c r="O7" s="626"/>
+      <c r="P7" s="626"/>
+      <c r="Q7" s="626"/>
+      <c r="R7" s="627"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14271,12 +14306,12 @@
     </row>
     <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
-      <c r="B21" s="585" t="s">
+      <c r="B21" s="549" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="586"/>
-      <c r="D21" s="586"/>
-      <c r="E21" s="587"/>
+      <c r="C21" s="550"/>
+      <c r="D21" s="550"/>
+      <c r="E21" s="551"/>
       <c r="F21" s="118" t="s">
         <v>16</v>
       </c>
@@ -14322,13 +14357,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -14341,6 +14369,13 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
@@ -14405,47 +14440,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="603"/>
-      <c r="C2" s="604"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="612" t="s">
+      <c r="B2" s="598"/>
+      <c r="C2" s="599"/>
+      <c r="D2" s="600"/>
+      <c r="E2" s="607" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="613"/>
-      <c r="G2" s="613"/>
-      <c r="H2" s="614"/>
-      <c r="I2" s="618" t="s">
+      <c r="F2" s="608"/>
+      <c r="G2" s="608"/>
+      <c r="H2" s="609"/>
+      <c r="I2" s="613" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="619"/>
-      <c r="K2" s="622">
+      <c r="J2" s="614"/>
+      <c r="K2" s="617">
         <f>Данные!B19</f>
         <v>50</v>
       </c>
-      <c r="L2" s="623"/>
+      <c r="L2" s="618"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="640"/>
-      <c r="Q2" s="640"/>
+      <c r="P2" s="628"/>
+      <c r="Q2" s="628"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="606"/>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="615" t="s">
+      <c r="B3" s="601"/>
+      <c r="C3" s="602"/>
+      <c r="D3" s="603"/>
+      <c r="E3" s="610" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="616"/>
-      <c r="G3" s="616"/>
-      <c r="H3" s="617"/>
-      <c r="I3" s="620"/>
-      <c r="J3" s="621"/>
-      <c r="K3" s="624"/>
-      <c r="L3" s="625"/>
+      <c r="F3" s="611"/>
+      <c r="G3" s="611"/>
+      <c r="H3" s="612"/>
+      <c r="I3" s="615"/>
+      <c r="J3" s="616"/>
+      <c r="K3" s="619"/>
+      <c r="L3" s="620"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14456,9 +14491,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="609"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="611"/>
+      <c r="B4" s="604"/>
+      <c r="C4" s="605"/>
+      <c r="D4" s="606"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -14477,22 +14512,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="588" t="s">
+      <c r="B5" s="552" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="626"/>
-      <c r="D5" s="522" t="str">
+      <c r="C5" s="591"/>
+      <c r="D5" s="505" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="523"/>
-      <c r="F5" s="523"/>
-      <c r="G5" s="523"/>
-      <c r="H5" s="524"/>
-      <c r="I5" s="627"/>
-      <c r="J5" s="628"/>
-      <c r="K5" s="629"/>
-      <c r="L5" s="524"/>
+      <c r="E5" s="506"/>
+      <c r="F5" s="506"/>
+      <c r="G5" s="506"/>
+      <c r="H5" s="507"/>
+      <c r="I5" s="592"/>
+      <c r="J5" s="593"/>
+      <c r="K5" s="594"/>
+      <c r="L5" s="507"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14503,22 +14538,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="588" t="s">
+      <c r="B6" s="552" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="626"/>
-      <c r="D6" s="516" t="str">
+      <c r="C6" s="591"/>
+      <c r="D6" s="499" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="627"/>
-      <c r="J6" s="628"/>
-      <c r="K6" s="629"/>
-      <c r="L6" s="524"/>
+      <c r="E6" s="557"/>
+      <c r="F6" s="557"/>
+      <c r="G6" s="557"/>
+      <c r="H6" s="558"/>
+      <c r="I6" s="592"/>
+      <c r="J6" s="593"/>
+      <c r="K6" s="594"/>
+      <c r="L6" s="507"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14529,27 +14564,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="595" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="630"/>
-      <c r="D7" s="525">
+      <c r="C7" s="595"/>
+      <c r="D7" s="508">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="597"/>
-      <c r="F7" s="597"/>
-      <c r="G7" s="597"/>
-      <c r="H7" s="598"/>
-      <c r="I7" s="631" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="596" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="630"/>
-      <c r="K7" s="513">
+      <c r="J7" s="595"/>
+      <c r="K7" s="514">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="514"/>
+      <c r="L7" s="515"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -14812,12 +14847,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="585" t="s">
+      <c r="B16" s="549" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="586"/>
-      <c r="D16" s="586"/>
-      <c r="E16" s="587"/>
+      <c r="C16" s="550"/>
+      <c r="D16" s="550"/>
+      <c r="E16" s="551"/>
       <c r="F16" s="261" t="s">
         <v>16</v>
       </c>
@@ -14863,15 +14898,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
@@ -14882,6 +14908,15 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
